--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/devops-menu-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/devops-menu-label.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="192">
   <si>
     <r>
       <rPr>
@@ -1925,6 +1925,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
       <t>Devops</t>
     </r>
     <r>
@@ -1939,6 +1945,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
       <t>Devops</t>
     </r>
     <r>
@@ -1952,6 +1964,40 @@
     </r>
   </si>
   <si>
+    <t>N_OPERATIONS</t>
+  </si>
+  <si>
+    <t>N_OPERATIONS_MENU</t>
+  </si>
+  <si>
+    <r>
+      <t>Devops</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管理</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>运维管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
     <t>hzero</t>
   </si>
   <si>
@@ -2111,9 +2157,6 @@
     <t>TB</t>
   </si>
   <si>
-    <t>66</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -2228,6 +2271,18 @@
     <t>choerodon.code.project.setting|choerodon.code.project.setting.setting-notify</t>
   </si>
   <si>
+    <t>iam_menu-17</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.operation</t>
+  </si>
+  <si>
+    <t>运营</t>
+  </si>
+  <si>
+    <t>YY</t>
+  </si>
+  <si>
     <t>标签表</t>
   </si>
   <si>
@@ -2274,6 +2329,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
       <t>devops</t>
     </r>
     <r>
@@ -2288,6 +2349,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
       <t>devops</t>
     </r>
     <r>
@@ -2310,6 +2377,15 @@
     </r>
   </si>
   <si>
+    <t>iam_label-11</t>
+  </si>
+  <si>
+    <t>运维项目类型标签</t>
+  </si>
+  <si>
+    <t>operation label</t>
+  </si>
+  <si>
     <t>标签关系表</t>
   </si>
   <si>
@@ -2329,9 +2405,6 @@
   </si>
   <si>
     <t>assign_type</t>
-  </si>
-  <si>
-    <t>M</t>
   </si>
   <si>
     <t>A</t>
@@ -2342,9 +2415,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
@@ -2386,6 +2459,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Droid Sans Fallback"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -2422,6 +2501,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -2430,24 +2517,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2474,16 +2562,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2491,44 +2579,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2543,10 +2594,32 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2557,26 +2630,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Droid Sans Fallback"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2661,19 +2734,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2685,7 +2752,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2697,19 +2776,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2727,7 +2800,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2745,7 +2818,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2757,19 +2860,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2781,37 +2878,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2823,19 +2896,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2942,15 +3015,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2981,17 +3045,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3014,17 +3072,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3039,162 +3088,187 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3204,24 +3278,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3229,33 +3303,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3657,10 +3731,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5533333333333" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="8" customWidth="1"/>
+    <col min="1" max="1" width="15.5533333333333" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="9" customWidth="1"/>
     <col min="3" max="3" width="28.1066666666667" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="9" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="10" customWidth="1"/>
     <col min="5" max="5" width="38.5533333333333" customWidth="1"/>
     <col min="6" max="6" width="23.44" customWidth="1"/>
     <col min="7" max="7" width="21.5533333333333" customWidth="1"/>
@@ -3674,79 +3748,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="10"/>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="11"/>
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" ht="24" spans="3:7">
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="30" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="33" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" ht="24" spans="1:3">
-      <c r="A5" s="10"/>
+      <c r="A5" s="11"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="34" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="34"/>
+      <c r="E8" s="35"/>
     </row>
     <row r="9" ht="72" spans="3:6">
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="36" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -3754,56 +3828,56 @@
       </c>
     </row>
     <row r="10" ht="65.25" spans="3:5">
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="36" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="96" spans="3:5">
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="36" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" ht="24" spans="3:5">
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="37" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="34"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="35"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="34"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="35"/>
     </row>
     <row r="15" ht="48" spans="3:5">
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="38" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3813,64 +3887,64 @@
       </c>
     </row>
     <row r="19" ht="24" spans="3:5">
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
     </row>
     <row r="20" ht="24" spans="3:4">
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="26" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" ht="24" spans="3:4">
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="26" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" ht="24" spans="3:4">
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" ht="24" spans="3:4">
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="12"/>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="12"/>
+      <c r="E26" s="13"/>
     </row>
     <row r="27" ht="41.25" spans="3:3">
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="28" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3893,10 +3967,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y19"/>
+  <dimension ref="A1:Y21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -3904,8 +3978,11 @@
     <col min="1" max="1" width="14.4" customWidth="1"/>
     <col min="4" max="4" width="23.4" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="7" max="7" width="15.6" customWidth="1"/>
+    <col min="6" max="6" width="28.8" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
     <col min="8" max="8" width="14.4" customWidth="1"/>
+    <col min="11" max="11" width="14.3" customWidth="1"/>
+    <col min="19" max="19" width="26.7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3966,7 +4043,7 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="6"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
@@ -3988,578 +4065,653 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
-      <c r="A10" t="s">
+    <row r="9" spans="1:10">
+      <c r="A9" s="7"/>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" t="s">
         <v>50</v>
       </c>
-      <c r="B10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" t="s">
-        <v>70</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K10" s="4" t="s">
+      <c r="G11" t="s">
         <v>72</v>
       </c>
-      <c r="L10" t="s">
+      <c r="H11" t="s">
         <v>73</v>
       </c>
-      <c r="M10" t="s">
+      <c r="I11" t="s">
         <v>74</v>
       </c>
-      <c r="N10" t="s">
+      <c r="J11" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="O10" t="s">
+      <c r="K11" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="P10" t="s">
+      <c r="L11" t="s">
         <v>77</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="M11" t="s">
         <v>78</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="N11" t="s">
         <v>79</v>
       </c>
-      <c r="S10" t="s">
+      <c r="O11" t="s">
         <v>80</v>
       </c>
-      <c r="T10" t="s">
+      <c r="P11" t="s">
         <v>81</v>
       </c>
-      <c r="U10" t="s">
+      <c r="Q11" t="s">
         <v>82</v>
       </c>
-      <c r="V10" t="s">
+      <c r="R11" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="W10" t="s">
+      <c r="S11" t="s">
         <v>84</v>
       </c>
-      <c r="X10" t="s">
+      <c r="T11" t="s">
         <v>85</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="U11" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="11" spans="5:24">
-      <c r="E11" t="s">
+      <c r="V11" t="s">
         <v>87</v>
       </c>
-      <c r="F11" t="s">
+      <c r="W11" t="s">
         <v>88</v>
       </c>
-      <c r="G11" t="s">
+      <c r="X11" t="s">
         <v>89</v>
       </c>
-      <c r="H11" t="s">
-        <v>89</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="Y11" t="s">
         <v>90</v>
-      </c>
-      <c r="J11" t="s">
-        <v>91</v>
-      </c>
-      <c r="K11" t="s">
-        <v>92</v>
-      </c>
-      <c r="L11" t="s">
-        <v>93</v>
-      </c>
-      <c r="M11" t="s">
-        <v>94</v>
-      </c>
-      <c r="N11" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>92</v>
-      </c>
-      <c r="R11" t="s">
-        <v>92</v>
-      </c>
-      <c r="S11" t="s">
-        <v>88</v>
-      </c>
-      <c r="T11" t="s">
-        <v>92</v>
-      </c>
-      <c r="V11" t="s">
-        <v>96</v>
-      </c>
-      <c r="X11" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="12" spans="5:24">
       <c r="E12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12" t="s">
+        <v>96</v>
+      </c>
+      <c r="L12" t="s">
         <v>97</v>
       </c>
-      <c r="F12" t="s">
+      <c r="M12" t="s">
         <v>98</v>
       </c>
-      <c r="G12" t="s">
+      <c r="N12" t="s">
         <v>99</v>
       </c>
-      <c r="H12" t="s">
+      <c r="Q12" t="s">
+        <v>96</v>
+      </c>
+      <c r="R12" t="s">
+        <v>96</v>
+      </c>
+      <c r="S12" t="s">
+        <v>92</v>
+      </c>
+      <c r="T12" t="s">
+        <v>96</v>
+      </c>
+      <c r="V12" t="s">
+        <v>100</v>
+      </c>
+      <c r="X12" t="s">
         <v>99</v>
-      </c>
-      <c r="I12" t="s">
-        <v>100</v>
-      </c>
-      <c r="J12" t="s">
-        <v>91</v>
-      </c>
-      <c r="K12" t="str">
-        <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-8</v>
-      </c>
-      <c r="L12" t="s">
-        <v>101</v>
-      </c>
-      <c r="M12" t="s">
-        <v>102</v>
-      </c>
-      <c r="N12" t="s">
-        <v>95</v>
-      </c>
-      <c r="O12" t="s">
-        <v>103</v>
-      </c>
-      <c r="P12" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>92</v>
-      </c>
-      <c r="R12" t="s">
-        <v>92</v>
-      </c>
-      <c r="S12" t="s">
-        <v>105</v>
-      </c>
-      <c r="T12" t="s">
-        <v>92</v>
-      </c>
-      <c r="V12" t="s">
-        <v>96</v>
-      </c>
-      <c r="X12" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="13" spans="5:24">
       <c r="E13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I13" t="s">
+        <v>104</v>
+      </c>
+      <c r="J13" t="s">
+        <v>95</v>
+      </c>
+      <c r="K13" s="5" t="str">
+        <f>E17</f>
+        <v>iam_menu-13</v>
+      </c>
+      <c r="L13" t="s">
+        <v>105</v>
+      </c>
+      <c r="M13" t="s">
         <v>106</v>
       </c>
-      <c r="F13" t="s">
+      <c r="N13" t="s">
+        <v>99</v>
+      </c>
+      <c r="O13" t="s">
         <v>107</v>
       </c>
-      <c r="G13" t="s">
+      <c r="P13" t="s">
         <v>108</v>
       </c>
-      <c r="H13" t="s">
-        <v>108</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="Q13" t="s">
+        <v>96</v>
+      </c>
+      <c r="R13" t="s">
+        <v>96</v>
+      </c>
+      <c r="S13" t="s">
         <v>109</v>
       </c>
-      <c r="J13" t="s">
-        <v>91</v>
-      </c>
-      <c r="K13" t="str">
-        <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-8</v>
-      </c>
-      <c r="L13" t="s">
-        <v>101</v>
-      </c>
-      <c r="M13" t="s">
-        <v>110</v>
-      </c>
-      <c r="N13" t="s">
-        <v>95</v>
-      </c>
-      <c r="O13" t="s">
-        <v>111</v>
-      </c>
-      <c r="P13" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>92</v>
-      </c>
-      <c r="R13" t="s">
-        <v>92</v>
-      </c>
-      <c r="S13" t="s">
-        <v>113</v>
-      </c>
       <c r="T13" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="V13" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="X13" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="5:24">
       <c r="E14" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H14" t="s">
+        <v>112</v>
+      </c>
+      <c r="I14" t="s">
+        <v>113</v>
+      </c>
+      <c r="J14" t="s">
+        <v>95</v>
+      </c>
+      <c r="K14" t="str">
+        <f>菜单SAAS版!$E$12</f>
+        <v>iam_menu-8</v>
+      </c>
+      <c r="L14" t="s">
+        <v>105</v>
+      </c>
+      <c r="M14" t="s">
         <v>114</v>
       </c>
-      <c r="F14" t="s">
+      <c r="N14" t="s">
+        <v>99</v>
+      </c>
+      <c r="O14" t="s">
         <v>115</v>
       </c>
-      <c r="G14" t="s">
+      <c r="P14" t="s">
         <v>116</v>
       </c>
-      <c r="H14" t="s">
-        <v>116</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="Q14" t="s">
+        <v>96</v>
+      </c>
+      <c r="R14" t="s">
+        <v>96</v>
+      </c>
+      <c r="S14" t="s">
         <v>117</v>
       </c>
-      <c r="J14" t="s">
-        <v>91</v>
-      </c>
-      <c r="K14" t="s">
-        <v>118</v>
-      </c>
-      <c r="L14" t="s">
-        <v>101</v>
-      </c>
-      <c r="M14" t="s">
-        <v>119</v>
-      </c>
-      <c r="N14" t="s">
-        <v>95</v>
-      </c>
-      <c r="O14" t="s">
-        <v>111</v>
-      </c>
-      <c r="P14" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>92</v>
-      </c>
-      <c r="R14" t="s">
-        <v>92</v>
-      </c>
-      <c r="S14" t="s">
-        <v>121</v>
-      </c>
       <c r="T14" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="V14" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="X14" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="5:24">
       <c r="E15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G15" t="s">
+        <v>120</v>
+      </c>
+      <c r="H15" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" t="s">
+        <v>121</v>
+      </c>
+      <c r="J15" t="s">
+        <v>95</v>
+      </c>
+      <c r="K15" t="str">
+        <f>E21</f>
+        <v>iam_menu-17</v>
+      </c>
+      <c r="L15" t="s">
+        <v>105</v>
+      </c>
+      <c r="M15" t="s">
         <v>122</v>
       </c>
-      <c r="F15" t="s">
+      <c r="N15" t="s">
+        <v>99</v>
+      </c>
+      <c r="O15" t="s">
+        <v>115</v>
+      </c>
+      <c r="P15" t="s">
         <v>123</v>
       </c>
-      <c r="G15" t="s">
+      <c r="Q15" t="s">
+        <v>96</v>
+      </c>
+      <c r="R15" t="s">
+        <v>96</v>
+      </c>
+      <c r="S15" t="s">
         <v>124</v>
       </c>
-      <c r="H15" t="s">
-        <v>124</v>
-      </c>
-      <c r="I15" t="s">
-        <v>125</v>
-      </c>
-      <c r="J15" t="s">
-        <v>91</v>
-      </c>
-      <c r="K15" t="s">
-        <v>118</v>
-      </c>
-      <c r="L15" t="s">
-        <v>101</v>
-      </c>
-      <c r="M15" t="s">
-        <v>126</v>
-      </c>
-      <c r="N15" t="s">
-        <v>95</v>
-      </c>
-      <c r="O15" t="s">
-        <v>127</v>
-      </c>
-      <c r="P15" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>92</v>
-      </c>
-      <c r="R15" t="s">
-        <v>92</v>
-      </c>
-      <c r="S15" t="s">
-        <v>129</v>
-      </c>
       <c r="T15" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="V15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="X15" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="5:24">
       <c r="E16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" t="s">
+        <v>127</v>
+      </c>
+      <c r="H16" t="s">
+        <v>127</v>
+      </c>
+      <c r="I16" t="s">
+        <v>128</v>
+      </c>
+      <c r="J16" t="s">
+        <v>95</v>
+      </c>
+      <c r="K16" t="str">
+        <f>E21</f>
+        <v>iam_menu-17</v>
+      </c>
+      <c r="L16" t="s">
+        <v>105</v>
+      </c>
+      <c r="M16" t="s">
+        <v>129</v>
+      </c>
+      <c r="N16" t="s">
+        <v>99</v>
+      </c>
+      <c r="O16" t="s">
         <v>130</v>
       </c>
-      <c r="F16" t="s">
+      <c r="P16" t="s">
         <v>131</v>
       </c>
-      <c r="G16" t="s">
+      <c r="Q16" t="s">
+        <v>96</v>
+      </c>
+      <c r="R16" t="s">
+        <v>96</v>
+      </c>
+      <c r="S16" t="s">
         <v>132</v>
       </c>
-      <c r="H16" t="s">
-        <v>132</v>
-      </c>
-      <c r="I16" t="s">
-        <v>133</v>
-      </c>
-      <c r="J16" t="s">
-        <v>91</v>
-      </c>
-      <c r="K16" t="s">
-        <v>92</v>
-      </c>
-      <c r="L16" t="s">
-        <v>93</v>
-      </c>
-      <c r="M16" t="s">
-        <v>134</v>
-      </c>
-      <c r="N16" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>92</v>
-      </c>
-      <c r="R16" t="s">
-        <v>92</v>
-      </c>
-      <c r="S16" t="s">
-        <v>131</v>
-      </c>
       <c r="T16" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="V16" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="X16" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="5:24">
       <c r="E17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" t="s">
         <v>135</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
+        <v>135</v>
+      </c>
+      <c r="I17" t="s">
         <v>136</v>
       </c>
-      <c r="G17" t="s">
+      <c r="J17" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" t="s">
+        <v>96</v>
+      </c>
+      <c r="L17" t="s">
+        <v>97</v>
+      </c>
+      <c r="M17" t="s">
         <v>137</v>
       </c>
-      <c r="H17" t="s">
-        <v>137</v>
-      </c>
-      <c r="I17" t="s">
-        <v>138</v>
-      </c>
-      <c r="J17" t="s">
-        <v>91</v>
-      </c>
-      <c r="K17" t="str">
-        <f>菜单SAAS版!$E$16</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="L17" t="s">
-        <v>101</v>
-      </c>
-      <c r="M17" t="s">
-        <v>139</v>
-      </c>
       <c r="N17" t="s">
-        <v>95</v>
-      </c>
-      <c r="O17" t="s">
-        <v>140</v>
-      </c>
-      <c r="P17" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="Q17" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="R17" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="S17" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="T17" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="V17" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="X17" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="5:24">
       <c r="E18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" t="s">
+        <v>139</v>
+      </c>
+      <c r="G18" t="s">
+        <v>140</v>
+      </c>
+      <c r="H18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I18" t="s">
+        <v>141</v>
+      </c>
+      <c r="J18" t="s">
+        <v>95</v>
+      </c>
+      <c r="K18" t="str">
+        <f>菜单SAAS版!$E$17</f>
+        <v>iam_menu-13</v>
+      </c>
+      <c r="L18" t="s">
+        <v>105</v>
+      </c>
+      <c r="M18" t="s">
+        <v>142</v>
+      </c>
+      <c r="N18" t="s">
+        <v>99</v>
+      </c>
+      <c r="O18" t="s">
         <v>143</v>
       </c>
-      <c r="F18" t="s">
+      <c r="P18" t="s">
         <v>144</v>
       </c>
-      <c r="G18" t="s">
+      <c r="Q18" t="s">
+        <v>96</v>
+      </c>
+      <c r="R18" t="s">
+        <v>96</v>
+      </c>
+      <c r="S18" t="s">
         <v>145</v>
       </c>
-      <c r="H18" t="s">
-        <v>145</v>
-      </c>
-      <c r="I18" t="s">
-        <v>146</v>
-      </c>
-      <c r="J18" t="s">
-        <v>91</v>
-      </c>
-      <c r="K18" t="str">
-        <f>菜单SAAS版!$E$16</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="L18" t="s">
-        <v>101</v>
-      </c>
-      <c r="M18" t="s">
-        <v>119</v>
-      </c>
-      <c r="N18" t="s">
-        <v>95</v>
-      </c>
-      <c r="O18" t="s">
-        <v>147</v>
-      </c>
-      <c r="P18" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>92</v>
-      </c>
-      <c r="R18" t="s">
-        <v>92</v>
-      </c>
-      <c r="S18" t="s">
-        <v>149</v>
-      </c>
       <c r="T18" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="V18" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="X18" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="5:24">
       <c r="E19" t="s">
+        <v>146</v>
+      </c>
+      <c r="F19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" t="s">
+        <v>148</v>
+      </c>
+      <c r="H19" t="s">
+        <v>148</v>
+      </c>
+      <c r="I19" t="s">
+        <v>149</v>
+      </c>
+      <c r="J19" t="s">
+        <v>95</v>
+      </c>
+      <c r="K19" t="str">
+        <f>菜单SAAS版!$E$17</f>
+        <v>iam_menu-13</v>
+      </c>
+      <c r="L19" t="s">
+        <v>105</v>
+      </c>
+      <c r="M19" t="s">
+        <v>122</v>
+      </c>
+      <c r="N19" t="s">
+        <v>99</v>
+      </c>
+      <c r="O19" t="s">
         <v>150</v>
       </c>
-      <c r="F19" t="s">
+      <c r="P19" t="s">
         <v>151</v>
       </c>
-      <c r="G19" t="s">
+      <c r="Q19" t="s">
+        <v>96</v>
+      </c>
+      <c r="R19" t="s">
+        <v>96</v>
+      </c>
+      <c r="S19" t="s">
         <v>152</v>
       </c>
-      <c r="H19" t="s">
-        <v>152</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="T19" t="s">
+        <v>96</v>
+      </c>
+      <c r="V19" t="s">
+        <v>100</v>
+      </c>
+      <c r="X19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="5:24">
+      <c r="E20" t="s">
         <v>153</v>
       </c>
-      <c r="J19" t="s">
-        <v>91</v>
-      </c>
-      <c r="K19" t="str">
-        <f>菜单SAAS版!$E$16</f>
+      <c r="F20" t="s">
+        <v>154</v>
+      </c>
+      <c r="G20" t="s">
+        <v>155</v>
+      </c>
+      <c r="H20" t="s">
+        <v>155</v>
+      </c>
+      <c r="I20" t="s">
+        <v>156</v>
+      </c>
+      <c r="J20" t="s">
+        <v>95</v>
+      </c>
+      <c r="K20" t="str">
+        <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-13</v>
       </c>
-      <c r="L19" t="s">
-        <v>101</v>
-      </c>
-      <c r="M19" t="s">
-        <v>102</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="L20" t="s">
+        <v>105</v>
+      </c>
+      <c r="M20" t="s">
+        <v>106</v>
+      </c>
+      <c r="N20" t="s">
+        <v>99</v>
+      </c>
+      <c r="O20" t="s">
+        <v>157</v>
+      </c>
+      <c r="P20" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>96</v>
+      </c>
+      <c r="R20" t="s">
+        <v>96</v>
+      </c>
+      <c r="S20" t="s">
+        <v>159</v>
+      </c>
+      <c r="T20" t="s">
+        <v>96</v>
+      </c>
+      <c r="V20" t="s">
+        <v>100</v>
+      </c>
+      <c r="X20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="5:24">
+      <c r="E21" t="s">
+        <v>160</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G21" t="s">
+        <v>162</v>
+      </c>
+      <c r="H21" t="s">
+        <v>162</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="J21" t="s">
         <v>95</v>
       </c>
-      <c r="O19" t="s">
-        <v>154</v>
-      </c>
-      <c r="P19" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>92</v>
-      </c>
-      <c r="R19" t="s">
-        <v>92</v>
-      </c>
-      <c r="S19" t="s">
-        <v>156</v>
-      </c>
-      <c r="T19" t="s">
-        <v>92</v>
-      </c>
-      <c r="V19" t="s">
-        <v>96</v>
-      </c>
-      <c r="X19" t="s">
-        <v>95</v>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="M21">
+        <v>6</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21" t="s">
+        <v>161</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="V21" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4571,10 +4723,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -4618,131 +4770,144 @@
         <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="H7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="I7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="J7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="K7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="L7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="M7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="N7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="O7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" s="5" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>62</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="5:7">
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
+    <row r="9" spans="5:15">
+      <c r="E9" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>178</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="5:7">
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
         <v>50</v>
       </c>
-      <c r="B10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" t="s">
-        <v>174</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="I10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="5:9">
-      <c r="E11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" t="s">
-        <v>170</v>
-      </c>
-      <c r="G11" s="5" t="str">
-        <f>菜单SAAS版!$E11</f>
-        <v>iam_menu-8</v>
-      </c>
-      <c r="H11" s="5" t="str">
-        <f>菜单标签数据!$E$8</f>
-        <v>iam_label-10</v>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="I11" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="5:9">
@@ -4750,18 +4915,18 @@
         <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="G12" s="5" t="str">
         <f>菜单SAAS版!$E12</f>
-        <v>iam_menu-9</v>
+        <v>iam_menu-8</v>
       </c>
       <c r="H12" s="5" t="str">
         <f>菜单标签数据!$E$8</f>
         <v>iam_label-10</v>
       </c>
       <c r="I12" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="5:9">
@@ -4769,18 +4934,18 @@
         <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="G13" s="5" t="str">
         <f>菜单SAAS版!$E13</f>
-        <v>iam_menu-10</v>
+        <v>iam_menu-9</v>
       </c>
       <c r="H13" s="5" t="str">
         <f>菜单标签数据!$E$8</f>
         <v>iam_label-10</v>
       </c>
       <c r="I13" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="5:9">
@@ -4788,18 +4953,18 @@
         <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="G14" s="5" t="str">
         <f>菜单SAAS版!$E14</f>
-        <v>iam_menu-11</v>
+        <v>iam_menu-10</v>
       </c>
       <c r="H14" s="5" t="str">
         <f>菜单标签数据!$E$8</f>
         <v>iam_label-10</v>
       </c>
       <c r="I14" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="5:9">
@@ -4807,18 +4972,18 @@
         <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="G15" s="5" t="str">
         <f>菜单SAAS版!$E15</f>
-        <v>iam_menu-12</v>
+        <v>iam_menu-11</v>
       </c>
       <c r="H15" s="5" t="str">
         <f>菜单标签数据!$E$8</f>
         <v>iam_label-10</v>
       </c>
       <c r="I15" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="5:9">
@@ -4826,18 +4991,18 @@
         <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="G16" s="5" t="str">
         <f>菜单SAAS版!$E16</f>
-        <v>iam_menu-13</v>
+        <v>iam_menu-12</v>
       </c>
       <c r="H16" s="5" t="str">
         <f>菜单标签数据!$E$8</f>
         <v>iam_label-10</v>
       </c>
       <c r="I16" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="5:9">
@@ -4845,18 +5010,18 @@
         <v>60</v>
       </c>
       <c r="F17" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="G17" s="5" t="str">
         <f>菜单SAAS版!$E17</f>
-        <v>iam_menu-14</v>
+        <v>iam_menu-13</v>
       </c>
       <c r="H17" s="5" t="str">
         <f>菜单标签数据!$E$8</f>
         <v>iam_label-10</v>
       </c>
       <c r="I17" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="5:9">
@@ -4864,18 +5029,18 @@
         <v>60</v>
       </c>
       <c r="F18" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="G18" s="5" t="str">
         <f>菜单SAAS版!$E18</f>
-        <v>iam_menu-15</v>
+        <v>iam_menu-14</v>
       </c>
       <c r="H18" s="5" t="str">
         <f>菜单标签数据!$E$8</f>
         <v>iam_label-10</v>
       </c>
       <c r="I18" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="5:9">
@@ -4883,18 +5048,208 @@
         <v>60</v>
       </c>
       <c r="F19" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="G19" s="5" t="str">
         <f>菜单SAAS版!$E19</f>
-        <v>iam_menu-16</v>
+        <v>iam_menu-15</v>
       </c>
       <c r="H19" s="5" t="str">
         <f>菜单标签数据!$E$8</f>
         <v>iam_label-10</v>
       </c>
       <c r="I19" t="s">
-        <v>182</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9">
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" t="s">
+        <v>177</v>
+      </c>
+      <c r="G20" s="5" t="str">
+        <f>菜单SAAS版!$E20</f>
+        <v>iam_menu-16</v>
+      </c>
+      <c r="H20" s="5" t="str">
+        <f>菜单标签数据!$E$8</f>
+        <v>iam_label-10</v>
+      </c>
+      <c r="I20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9">
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" t="s">
+        <v>177</v>
+      </c>
+      <c r="G21" s="5" t="str">
+        <f>菜单SAAS版!$E21</f>
+        <v>iam_menu-17</v>
+      </c>
+      <c r="H21" s="5" t="str">
+        <f>菜单标签数据!$E$8</f>
+        <v>iam_label-10</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9">
+      <c r="E22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" t="s">
+        <v>177</v>
+      </c>
+      <c r="G22" s="5" t="str">
+        <f>菜单SAAS版!E13</f>
+        <v>iam_menu-9</v>
+      </c>
+      <c r="H22" s="5" t="str">
+        <f>E9</f>
+        <v>iam_label-11</v>
+      </c>
+      <c r="I22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9">
+      <c r="E23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" t="s">
+        <v>177</v>
+      </c>
+      <c r="G23" s="5" t="str">
+        <f>菜单SAAS版!E15</f>
+        <v>iam_menu-11</v>
+      </c>
+      <c r="H23" s="5" t="str">
+        <f>E9</f>
+        <v>iam_label-11</v>
+      </c>
+      <c r="I23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9">
+      <c r="E24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" t="s">
+        <v>177</v>
+      </c>
+      <c r="G24" s="5" t="str">
+        <f>菜单SAAS版!E16</f>
+        <v>iam_menu-12</v>
+      </c>
+      <c r="H24" s="5" t="str">
+        <f>E9</f>
+        <v>iam_label-11</v>
+      </c>
+      <c r="I24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9">
+      <c r="E25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G25" s="5" t="str">
+        <f>菜单SAAS版!E17</f>
+        <v>iam_menu-13</v>
+      </c>
+      <c r="H25" s="5" t="str">
+        <f>E9</f>
+        <v>iam_label-11</v>
+      </c>
+      <c r="I25" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="5:9">
+      <c r="E26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" t="s">
+        <v>177</v>
+      </c>
+      <c r="G26" s="5" t="str">
+        <f>菜单SAAS版!E18</f>
+        <v>iam_menu-14</v>
+      </c>
+      <c r="H26" s="5" t="str">
+        <f>E9</f>
+        <v>iam_label-11</v>
+      </c>
+      <c r="I26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="5:9">
+      <c r="E27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" t="s">
+        <v>177</v>
+      </c>
+      <c r="G27" s="5" t="str">
+        <f>菜单SAAS版!E19</f>
+        <v>iam_menu-15</v>
+      </c>
+      <c r="H27" s="5" t="str">
+        <f>E9</f>
+        <v>iam_label-11</v>
+      </c>
+      <c r="I27" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="5:9">
+      <c r="E28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" t="s">
+        <v>177</v>
+      </c>
+      <c r="G28" s="5" t="str">
+        <f>菜单SAAS版!E20</f>
+        <v>iam_menu-16</v>
+      </c>
+      <c r="H28" s="5" t="str">
+        <f>E9</f>
+        <v>iam_label-11</v>
+      </c>
+      <c r="I28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="5:9">
+      <c r="E29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" t="s">
+        <v>177</v>
+      </c>
+      <c r="G29" s="5" t="str">
+        <f>菜单SAAS版!E21</f>
+        <v>iam_menu-17</v>
+      </c>
+      <c r="H29" s="5" t="str">
+        <f>E9</f>
+        <v>iam_label-11</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/devops-menu-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/devops-menu-label.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\devops\devops-service\src\main\resources\script\db\init-data\devops_service\hzero_platform\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66356690-DC86-4998-A42B-2186CE392845}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12855" tabRatio="597" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -17,18 +23,19 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="190">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -38,7 +45,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>merge</t>
     </r>
@@ -47,6 +53,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -59,6 +66,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -68,7 +76,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">sheet </t>
     </r>
@@ -77,6 +84,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -86,7 +94,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -95,6 +102,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -104,7 +112,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">D7 </t>
     </r>
@@ -113,6 +120,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -144,6 +152,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -153,7 +162,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -162,6 +170,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -171,7 +180,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -180,6 +188,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -189,7 +198,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -201,6 +209,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -211,7 +220,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -221,6 +229,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -231,7 +240,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -241,6 +249,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -252,7 +261,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -261,6 +269,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -272,7 +281,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -281,6 +289,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -292,6 +301,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -301,7 +311,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>=</t>
     </r>
@@ -310,6 +319,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -321,6 +331,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -330,7 +341,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -339,6 +349,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -348,7 +359,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">,sheet </t>
     </r>
@@ -357,6 +367,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -366,7 +377,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -375,6 +385,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -384,7 +395,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -393,6 +403,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -402,7 +413,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>!</t>
     </r>
@@ -431,7 +441,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -440,6 +449,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -449,7 +459,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -458,6 +467,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -467,7 +477,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -476,6 +485,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -485,7 +495,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -494,6 +503,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -505,6 +515,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -514,7 +525,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -523,6 +533,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -532,7 +543,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -541,6 +551,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -550,7 +561,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -560,6 +570,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -569,7 +580,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -578,6 +588,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -587,7 +598,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">*
 </t>
@@ -597,6 +607,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -606,7 +617,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -615,6 +625,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -626,6 +637,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -635,7 +647,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">oracle </t>
     </r>
@@ -644,6 +655,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -653,7 +665,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -662,6 +673,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -676,7 +688,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -685,6 +696,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -694,7 +706,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -703,6 +714,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -712,7 +724,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -721,6 +732,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -730,7 +742,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -739,6 +750,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -748,7 +760,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -757,6 +768,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -768,6 +780,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -777,7 +790,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -786,6 +798,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -796,6 +809,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -806,7 +820,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -816,6 +829,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -826,6 +840,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -835,7 +850,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -844,6 +858,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -853,7 +868,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -862,6 +876,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -876,7 +891,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(TYPE)</t>
     </r>
@@ -885,6 +899,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -894,7 +909,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -903,6 +917,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -912,7 +927,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>:
 _ID</t>
@@ -922,6 +936,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -931,7 +946,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 _DATE </t>
@@ -941,6 +955,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -950,7 +965,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 </t>
@@ -960,6 +974,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -969,7 +984,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>VARCHAR</t>
     </r>
@@ -980,6 +994,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -989,7 +1004,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -999,6 +1013,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1008,7 +1023,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>:
 yyyy-MM-dd HH:mm:ss
@@ -1024,7 +1038,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:LANG </t>
     </r>
@@ -1033,6 +1046,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1044,7 +1058,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">TL </t>
     </r>
@@ -1053,6 +1066,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1064,6 +1078,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1073,7 +1088,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1082,6 +1096,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1091,7 +1106,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1102,6 +1116,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1111,7 +1126,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1120,6 +1134,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1132,6 +1147,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1141,7 +1157,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1150,6 +1165,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1159,7 +1175,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1168,6 +1183,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1177,7 +1193,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1186,6 +1201,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1200,6 +1216,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1209,7 +1226,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -1218,6 +1234,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1227,7 +1244,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Excel </t>
     </r>
@@ -1236,6 +1252,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1245,7 +1262,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1254,6 +1270,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1263,7 +1280,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1272,6 +1288,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1287,6 +1304,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1296,6 +1314,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1305,7 +1324,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1314,6 +1332,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1329,6 +1348,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1338,6 +1358,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1347,7 +1368,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1356,6 +1376,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1370,6 +1391,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1379,7 +1401,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1388,6 +1409,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1397,7 +1419,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1406,6 +1427,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1415,7 +1437,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1425,6 +1446,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1434,7 +1456,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1448,6 +1469,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1457,7 +1479,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1466,6 +1487,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1475,7 +1497,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1484,6 +1505,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1493,7 +1515,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1503,6 +1524,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1512,7 +1534,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1523,6 +1544,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1533,6 +1555,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1542,6 +1565,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1553,6 +1577,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1562,7 +1587,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>:</t>
     </r>
@@ -1571,6 +1595,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1580,7 +1605,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1589,6 +1613,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1598,7 +1623,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A9 </t>
     </r>
@@ -1607,6 +1631,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1617,7 +1642,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1626,6 +1650,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1635,7 +1660,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F11 </t>
     </r>
@@ -1644,6 +1668,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1653,7 +1678,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, F11 </t>
     </r>
@@ -1662,6 +1686,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1671,7 +1696,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A10
 </t>
@@ -1681,6 +1705,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1690,7 +1715,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1699,6 +1723,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1708,7 +1733,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">G11 </t>
     </r>
@@ -1717,6 +1741,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1726,7 +1751,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, G11 </t>
     </r>
@@ -1735,6 +1759,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1744,7 +1769,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">B10
 </t>
@@ -1754,6 +1778,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1765,6 +1790,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1775,6 +1801,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1784,6 +1811,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1795,6 +1823,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1804,7 +1833,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1813,6 +1841,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1824,6 +1853,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1833,7 +1863,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1842,6 +1871,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1851,7 +1881,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -1861,6 +1890,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -1929,7 +1959,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>Devops</t>
     </r>
@@ -1938,7 +1968,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>管理</t>
     </r>
@@ -1949,7 +1979,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>Devops</t>
     </r>
@@ -1958,6 +1988,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>流程</t>
@@ -1978,7 +2009,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>管理</t>
     </r>
@@ -1992,7 +2023,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2085,9 +2116,6 @@
     <t>root</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -2202,9 +2230,6 @@
     <t>SZ</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>iam_menu-14</t>
   </si>
   <si>
@@ -2333,7 +2358,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>devops</t>
     </r>
@@ -2342,6 +2367,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>项目类型标签</t>
@@ -2353,7 +2379,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>devops</t>
     </r>
@@ -2362,6 +2388,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -2371,7 +2398,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>label</t>
     </r>
@@ -2413,14 +2440,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="40">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2431,42 +2452,43 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DejaVu Sans"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Droid Sans Fallback"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2474,188 +2496,36 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2674,28 +2544,53 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="DengXian"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF24292E"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2726,194 +2621,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -3014,254 +2723,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3278,15 +2745,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3300,9 +2758,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3312,9 +2767,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3335,59 +2787,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="常规 2" xfId="14"/>
-    <cellStyle name="Accent3" xfId="15" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="16" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="17" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="18" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="19" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="20" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="21" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="22" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="23" builtinId="32"/>
-    <cellStyle name="Bad" xfId="24" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="25" builtinId="42"/>
-    <cellStyle name="Total" xfId="26" builtinId="25"/>
-    <cellStyle name="Output" xfId="27" builtinId="21"/>
-    <cellStyle name="Currency" xfId="28" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="29" builtinId="38"/>
-    <cellStyle name="Note" xfId="30" builtinId="10"/>
-    <cellStyle name="Input" xfId="31" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="32" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="33" builtinId="22"/>
-    <cellStyle name="Good" xfId="34" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="35" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="36" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="37" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="38" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
-    <cellStyle name="Title" xfId="40" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="41" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="42" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
-    <cellStyle name="Comma" xfId="45" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -3460,6 +2881,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3717,275 +3141,274 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.5533333333333" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="9" customWidth="1"/>
-    <col min="3" max="3" width="28.1066666666667" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="10" customWidth="1"/>
-    <col min="5" max="5" width="38.5533333333333" customWidth="1"/>
-    <col min="6" max="6" width="23.44" customWidth="1"/>
-    <col min="7" max="7" width="21.5533333333333" customWidth="1"/>
+    <col min="1" max="1" width="15.58203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="28.08203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="38.58203125" customWidth="1"/>
+    <col min="6" max="6" width="23.4140625" customWidth="1"/>
+    <col min="7" max="7" width="21.58203125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5533333333333" customWidth="1"/>
+    <col min="9" max="9" width="24.58203125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1066666666667" customWidth="1"/>
-    <col min="12" max="12" width="18.5533333333333" customWidth="1"/>
-    <col min="13" max="13" width="13.1066666666667" customWidth="1"/>
-    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="19.08203125" customWidth="1"/>
+    <col min="12" max="12" width="18.58203125" customWidth="1"/>
+    <col min="13" max="13" width="13.08203125" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="11"/>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-    </row>
-    <row r="2" spans="5:5">
-      <c r="E2" s="26"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="13" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="30" t="s">
+      <c r="D3" s="35"/>
+      <c r="E3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-    </row>
-    <row r="4" ht="24" spans="3:7">
-      <c r="C4" s="14" t="s">
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="C4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="31" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="28" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="24" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" s="11"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="15" t="s">
+    <row r="7" spans="1:8">
+      <c r="C7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="29" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="17" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="35"/>
-    </row>
-    <row r="9" ht="72" spans="3:6">
-      <c r="C9" s="19" t="s">
+      <c r="E8" s="30"/>
+    </row>
+    <row r="9" spans="1:8" ht="52.2">
+      <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="31" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="65.25" spans="3:5">
-      <c r="C10" s="21" t="s">
+    <row r="10" spans="1:8" ht="52.2">
+      <c r="C10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="96" spans="3:5">
-      <c r="C11" s="17" t="s">
+    <row r="11" spans="1:8" ht="69.599999999999994">
+      <c r="C11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" ht="24" spans="3:5">
-      <c r="C12" s="17" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="32" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="35"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="35"/>
-    </row>
-    <row r="15" ht="48" spans="3:5">
-      <c r="C15" s="22" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="30"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="30"/>
+    </row>
+    <row r="15" spans="1:8" ht="34.799999999999997">
+      <c r="C15" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" ht="24" spans="3:5">
-      <c r="C19" s="24" t="s">
+    <row r="19" spans="3:5">
+      <c r="C19" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-    </row>
-    <row r="20" ht="24" spans="3:4">
-      <c r="C20" s="25" t="s">
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="24" spans="3:4">
-      <c r="C21" s="25" t="s">
+    <row r="21" spans="3:5">
+      <c r="C21" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="24" spans="3:4">
-      <c r="C22" s="25" t="s">
+    <row r="22" spans="3:5">
+      <c r="C22" s="21" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="24" spans="3:4">
-      <c r="C23" s="25" t="s">
+    <row r="23" spans="3:5">
+      <c r="C23" s="21" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="27" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="13"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="18" t="s">
+      <c r="E25" s="35"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="13"/>
-    </row>
-    <row r="27" ht="41.25" spans="3:3">
-      <c r="C27" s="28" t="s">
+      <c r="E26" s="35"/>
+    </row>
+    <row r="27" spans="3:5" ht="52.2">
+      <c r="C27" s="24" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="14.4" customWidth="1"/>
-    <col min="4" max="4" width="23.4" customWidth="1"/>
+    <col min="1" max="1" width="14.4140625" customWidth="1"/>
+    <col min="4" max="4" width="23.4140625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="28.8" customWidth="1"/>
+    <col min="6" max="6" width="28.83203125" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="14.4" customWidth="1"/>
-    <col min="11" max="11" width="14.3" customWidth="1"/>
-    <col min="19" max="19" width="26.7" customWidth="1"/>
+    <col min="8" max="8" width="14.4140625" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="19" max="19" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3999,7 +3422,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -4010,7 +3433,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4042,7 +3465,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:25">
       <c r="A8" s="7"/>
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
@@ -4065,7 +3488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:25">
       <c r="A9" s="7"/>
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
@@ -4165,7 +3588,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="5:24">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>91</v>
       </c>
@@ -4190,11 +3613,11 @@
       <c r="L12" t="s">
         <v>97</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="39">
+        <v>10</v>
+      </c>
+      <c r="N12" t="s">
         <v>98</v>
-      </c>
-      <c r="N12" t="s">
-        <v>99</v>
       </c>
       <c r="Q12" t="s">
         <v>96</v>
@@ -4209,27 +3632,27 @@
         <v>96</v>
       </c>
       <c r="V12" t="s">
+        <v>99</v>
+      </c>
+      <c r="X12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="E13" t="s">
         <v>100</v>
       </c>
-      <c r="X12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="5:24">
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>101</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>102</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13" t="s">
         <v>103</v>
-      </c>
-      <c r="H13" t="s">
-        <v>103</v>
-      </c>
-      <c r="I13" t="s">
-        <v>104</v>
       </c>
       <c r="J13" t="s">
         <v>95</v>
@@ -4239,19 +3662,19 @@
         <v>iam_menu-13</v>
       </c>
       <c r="L13" t="s">
+        <v>104</v>
+      </c>
+      <c r="M13" t="s">
         <v>105</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
+        <v>98</v>
+      </c>
+      <c r="O13" t="s">
         <v>106</v>
       </c>
-      <c r="N13" t="s">
-        <v>99</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>107</v>
-      </c>
-      <c r="P13" t="s">
-        <v>108</v>
       </c>
       <c r="Q13" t="s">
         <v>96</v>
@@ -4260,33 +3683,33 @@
         <v>96</v>
       </c>
       <c r="S13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T13" t="s">
         <v>96</v>
       </c>
       <c r="V13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="X13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="5:24">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" t="s">
         <v>110</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>111</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
+        <v>111</v>
+      </c>
+      <c r="I14" t="s">
         <v>112</v>
-      </c>
-      <c r="H14" t="s">
-        <v>112</v>
-      </c>
-      <c r="I14" t="s">
-        <v>113</v>
       </c>
       <c r="J14" t="s">
         <v>95</v>
@@ -4296,19 +3719,19 @@
         <v>iam_menu-8</v>
       </c>
       <c r="L14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M14" t="s">
+        <v>113</v>
+      </c>
+      <c r="N14" t="s">
+        <v>98</v>
+      </c>
+      <c r="O14" t="s">
         <v>114</v>
       </c>
-      <c r="N14" t="s">
-        <v>99</v>
-      </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>115</v>
-      </c>
-      <c r="P14" t="s">
-        <v>116</v>
       </c>
       <c r="Q14" t="s">
         <v>96</v>
@@ -4317,33 +3740,33 @@
         <v>96</v>
       </c>
       <c r="S14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T14" t="s">
         <v>96</v>
       </c>
       <c r="V14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="X14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="5:24">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="E15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" t="s">
         <v>118</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>119</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I15" t="s">
         <v>120</v>
-      </c>
-      <c r="H15" t="s">
-        <v>120</v>
-      </c>
-      <c r="I15" t="s">
-        <v>121</v>
       </c>
       <c r="J15" t="s">
         <v>95</v>
@@ -4353,19 +3776,19 @@
         <v>iam_menu-17</v>
       </c>
       <c r="L15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M15" t="s">
+        <v>121</v>
+      </c>
+      <c r="N15" t="s">
+        <v>98</v>
+      </c>
+      <c r="O15" t="s">
+        <v>114</v>
+      </c>
+      <c r="P15" t="s">
         <v>122</v>
-      </c>
-      <c r="N15" t="s">
-        <v>99</v>
-      </c>
-      <c r="O15" t="s">
-        <v>115</v>
-      </c>
-      <c r="P15" t="s">
-        <v>123</v>
       </c>
       <c r="Q15" t="s">
         <v>96</v>
@@ -4374,33 +3797,33 @@
         <v>96</v>
       </c>
       <c r="S15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T15" t="s">
         <v>96</v>
       </c>
       <c r="V15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="X15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="5:24">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="E16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" t="s">
         <v>125</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>126</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
+        <v>126</v>
+      </c>
+      <c r="I16" t="s">
         <v>127</v>
-      </c>
-      <c r="H16" t="s">
-        <v>127</v>
-      </c>
-      <c r="I16" t="s">
-        <v>128</v>
       </c>
       <c r="J16" t="s">
         <v>95</v>
@@ -4410,19 +3833,19 @@
         <v>iam_menu-17</v>
       </c>
       <c r="L16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M16" t="s">
+        <v>128</v>
+      </c>
+      <c r="N16" t="s">
+        <v>98</v>
+      </c>
+      <c r="O16" t="s">
         <v>129</v>
       </c>
-      <c r="N16" t="s">
-        <v>99</v>
-      </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>130</v>
-      </c>
-      <c r="P16" t="s">
-        <v>131</v>
       </c>
       <c r="Q16" t="s">
         <v>96</v>
@@ -4431,33 +3854,33 @@
         <v>96</v>
       </c>
       <c r="S16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T16" t="s">
         <v>96</v>
       </c>
       <c r="V16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="X16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="5:24">
       <c r="E17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" t="s">
         <v>133</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>134</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
+        <v>134</v>
+      </c>
+      <c r="I17" t="s">
         <v>135</v>
-      </c>
-      <c r="H17" t="s">
-        <v>135</v>
-      </c>
-      <c r="I17" t="s">
-        <v>136</v>
       </c>
       <c r="J17" t="s">
         <v>95</v>
@@ -4468,11 +3891,11 @@
       <c r="L17" t="s">
         <v>97</v>
       </c>
-      <c r="M17" t="s">
-        <v>137</v>
+      <c r="M17" s="39">
+        <v>100</v>
       </c>
       <c r="N17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q17" t="s">
         <v>96</v>
@@ -4481,33 +3904,33 @@
         <v>96</v>
       </c>
       <c r="S17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T17" t="s">
         <v>96</v>
       </c>
       <c r="V17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="X17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="5:24">
       <c r="E18" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G18" t="s">
         <v>138</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I18" t="s">
         <v>139</v>
-      </c>
-      <c r="G18" t="s">
-        <v>140</v>
-      </c>
-      <c r="H18" t="s">
-        <v>140</v>
-      </c>
-      <c r="I18" t="s">
-        <v>141</v>
       </c>
       <c r="J18" t="s">
         <v>95</v>
@@ -4517,19 +3940,19 @@
         <v>iam_menu-13</v>
       </c>
       <c r="L18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M18" t="s">
+        <v>140</v>
+      </c>
+      <c r="N18" t="s">
+        <v>98</v>
+      </c>
+      <c r="O18" t="s">
+        <v>141</v>
+      </c>
+      <c r="P18" t="s">
         <v>142</v>
-      </c>
-      <c r="N18" t="s">
-        <v>99</v>
-      </c>
-      <c r="O18" t="s">
-        <v>143</v>
-      </c>
-      <c r="P18" t="s">
-        <v>144</v>
       </c>
       <c r="Q18" t="s">
         <v>96</v>
@@ -4538,33 +3961,33 @@
         <v>96</v>
       </c>
       <c r="S18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="T18" t="s">
         <v>96</v>
       </c>
       <c r="V18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="X18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="5:24">
       <c r="E19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" t="s">
         <v>146</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
+        <v>146</v>
+      </c>
+      <c r="I19" t="s">
         <v>147</v>
-      </c>
-      <c r="G19" t="s">
-        <v>148</v>
-      </c>
-      <c r="H19" t="s">
-        <v>148</v>
-      </c>
-      <c r="I19" t="s">
-        <v>149</v>
       </c>
       <c r="J19" t="s">
         <v>95</v>
@@ -4574,19 +3997,19 @@
         <v>iam_menu-13</v>
       </c>
       <c r="L19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q19" t="s">
         <v>96</v>
@@ -4595,33 +4018,33 @@
         <v>96</v>
       </c>
       <c r="S19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="T19" t="s">
         <v>96</v>
       </c>
       <c r="V19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="X19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="5:24">
       <c r="E20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F20" t="s">
+        <v>152</v>
+      </c>
+      <c r="G20" t="s">
         <v>153</v>
       </c>
-      <c r="F20" t="s">
+      <c r="H20" t="s">
+        <v>153</v>
+      </c>
+      <c r="I20" t="s">
         <v>154</v>
-      </c>
-      <c r="G20" t="s">
-        <v>155</v>
-      </c>
-      <c r="H20" t="s">
-        <v>155</v>
-      </c>
-      <c r="I20" t="s">
-        <v>156</v>
       </c>
       <c r="J20" t="s">
         <v>95</v>
@@ -4631,19 +4054,19 @@
         <v>iam_menu-13</v>
       </c>
       <c r="L20" t="s">
+        <v>104</v>
+      </c>
+      <c r="M20" t="s">
         <v>105</v>
       </c>
-      <c r="M20" t="s">
-        <v>106</v>
-      </c>
       <c r="N20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Q20" t="s">
         <v>96</v>
@@ -4652,33 +4075,33 @@
         <v>96</v>
       </c>
       <c r="S20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="T20" t="s">
         <v>96</v>
       </c>
       <c r="V20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="X20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="5:24">
       <c r="E21" t="s">
+        <v>158</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G21" t="s">
         <v>160</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="H21" t="s">
+        <v>160</v>
+      </c>
+      <c r="I21" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="G21" t="s">
-        <v>162</v>
-      </c>
-      <c r="H21" t="s">
-        <v>162</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>163</v>
       </c>
       <c r="J21" t="s">
         <v>95</v>
@@ -4689,8 +4112,8 @@
       <c r="L21" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="M21">
-        <v>6</v>
+      <c r="M21" s="39">
+        <v>80</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -4702,45 +4125,44 @@
         <v>0</v>
       </c>
       <c r="S21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="T21">
         <v>0</v>
       </c>
       <c r="V21" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="X21">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="4" max="4" width="17.9" customWidth="1"/>
-    <col min="5" max="5" width="14.1" customWidth="1"/>
-    <col min="6" max="6" width="14.8" customWidth="1"/>
-    <col min="7" max="7" width="14.6" customWidth="1"/>
-    <col min="8" max="8" width="19.6" customWidth="1"/>
+    <col min="4" max="4" width="17.9140625" customWidth="1"/>
+    <col min="5" max="5" width="14.08203125" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="14.58203125" customWidth="1"/>
+    <col min="8" max="8" width="19.58203125" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="20.2" customWidth="1"/>
+    <col min="11" max="11" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -4754,7 +4176,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -4773,66 +4195,66 @@
         <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H7" t="s">
         <v>166</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="I7" t="s">
         <v>167</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>168</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>169</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>170</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>171</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>172</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
         <v>173</v>
       </c>
-      <c r="N7" t="s">
+    </row>
+    <row r="8" spans="1:15">
+      <c r="E8" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="O7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="5:15">
-      <c r="E8" s="5" t="s">
-        <v>176</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>62</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>180</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -4844,27 +4266,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="5:15">
+    <row r="9" spans="1:15">
       <c r="E9" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>66</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -4876,12 +4298,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="5:7">
+    <row r="10" spans="1:15">
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -4889,33 +4311,33 @@
         <v>69</v>
       </c>
       <c r="C11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="F11" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="G11" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="I11" t="s">
         <v>188</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="I11" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="12" spans="5:9">
+    </row>
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
         <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G12" s="5" t="str">
         <f>菜单SAAS版!$E12</f>
@@ -4926,15 +4348,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I12" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="13" spans="5:9">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="E13" t="s">
         <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G13" s="5" t="str">
         <f>菜单SAAS版!$E13</f>
@@ -4945,15 +4367,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="14" spans="5:9">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
         <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G14" s="5" t="str">
         <f>菜单SAAS版!$E14</f>
@@ -4964,15 +4386,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I14" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="15" spans="5:9">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
         <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G15" s="5" t="str">
         <f>菜单SAAS版!$E15</f>
@@ -4983,15 +4405,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I15" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="16" spans="5:9">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
         <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G16" s="5" t="str">
         <f>菜单SAAS版!$E16</f>
@@ -5002,7 +4424,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="5:9">
@@ -5010,7 +4432,7 @@
         <v>60</v>
       </c>
       <c r="F17" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G17" s="5" t="str">
         <f>菜单SAAS版!$E17</f>
@@ -5021,7 +4443,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="5:9">
@@ -5029,7 +4451,7 @@
         <v>60</v>
       </c>
       <c r="F18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G18" s="5" t="str">
         <f>菜单SAAS版!$E18</f>
@@ -5040,7 +4462,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="5:9">
@@ -5048,7 +4470,7 @@
         <v>60</v>
       </c>
       <c r="F19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G19" s="5" t="str">
         <f>菜单SAAS版!$E19</f>
@@ -5059,7 +4481,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="5:9">
@@ -5067,7 +4489,7 @@
         <v>60</v>
       </c>
       <c r="F20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G20" s="5" t="str">
         <f>菜单SAAS版!$E20</f>
@@ -5078,7 +4500,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="5:9">
@@ -5086,7 +4508,7 @@
         <v>60</v>
       </c>
       <c r="F21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G21" s="5" t="str">
         <f>菜单SAAS版!$E21</f>
@@ -5097,7 +4519,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="5:9">
@@ -5105,7 +4527,7 @@
         <v>60</v>
       </c>
       <c r="F22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G22" s="5" t="str">
         <f>菜单SAAS版!E13</f>
@@ -5116,7 +4538,7 @@
         <v>iam_label-11</v>
       </c>
       <c r="I22" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="5:9">
@@ -5124,7 +4546,7 @@
         <v>60</v>
       </c>
       <c r="F23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G23" s="5" t="str">
         <f>菜单SAAS版!E15</f>
@@ -5135,7 +4557,7 @@
         <v>iam_label-11</v>
       </c>
       <c r="I23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="5:9">
@@ -5143,7 +4565,7 @@
         <v>60</v>
       </c>
       <c r="F24" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G24" s="5" t="str">
         <f>菜单SAAS版!E16</f>
@@ -5154,7 +4576,7 @@
         <v>iam_label-11</v>
       </c>
       <c r="I24" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="5:9">
@@ -5162,7 +4584,7 @@
         <v>60</v>
       </c>
       <c r="F25" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G25" s="5" t="str">
         <f>菜单SAAS版!E17</f>
@@ -5173,7 +4595,7 @@
         <v>iam_label-11</v>
       </c>
       <c r="I25" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="5:9">
@@ -5181,7 +4603,7 @@
         <v>60</v>
       </c>
       <c r="F26" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G26" s="5" t="str">
         <f>菜单SAAS版!E18</f>
@@ -5192,7 +4614,7 @@
         <v>iam_label-11</v>
       </c>
       <c r="I26" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="5:9">
@@ -5200,7 +4622,7 @@
         <v>60</v>
       </c>
       <c r="F27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G27" s="5" t="str">
         <f>菜单SAAS版!E19</f>
@@ -5211,7 +4633,7 @@
         <v>iam_label-11</v>
       </c>
       <c r="I27" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="5:9">
@@ -5219,7 +4641,7 @@
         <v>60</v>
       </c>
       <c r="F28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G28" s="5" t="str">
         <f>菜单SAAS版!E20</f>
@@ -5230,7 +4652,7 @@
         <v>iam_label-11</v>
       </c>
       <c r="I28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="5:9">
@@ -5238,7 +4660,7 @@
         <v>60</v>
       </c>
       <c r="F29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G29" s="5" t="str">
         <f>菜单SAAS版!E21</f>
@@ -5249,11 +4671,12 @@
         <v>iam_label-11</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/devops-menu-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/devops-menu-label.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\devops\devops-service\src\main\resources\script\db\init-data\devops_service\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66356690-DC86-4998-A42B-2186CE392845}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0776A07-04EF-45D5-A27A-9A9E2F991693}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="183">
   <si>
     <r>
       <rPr>
@@ -2101,9 +2101,6 @@
     <t>choerodon.code.project.cooperation</t>
   </si>
   <si>
-    <t>协作</t>
-  </si>
-  <si>
     <t>XZ</t>
   </si>
   <si>
@@ -2137,9 +2134,6 @@
     <t>menu</t>
   </si>
   <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>IAM</t>
   </si>
   <si>
@@ -2161,9 +2155,6 @@
     <t>XMGL</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>poll</t>
   </si>
   <si>
@@ -2206,9 +2197,6 @@
     <t>SWGL</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>ballot</t>
   </si>
   <si>
@@ -2242,9 +2230,6 @@
     <t>KHD</t>
   </si>
   <si>
-    <t>70</t>
-  </si>
-  <si>
     <t>airplay</t>
   </si>
   <si>
@@ -2294,18 +2279,6 @@
   </si>
   <si>
     <t>choerodon.code.project.setting|choerodon.code.project.setting.setting-notify</t>
-  </si>
-  <si>
-    <t>iam_menu-17</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.operation</t>
-  </si>
-  <si>
-    <t>运营</t>
-  </si>
-  <si>
-    <t>YY</t>
   </si>
   <si>
     <t>标签表</t>
@@ -2435,6 +2408,13 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>敏捷</t>
+  </si>
+  <si>
+    <t>敏捷</t>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2577,14 +2557,14 @@
       <name val="DengXian"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF24292E"/>
+      <sz val="9"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -2728,7 +2708,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2736,7 +2716,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2787,11 +2766,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2802,7 +2811,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3153,155 +3161,155 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="28.08203125" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="38.58203125" customWidth="1"/>
-    <col min="6" max="6" width="23.4140625" customWidth="1"/>
-    <col min="7" max="7" width="21.58203125" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.58203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.08203125" customWidth="1"/>
-    <col min="12" max="12" width="18.58203125" customWidth="1"/>
-    <col min="13" max="13" width="13.08203125" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
     <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A1" s="11"/>
-      <c r="C1" s="34" t="s">
+      <c r="A1" s="10"/>
+      <c r="C1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="E2" s="22"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+    </row>
+    <row r="2" spans="1:8" ht="18">
+      <c r="E2" s="21"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36" t="s">
+      <c r="D3" s="43"/>
+      <c r="E3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="C4" s="37" t="s">
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+    </row>
+    <row r="4" spans="1:8" ht="18">
+      <c r="C4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="26" t="s">
+      <c r="D4" s="46"/>
+      <c r="E4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="27" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="11"/>
+      <c r="A5" s="10"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="C7" s="12" t="s">
+    <row r="7" spans="1:8" ht="18">
+      <c r="C7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="28" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="30"/>
-    </row>
-    <row r="9" spans="1:8" ht="52.2">
-      <c r="C9" s="16" t="s">
+      <c r="E8" s="29"/>
+    </row>
+    <row r="9" spans="1:8" ht="51.75">
+      <c r="C9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="30" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="52.2">
-      <c r="C10" s="18" t="s">
+    <row r="10" spans="1:8" ht="51.75">
+      <c r="C10" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69.599999999999994">
-      <c r="C11" s="14" t="s">
+    <row r="11" spans="1:8" ht="69">
+      <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="30" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="31" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="30"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="29"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="30"/>
-    </row>
-    <row r="15" spans="1:8" ht="34.799999999999997">
-      <c r="C15" s="19" t="s">
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="29"/>
+    </row>
+    <row r="15" spans="1:8" ht="34.5">
+      <c r="C15" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="32" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3311,64 +3319,64 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-    </row>
-    <row r="20" spans="3:5">
-      <c r="C20" s="21" t="s">
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+    </row>
+    <row r="20" spans="3:5" ht="18">
+      <c r="C20" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
-      <c r="C21" s="21" t="s">
+    <row r="21" spans="3:5" ht="18">
+      <c r="C21" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
-      <c r="C22" s="21" t="s">
+    <row r="22" spans="3:5" ht="18">
+      <c r="C22" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="21" t="s">
+    <row r="23" spans="3:5" ht="18">
+      <c r="C23" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="35"/>
+      <c r="E25" s="43"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="35"/>
-    </row>
-    <row r="27" spans="3:5" ht="52.2">
-      <c r="C27" s="24" t="s">
+      <c r="E26" s="43"/>
+    </row>
+    <row r="27" spans="3:5" ht="51.75">
+      <c r="C27" s="23" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3382,7 +3390,7 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
   </mergeCells>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -3390,776 +3398,730 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y21"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="14.4140625" customWidth="1"/>
-    <col min="4" max="4" width="23.4140625" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="28.83203125" customWidth="1"/>
-    <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="14.4140625" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="19" max="19" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="34" customWidth="1"/>
+    <col min="2" max="3" width="9" style="34"/>
+    <col min="4" max="4" width="23.44140625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="18" style="34" customWidth="1"/>
+    <col min="6" max="6" width="28.77734375" style="34" customWidth="1"/>
+    <col min="7" max="7" width="21" style="34" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="34" customWidth="1"/>
+    <col min="9" max="10" width="9" style="34"/>
+    <col min="11" max="11" width="14.33203125" style="34" customWidth="1"/>
+    <col min="12" max="18" width="9" style="34"/>
+    <col min="19" max="19" width="26.6640625" style="34" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="33" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="37" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" t="s">
+      <c r="A7" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="38" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
+      <c r="A8" s="39"/>
+      <c r="B8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
+      <c r="A9" s="39"/>
+      <c r="B9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" t="s">
+      <c r="A11" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q11" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="R11" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="S11" t="s">
+      <c r="S11" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="T11" t="s">
+      <c r="T11" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="U11" t="s">
+      <c r="U11" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="V11" t="s">
+      <c r="V11" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="W11" t="s">
+      <c r="W11" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="X11" t="s">
+      <c r="X11" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Y11" s="34" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:25">
-      <c r="E12" t="s">
+      <c r="E12" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="I12" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="H12" t="s">
-        <v>93</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="J12" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" s="42">
+        <v>10</v>
+      </c>
+      <c r="N12" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="M12" s="39">
-        <v>10</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="Q12" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="R12" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="S12" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="T12" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="V12" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="Q12" t="s">
-        <v>96</v>
-      </c>
-      <c r="R12" t="s">
-        <v>96</v>
-      </c>
-      <c r="S12" t="s">
-        <v>92</v>
-      </c>
-      <c r="T12" t="s">
-        <v>96</v>
-      </c>
-      <c r="V12" t="s">
-        <v>99</v>
-      </c>
-      <c r="X12" t="s">
-        <v>98</v>
+      <c r="X12" s="34" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:25">
-      <c r="E13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F13" t="s">
-        <v>101</v>
-      </c>
-      <c r="G13" t="s">
-        <v>102</v>
-      </c>
-      <c r="H13" t="s">
-        <v>102</v>
-      </c>
-      <c r="I13" t="s">
-        <v>103</v>
-      </c>
-      <c r="J13" t="s">
-        <v>95</v>
-      </c>
-      <c r="K13" s="5" t="str">
-        <f>E17</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="L13" t="s">
-        <v>104</v>
-      </c>
-      <c r="M13" t="s">
-        <v>105</v>
-      </c>
-      <c r="N13" t="s">
-        <v>98</v>
-      </c>
-      <c r="O13" t="s">
-        <v>106</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="E13" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="Q13" t="s">
-        <v>96</v>
-      </c>
-      <c r="R13" t="s">
-        <v>96</v>
-      </c>
-      <c r="S13" t="s">
+      <c r="F13" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="T13" t="s">
-        <v>96</v>
-      </c>
-      <c r="V13" t="s">
-        <v>99</v>
-      </c>
-      <c r="X13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
-      <c r="E14" t="s">
+      <c r="G13" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H13" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="I13" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="G14" t="s">
-        <v>111</v>
-      </c>
-      <c r="H14" t="s">
-        <v>111</v>
-      </c>
-      <c r="I14" t="s">
-        <v>112</v>
-      </c>
-      <c r="J14" t="s">
-        <v>95</v>
-      </c>
-      <c r="K14" t="str">
+      <c r="J13" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="K13" s="34" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-8</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L13" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="M13" s="8">
+        <v>10</v>
+      </c>
+      <c r="N13" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="O13" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="P13" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q13" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="R13" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="S13" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="T13" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="V13" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="X13" s="34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="E14" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="J14" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="K14" s="34" t="str">
+        <f>E12</f>
+        <v>iam_menu-8</v>
+      </c>
+      <c r="L14" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="M14" s="8">
+        <v>120</v>
+      </c>
+      <c r="N14" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="O14" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="P14" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q14" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="R14" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="S14" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="T14" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="V14" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="X14" s="34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="E15" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="K15" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="L15" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="M15" s="42">
+        <v>50</v>
+      </c>
+      <c r="N15" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q15" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="R15" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="S15" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="T15" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="V15" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="X15" s="34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="E16" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="J16" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" s="34" t="str">
+        <f>菜单SAAS版!$E$15</f>
+        <v>iam_menu-13</v>
+      </c>
+      <c r="L16" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="N16" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="O16" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="P16" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q16" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="R16" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="S16" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="T16" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="V16" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="X16" s="34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="5:24">
+      <c r="E17" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="J17" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="K17" s="38" t="str">
+        <f>E15</f>
+        <v>iam_menu-13</v>
+      </c>
+      <c r="L17" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="M17" s="8">
+        <v>20</v>
+      </c>
+      <c r="N17" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="O17" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="M14" t="s">
-        <v>113</v>
-      </c>
-      <c r="N14" t="s">
+      <c r="P17" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q17" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="R17" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="S17" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="T17" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="V17" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="O14" t="s">
-        <v>114</v>
-      </c>
-      <c r="P14" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>96</v>
-      </c>
-      <c r="R14" t="s">
-        <v>96</v>
-      </c>
-      <c r="S14" t="s">
-        <v>116</v>
-      </c>
-      <c r="T14" t="s">
-        <v>96</v>
-      </c>
-      <c r="V14" t="s">
-        <v>99</v>
-      </c>
-      <c r="X14" t="s">
+      <c r="X17" s="34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="5:24">
+      <c r="E18" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="J18" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18" s="34" t="str">
+        <f>菜单SAAS版!$E$15</f>
+        <v>iam_menu-13</v>
+      </c>
+      <c r="L18" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="M18" s="8">
+        <v>70</v>
+      </c>
+      <c r="N18" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="O18" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="P18" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q18" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="R18" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="S18" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="T18" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="V18" s="34" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="15" spans="1:25">
-      <c r="E15" t="s">
-        <v>117</v>
-      </c>
-      <c r="F15" t="s">
-        <v>118</v>
-      </c>
-      <c r="G15" t="s">
-        <v>119</v>
-      </c>
-      <c r="H15" t="s">
-        <v>119</v>
-      </c>
-      <c r="I15" t="s">
-        <v>120</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="X18" s="34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="5:24">
+      <c r="E19" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="J19" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="K19" s="34" t="str">
+        <f>菜单SAAS版!$E$15</f>
+        <v>iam_menu-13</v>
+      </c>
+      <c r="L19" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="M19" s="8">
+        <v>90</v>
+      </c>
+      <c r="N19" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="O19" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="P19" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q19" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="K15" t="str">
-        <f>E21</f>
-        <v>iam_menu-17</v>
-      </c>
-      <c r="L15" t="s">
-        <v>104</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="R19" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="S19" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="T19" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="V19" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="X19" s="34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="5:24">
+      <c r="E20" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="N15" t="s">
+      <c r="F20" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="J20" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="K20" s="34" t="str">
+        <f>E15</f>
+        <v>iam_menu-13</v>
+      </c>
+      <c r="L20" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="M20" s="8">
+        <v>100</v>
+      </c>
+      <c r="N20" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="O20" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="P20" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q20" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="R20" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="S20" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="T20" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="V20" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="O15" t="s">
-        <v>114</v>
-      </c>
-      <c r="P15" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>96</v>
-      </c>
-      <c r="R15" t="s">
-        <v>96</v>
-      </c>
-      <c r="S15" t="s">
-        <v>123</v>
-      </c>
-      <c r="T15" t="s">
-        <v>96</v>
-      </c>
-      <c r="V15" t="s">
-        <v>99</v>
-      </c>
-      <c r="X15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
-      <c r="E16" t="s">
-        <v>124</v>
-      </c>
-      <c r="F16" t="s">
-        <v>125</v>
-      </c>
-      <c r="G16" t="s">
-        <v>126</v>
-      </c>
-      <c r="H16" t="s">
-        <v>126</v>
-      </c>
-      <c r="I16" t="s">
-        <v>127</v>
-      </c>
-      <c r="J16" t="s">
-        <v>95</v>
-      </c>
-      <c r="K16" t="str">
-        <f>E21</f>
-        <v>iam_menu-17</v>
-      </c>
-      <c r="L16" t="s">
-        <v>104</v>
-      </c>
-      <c r="M16" t="s">
-        <v>128</v>
-      </c>
-      <c r="N16" t="s">
-        <v>98</v>
-      </c>
-      <c r="O16" t="s">
-        <v>129</v>
-      </c>
-      <c r="P16" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>96</v>
-      </c>
-      <c r="R16" t="s">
-        <v>96</v>
-      </c>
-      <c r="S16" t="s">
-        <v>131</v>
-      </c>
-      <c r="T16" t="s">
-        <v>96</v>
-      </c>
-      <c r="V16" t="s">
-        <v>99</v>
-      </c>
-      <c r="X16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="5:24">
-      <c r="E17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F17" t="s">
-        <v>133</v>
-      </c>
-      <c r="G17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H17" t="s">
-        <v>134</v>
-      </c>
-      <c r="I17" t="s">
-        <v>135</v>
-      </c>
-      <c r="J17" t="s">
-        <v>95</v>
-      </c>
-      <c r="K17" t="s">
-        <v>96</v>
-      </c>
-      <c r="L17" t="s">
+      <c r="X20" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="M17" s="39">
-        <v>100</v>
-      </c>
-      <c r="N17" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>96</v>
-      </c>
-      <c r="R17" t="s">
-        <v>96</v>
-      </c>
-      <c r="S17" t="s">
-        <v>133</v>
-      </c>
-      <c r="T17" t="s">
-        <v>96</v>
-      </c>
-      <c r="V17" t="s">
-        <v>99</v>
-      </c>
-      <c r="X17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="5:24">
-      <c r="E18" t="s">
-        <v>136</v>
-      </c>
-      <c r="F18" t="s">
-        <v>137</v>
-      </c>
-      <c r="G18" t="s">
-        <v>138</v>
-      </c>
-      <c r="H18" t="s">
-        <v>138</v>
-      </c>
-      <c r="I18" t="s">
-        <v>139</v>
-      </c>
-      <c r="J18" t="s">
-        <v>95</v>
-      </c>
-      <c r="K18" t="str">
-        <f>菜单SAAS版!$E$17</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="L18" t="s">
-        <v>104</v>
-      </c>
-      <c r="M18" t="s">
-        <v>140</v>
-      </c>
-      <c r="N18" t="s">
-        <v>98</v>
-      </c>
-      <c r="O18" t="s">
-        <v>141</v>
-      </c>
-      <c r="P18" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>96</v>
-      </c>
-      <c r="R18" t="s">
-        <v>96</v>
-      </c>
-      <c r="S18" t="s">
-        <v>143</v>
-      </c>
-      <c r="T18" t="s">
-        <v>96</v>
-      </c>
-      <c r="V18" t="s">
-        <v>99</v>
-      </c>
-      <c r="X18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="5:24">
-      <c r="E19" t="s">
-        <v>144</v>
-      </c>
-      <c r="F19" t="s">
-        <v>145</v>
-      </c>
-      <c r="G19" t="s">
-        <v>146</v>
-      </c>
-      <c r="H19" t="s">
-        <v>146</v>
-      </c>
-      <c r="I19" t="s">
-        <v>147</v>
-      </c>
-      <c r="J19" t="s">
-        <v>95</v>
-      </c>
-      <c r="K19" t="str">
-        <f>菜单SAAS版!$E$17</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="L19" t="s">
-        <v>104</v>
-      </c>
-      <c r="M19" t="s">
-        <v>121</v>
-      </c>
-      <c r="N19" t="s">
-        <v>98</v>
-      </c>
-      <c r="O19" t="s">
-        <v>148</v>
-      </c>
-      <c r="P19" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>96</v>
-      </c>
-      <c r="R19" t="s">
-        <v>96</v>
-      </c>
-      <c r="S19" t="s">
-        <v>150</v>
-      </c>
-      <c r="T19" t="s">
-        <v>96</v>
-      </c>
-      <c r="V19" t="s">
-        <v>99</v>
-      </c>
-      <c r="X19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="5:24">
-      <c r="E20" t="s">
-        <v>151</v>
-      </c>
-      <c r="F20" t="s">
-        <v>152</v>
-      </c>
-      <c r="G20" t="s">
-        <v>153</v>
-      </c>
-      <c r="H20" t="s">
-        <v>153</v>
-      </c>
-      <c r="I20" t="s">
-        <v>154</v>
-      </c>
-      <c r="J20" t="s">
-        <v>95</v>
-      </c>
-      <c r="K20" t="str">
-        <f>菜单SAAS版!$E$17</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="L20" t="s">
-        <v>104</v>
-      </c>
-      <c r="M20" t="s">
-        <v>105</v>
-      </c>
-      <c r="N20" t="s">
-        <v>98</v>
-      </c>
-      <c r="O20" t="s">
-        <v>155</v>
-      </c>
-      <c r="P20" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>96</v>
-      </c>
-      <c r="R20" t="s">
-        <v>96</v>
-      </c>
-      <c r="S20" t="s">
-        <v>157</v>
-      </c>
-      <c r="T20" t="s">
-        <v>96</v>
-      </c>
-      <c r="V20" t="s">
-        <v>99</v>
-      </c>
-      <c r="X20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="5:24">
-      <c r="E21" t="s">
-        <v>158</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="G21" t="s">
-        <v>160</v>
-      </c>
-      <c r="H21" t="s">
-        <v>160</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="J21" t="s">
-        <v>95</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="M21" s="39">
-        <v>80</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21" t="s">
-        <v>159</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="V21" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="X21">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28:I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="4" max="4" width="17.9140625" customWidth="1"/>
-    <col min="5" max="5" width="14.08203125" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
-    <col min="7" max="7" width="14.58203125" customWidth="1"/>
-    <col min="8" max="8" width="19.58203125" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" customWidth="1"/>
+    <col min="8" max="8" width="19.5546875" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="20.1640625" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -4195,66 +4157,66 @@
         <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H7" t="s">
+        <v>157</v>
+      </c>
+      <c r="I7" t="s">
+        <v>158</v>
+      </c>
+      <c r="J7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L7" t="s">
+        <v>161</v>
+      </c>
+      <c r="M7" t="s">
+        <v>162</v>
+      </c>
+      <c r="N7" t="s">
+        <v>163</v>
+      </c>
+      <c r="O7" t="s">
         <v>164</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H7" t="s">
-        <v>166</v>
-      </c>
-      <c r="I7" t="s">
-        <v>167</v>
-      </c>
-      <c r="J7" t="s">
-        <v>168</v>
-      </c>
-      <c r="K7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L7" t="s">
-        <v>170</v>
-      </c>
-      <c r="M7" t="s">
-        <v>171</v>
-      </c>
-      <c r="N7" t="s">
-        <v>172</v>
-      </c>
-      <c r="O7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="E8" s="5" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>62</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -4268,25 +4230,25 @@
     </row>
     <row r="9" spans="1:15">
       <c r="E9" s="5" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>66</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -4311,25 +4273,25 @@
         <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="I11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -4337,7 +4299,7 @@
         <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="G12" s="5" t="str">
         <f>菜单SAAS版!$E12</f>
@@ -4348,7 +4310,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I12" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -4356,10 +4318,10 @@
         <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="G13" s="5" t="str">
-        <f>菜单SAAS版!$E13</f>
+        <f>菜单SAAS版!$E17</f>
         <v>iam_menu-9</v>
       </c>
       <c r="H13" s="5" t="str">
@@ -4367,7 +4329,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I13" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -4375,10 +4337,10 @@
         <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="G14" s="5" t="str">
-        <f>菜单SAAS版!$E14</f>
+        <f>菜单SAAS版!$E13</f>
         <v>iam_menu-10</v>
       </c>
       <c r="H14" s="5" t="str">
@@ -4386,7 +4348,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I14" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -4394,10 +4356,10 @@
         <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="G15" s="5" t="str">
-        <f>菜单SAAS版!$E15</f>
+        <f>菜单SAAS版!$E14</f>
         <v>iam_menu-11</v>
       </c>
       <c r="H15" s="5" t="str">
@@ -4405,7 +4367,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I15" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -4413,10 +4375,10 @@
         <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="G16" s="5" t="str">
-        <f>菜单SAAS版!$E16</f>
+        <f>菜单SAAS版!$E20</f>
         <v>iam_menu-12</v>
       </c>
       <c r="H16" s="5" t="str">
@@ -4424,7 +4386,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I16" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="5:9">
@@ -4432,10 +4394,10 @@
         <v>60</v>
       </c>
       <c r="F17" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="G17" s="5" t="str">
-        <f>菜单SAAS版!$E17</f>
+        <f>菜单SAAS版!$E15</f>
         <v>iam_menu-13</v>
       </c>
       <c r="H17" s="5" t="str">
@@ -4443,7 +4405,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I17" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="5:9">
@@ -4451,10 +4413,10 @@
         <v>60</v>
       </c>
       <c r="F18" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="G18" s="5" t="str">
-        <f>菜单SAAS版!$E18</f>
+        <f>菜单SAAS版!$E19</f>
         <v>iam_menu-14</v>
       </c>
       <c r="H18" s="5" t="str">
@@ -4462,7 +4424,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I18" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="5:9">
@@ -4470,10 +4432,10 @@
         <v>60</v>
       </c>
       <c r="F19" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="G19" s="5" t="str">
-        <f>菜单SAAS版!$E19</f>
+        <f>菜单SAAS版!$E16</f>
         <v>iam_menu-15</v>
       </c>
       <c r="H19" s="5" t="str">
@@ -4481,7 +4443,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I19" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="5:9">
@@ -4489,10 +4451,10 @@
         <v>60</v>
       </c>
       <c r="F20" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="G20" s="5" t="str">
-        <f>菜单SAAS版!$E20</f>
+        <f>菜单SAAS版!$E18</f>
         <v>iam_menu-16</v>
       </c>
       <c r="H20" s="5" t="str">
@@ -4500,7 +4462,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I20" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="5:9">
@@ -4508,18 +4470,18 @@
         <v>60</v>
       </c>
       <c r="F21" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="G21" s="5" t="str">
-        <f>菜单SAAS版!$E21</f>
-        <v>iam_menu-17</v>
+        <f>菜单SAAS版!E17</f>
+        <v>iam_menu-9</v>
       </c>
       <c r="H21" s="5" t="str">
-        <f>菜单标签数据!$E$8</f>
-        <v>iam_label-10</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>189</v>
+        <f>E9</f>
+        <v>iam_label-11</v>
+      </c>
+      <c r="I21" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="5:9">
@@ -4527,18 +4489,18 @@
         <v>60</v>
       </c>
       <c r="F22" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="G22" s="5" t="str">
-        <f>菜单SAAS版!E13</f>
-        <v>iam_menu-9</v>
+        <f>菜单SAAS版!E14</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="H22" s="5" t="str">
         <f>E9</f>
         <v>iam_label-11</v>
       </c>
       <c r="I22" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="5:9">
@@ -4546,18 +4508,18 @@
         <v>60</v>
       </c>
       <c r="F23" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="G23" s="5" t="str">
-        <f>菜单SAAS版!E15</f>
-        <v>iam_menu-11</v>
+        <f>菜单SAAS版!E20</f>
+        <v>iam_menu-12</v>
       </c>
       <c r="H23" s="5" t="str">
         <f>E9</f>
         <v>iam_label-11</v>
       </c>
       <c r="I23" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="5:9">
@@ -4565,18 +4527,18 @@
         <v>60</v>
       </c>
       <c r="F24" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="G24" s="5" t="str">
-        <f>菜单SAAS版!E16</f>
-        <v>iam_menu-12</v>
+        <f>菜单SAAS版!E15</f>
+        <v>iam_menu-13</v>
       </c>
       <c r="H24" s="5" t="str">
         <f>E9</f>
         <v>iam_label-11</v>
       </c>
       <c r="I24" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="5:9">
@@ -4584,18 +4546,18 @@
         <v>60</v>
       </c>
       <c r="F25" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="G25" s="5" t="str">
-        <f>菜单SAAS版!E17</f>
-        <v>iam_menu-13</v>
+        <f>菜单SAAS版!E19</f>
+        <v>iam_menu-14</v>
       </c>
       <c r="H25" s="5" t="str">
         <f>E9</f>
         <v>iam_label-11</v>
       </c>
       <c r="I25" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="5:9">
@@ -4603,18 +4565,18 @@
         <v>60</v>
       </c>
       <c r="F26" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="G26" s="5" t="str">
-        <f>菜单SAAS版!E18</f>
-        <v>iam_menu-14</v>
+        <f>菜单SAAS版!E16</f>
+        <v>iam_menu-15</v>
       </c>
       <c r="H26" s="5" t="str">
         <f>E9</f>
         <v>iam_label-11</v>
       </c>
       <c r="I26" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="5:9">
@@ -4622,60 +4584,22 @@
         <v>60</v>
       </c>
       <c r="F27" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="G27" s="5" t="str">
-        <f>菜单SAAS版!E19</f>
-        <v>iam_menu-15</v>
+        <f>菜单SAAS版!E18</f>
+        <v>iam_menu-16</v>
       </c>
       <c r="H27" s="5" t="str">
         <f>E9</f>
         <v>iam_label-11</v>
       </c>
       <c r="I27" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="28" spans="5:9">
-      <c r="E28" t="s">
-        <v>60</v>
-      </c>
-      <c r="F28" t="s">
-        <v>175</v>
-      </c>
-      <c r="G28" s="5" t="str">
-        <f>菜单SAAS版!E20</f>
-        <v>iam_menu-16</v>
-      </c>
-      <c r="H28" s="5" t="str">
-        <f>E9</f>
-        <v>iam_label-11</v>
-      </c>
-      <c r="I28" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="29" spans="5:9">
-      <c r="E29" t="s">
-        <v>60</v>
-      </c>
-      <c r="F29" t="s">
-        <v>175</v>
-      </c>
-      <c r="G29" s="5" t="str">
-        <f>菜单SAAS版!E21</f>
-        <v>iam_menu-17</v>
-      </c>
-      <c r="H29" s="5" t="str">
-        <f>E9</f>
-        <v>iam_label-11</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/devops-menu-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/devops-menu-label.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\devops\devops-service\src\main\resources\script\db\init-data\devops_service\hzero_platform\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0776A07-04EF-45D5-A27A-9A9E2F991693}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12855" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -23,19 +17,18 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="181">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -45,6 +38,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>merge</t>
     </r>
@@ -53,7 +47,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -66,7 +59,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -76,6 +68,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">sheet </t>
     </r>
@@ -84,7 +77,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -94,6 +86,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -102,7 +95,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -112,6 +104,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">D7 </t>
     </r>
@@ -120,7 +113,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -152,7 +144,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -162,6 +153,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -170,7 +162,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -180,6 +171,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -188,7 +180,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -198,6 +189,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -209,7 +201,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -220,6 +211,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -229,7 +221,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -240,6 +231,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -249,7 +241,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -261,6 +252,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -269,7 +261,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -281,6 +272,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -289,7 +281,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -301,7 +292,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -311,6 +301,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>=</t>
     </r>
@@ -319,7 +310,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -331,7 +321,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -341,6 +330,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -349,7 +339,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -359,6 +348,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">,sheet </t>
     </r>
@@ -367,7 +357,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -377,6 +366,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -385,7 +375,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -395,6 +384,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -403,7 +393,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -413,6 +402,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>!</t>
     </r>
@@ -441,6 +431,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -449,7 +440,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -459,6 +449,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -467,7 +458,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -477,6 +467,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -485,7 +476,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -495,6 +485,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -503,7 +494,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -515,7 +505,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -525,6 +514,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -533,7 +523,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -543,6 +532,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -551,7 +541,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -561,6 +550,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -570,7 +560,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -580,6 +569,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -588,7 +578,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -598,6 +587,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">*
 </t>
@@ -607,7 +597,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -617,6 +606,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -625,7 +615,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -637,7 +626,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -647,6 +635,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">oracle </t>
     </r>
@@ -655,7 +644,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -665,6 +653,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -673,7 +662,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -688,6 +676,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -696,7 +685,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -706,6 +694,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -714,7 +703,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -724,6 +712,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -732,7 +721,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -742,6 +730,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -750,7 +739,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -760,6 +748,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -768,7 +757,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -780,7 +768,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -790,6 +777,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -798,7 +786,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -809,7 +796,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -820,6 +806,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -829,7 +816,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -840,7 +826,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -850,6 +835,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -858,7 +844,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -868,6 +853,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -876,7 +862,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -891,6 +876,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(TYPE)</t>
     </r>
@@ -899,7 +885,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -909,6 +894,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -917,7 +903,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -927,6 +912,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>:
 _ID</t>
@@ -936,7 +922,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -946,6 +931,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 _DATE </t>
@@ -955,7 +941,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -965,6 +950,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 </t>
@@ -974,7 +960,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -984,6 +969,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>VARCHAR</t>
     </r>
@@ -994,7 +980,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1004,6 +989,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -1013,7 +999,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1023,6 +1008,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>:
 yyyy-MM-dd HH:mm:ss
@@ -1038,6 +1024,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:LANG </t>
     </r>
@@ -1046,7 +1033,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1058,6 +1044,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">TL </t>
     </r>
@@ -1066,7 +1053,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1078,7 +1064,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1088,6 +1073,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1096,7 +1082,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1106,6 +1091,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1116,7 +1102,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1126,6 +1111,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1134,7 +1120,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1147,7 +1132,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1157,6 +1141,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1165,7 +1150,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1175,6 +1159,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1183,7 +1168,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1193,6 +1177,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1201,7 +1186,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1216,7 +1200,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1226,6 +1209,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -1234,7 +1218,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1244,6 +1227,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Excel </t>
     </r>
@@ -1252,7 +1236,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1262,6 +1245,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1270,7 +1254,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1280,6 +1263,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1288,7 +1272,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1304,7 +1287,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1314,7 +1296,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1324,6 +1305,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1332,7 +1314,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1348,7 +1329,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1358,7 +1338,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1368,6 +1347,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1376,7 +1356,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1391,7 +1370,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1401,6 +1379,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1409,7 +1388,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1419,6 +1397,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1427,7 +1406,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1437,6 +1415,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1446,7 +1425,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1456,6 +1434,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1469,7 +1448,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1479,6 +1457,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1487,7 +1466,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1497,6 +1475,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1505,7 +1484,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1515,6 +1493,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1524,7 +1503,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1534,6 +1512,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1544,7 +1523,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1555,7 +1533,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1565,7 +1542,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1577,7 +1553,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1587,6 +1562,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>:</t>
     </r>
@@ -1595,7 +1571,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1605,6 +1580,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1613,7 +1589,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1623,6 +1598,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A9 </t>
     </r>
@@ -1631,7 +1607,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1642,6 +1617,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1650,7 +1626,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1660,6 +1635,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F11 </t>
     </r>
@@ -1668,7 +1644,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1678,6 +1653,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, F11 </t>
     </r>
@@ -1686,7 +1662,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1696,6 +1671,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A10
 </t>
@@ -1705,7 +1681,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1715,6 +1690,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1723,7 +1699,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1733,6 +1708,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">G11 </t>
     </r>
@@ -1741,7 +1717,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1751,6 +1726,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, G11 </t>
     </r>
@@ -1759,7 +1735,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1769,6 +1744,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">B10
 </t>
@@ -1778,7 +1754,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1790,7 +1765,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1801,7 +1775,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1811,7 +1784,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1823,7 +1795,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1833,6 +1804,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1841,7 +1813,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1853,7 +1824,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1863,6 +1833,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1871,7 +1842,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1881,6 +1851,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -1890,7 +1861,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -1959,7 +1929,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
-        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>Devops</t>
     </r>
@@ -1968,7 +1938,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>管理</t>
     </r>
@@ -1979,7 +1949,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
-        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>Devops</t>
     </r>
@@ -1988,7 +1958,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>流程</t>
@@ -2002,20 +1971,12 @@
   </si>
   <si>
     <r>
-      <t>Devops</t>
-    </r>
-    <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="1"/>
-      </rPr>
-      <t>管理</t>
-    </r>
-  </si>
-  <si>
-    <r>
+        <charset val="134"/>
+      </rPr>
       <t>运维管理</t>
     </r>
     <r>
@@ -2023,7 +1984,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
-        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2101,6 +2062,9 @@
     <t>choerodon.code.project.cooperation</t>
   </si>
   <si>
+    <t>协作</t>
+  </si>
+  <si>
     <t>XZ</t>
   </si>
   <si>
@@ -2119,6 +2083,84 @@
     <t>api</t>
   </si>
   <si>
+    <t>iam_menu-10</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.project.overview</t>
+  </si>
+  <si>
+    <t>项目概览</t>
+  </si>
+  <si>
+    <t>XMGL</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>poll</t>
+  </si>
+  <si>
+    <t>/agile/project-overview</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.cooperation|choerodon.code.project.project.overview</t>
+  </si>
+  <si>
+    <t>iam_menu-11</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.operation.chart</t>
+  </si>
+  <si>
+    <t>图表</t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
+  <si>
+    <t>/charts</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.operation|choerodon.code.project.operation.chart</t>
+  </si>
+  <si>
+    <t>iam_menu-13</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting</t>
+  </si>
+  <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>SZ</t>
+  </si>
+  <si>
+    <t>iam_menu-15</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting.general-setting</t>
+  </si>
+  <si>
+    <t>通用</t>
+  </si>
+  <si>
+    <t>TY</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>settings</t>
+  </si>
+  <si>
+    <t>/iam/project-setting/info</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting|choerodon.code.project.setting.general-setting</t>
+  </si>
+  <si>
     <t>iam_menu-9</t>
   </si>
   <si>
@@ -2131,9 +2173,6 @@
     <t>TDCY</t>
   </si>
   <si>
-    <t>menu</t>
-  </si>
-  <si>
     <t>IAM</t>
   </si>
   <si>
@@ -2143,46 +2182,46 @@
     <t>choerodon.code.project.cooperation|choerodon.code.project.cooperation.team-member</t>
   </si>
   <si>
-    <t>iam_menu-10</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.project.overview</t>
-  </si>
-  <si>
-    <t>项目概览</t>
-  </si>
-  <si>
-    <t>XMGL</t>
-  </si>
-  <si>
-    <t>poll</t>
-  </si>
-  <si>
-    <t>/agile/project-overview</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.cooperation|choerodon.code.project.project.overview</t>
-  </si>
-  <si>
-    <t>iam_menu-11</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.operation.chart</t>
-  </si>
-  <si>
-    <t>图表</t>
-  </si>
-  <si>
-    <t>TB</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>/charts</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.operation|choerodon.code.project.operation.chart</t>
+    <t>iam_menu-16</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting.setting-notify</t>
+  </si>
+  <si>
+    <t>通知</t>
+  </si>
+  <si>
+    <t>TZ</t>
+  </si>
+  <si>
+    <t>notification_setting</t>
+  </si>
+  <si>
+    <t>/notify/project-notify</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting|choerodon.code.project.setting.setting-notify</t>
+  </si>
+  <si>
+    <t>iam_menu-14</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting.client</t>
+  </si>
+  <si>
+    <t>客户端</t>
+  </si>
+  <si>
+    <t>KHD</t>
+  </si>
+  <si>
+    <t>airplay</t>
+  </si>
+  <si>
+    <t>/iam/pro-client</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting|choerodon.code.project.setting.client</t>
   </si>
   <si>
     <t>iam_menu-12</t>
@@ -2206,81 +2245,6 @@
     <t>choerodon.code.project.operation|choerodon.code.project.operation.saga-instance</t>
   </si>
   <si>
-    <t>iam_menu-13</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting</t>
-  </si>
-  <si>
-    <t>设置</t>
-  </si>
-  <si>
-    <t>SZ</t>
-  </si>
-  <si>
-    <t>iam_menu-14</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting.client</t>
-  </si>
-  <si>
-    <t>客户端</t>
-  </si>
-  <si>
-    <t>KHD</t>
-  </si>
-  <si>
-    <t>airplay</t>
-  </si>
-  <si>
-    <t>/iam/pro-client</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting|choerodon.code.project.setting.client</t>
-  </si>
-  <si>
-    <t>iam_menu-15</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting.general-setting</t>
-  </si>
-  <si>
-    <t>通用</t>
-  </si>
-  <si>
-    <t>TY</t>
-  </si>
-  <si>
-    <t>settings</t>
-  </si>
-  <si>
-    <t>/iam/project-setting/info</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting|choerodon.code.project.setting.general-setting</t>
-  </si>
-  <si>
-    <t>iam_menu-16</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting.setting-notify</t>
-  </si>
-  <si>
-    <t>通知</t>
-  </si>
-  <si>
-    <t>TZ</t>
-  </si>
-  <si>
-    <t>notification_setting</t>
-  </si>
-  <si>
-    <t>/notify/project-notify</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting|choerodon.code.project.setting.setting-notify</t>
-  </si>
-  <si>
     <t>标签表</t>
   </si>
   <si>
@@ -2331,7 +2295,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
-        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>devops</t>
     </r>
@@ -2340,7 +2304,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>项目类型标签</t>
@@ -2352,7 +2315,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
-        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>devops</t>
     </r>
@@ -2361,7 +2324,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -2371,7 +2333,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
-        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>label</t>
     </r>
@@ -2408,20 +2370,19 @@
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>敏捷</t>
-  </si>
-  <si>
-    <t>敏捷</t>
-    <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="43">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2432,43 +2393,54 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DejaVu Sans"/>
-      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Droid Sans Fallback"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2476,36 +2448,194 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2524,53 +2654,28 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="DengXian"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF24292E"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2601,8 +2706,194 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2703,10 +2994,252 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2716,107 +3249,154 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+  <cellStyles count="50">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="常规 2" xfId="14"/>
+    <cellStyle name="Accent3" xfId="15" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="16" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="17" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="18" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="19" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="20" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="21" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="22" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="23" builtinId="32"/>
+    <cellStyle name="Bad" xfId="24" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="25" builtinId="42"/>
+    <cellStyle name="Total" xfId="26" builtinId="25"/>
+    <cellStyle name="Output" xfId="27" builtinId="21"/>
+    <cellStyle name="Currency" xfId="28" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="29" builtinId="38"/>
+    <cellStyle name="Note" xfId="30" builtinId="10"/>
+    <cellStyle name="Input" xfId="31" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="32" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="33" builtinId="22"/>
+    <cellStyle name="Good" xfId="34" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="35" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="36" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="37" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="38" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
+    <cellStyle name="Title" xfId="40" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="41" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="42" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
+    <cellStyle name="Comma" xfId="45" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -2889,9 +3469,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3149,982 +3726,984 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5533333333333" style="18" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="15" customWidth="1"/>
+    <col min="3" max="3" width="28.1066666666667" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="19" customWidth="1"/>
+    <col min="5" max="5" width="38.5533333333333" customWidth="1"/>
+    <col min="6" max="6" width="23.44" customWidth="1"/>
+    <col min="7" max="7" width="21.5533333333333" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="9" max="9" width="24.5533333333333" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.1066666666667" customWidth="1"/>
+    <col min="12" max="12" width="18.5533333333333" customWidth="1"/>
+    <col min="13" max="13" width="13.1066666666667" customWidth="1"/>
+    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A1" s="10"/>
-      <c r="C1" s="44" t="s">
+    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+      <c r="A1" s="20"/>
+      <c r="C1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-    </row>
-    <row r="2" spans="1:8" ht="18">
-      <c r="E2" s="21"/>
-    </row>
-    <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="43" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+    </row>
+    <row r="2" spans="5:5">
+      <c r="E2" s="35"/>
+    </row>
+    <row r="3" ht="49.5" customHeight="1" spans="3:7">
+      <c r="C3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="45" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-    </row>
-    <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="46" t="s">
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+    </row>
+    <row r="4" ht="24" spans="3:7">
+      <c r="C4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="25" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="42" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="10"/>
+    <row r="5" ht="24" spans="1:3">
+      <c r="A5" s="20"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18">
-      <c r="C7" s="11" t="s">
+    <row r="7" spans="3:5">
+      <c r="C7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="43" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="13" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="29"/>
-    </row>
-    <row r="9" spans="1:8" ht="51.75">
-      <c r="C9" s="15" t="s">
+      <c r="E8" s="44"/>
+    </row>
+    <row r="9" ht="72" spans="3:6">
+      <c r="C9" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="45" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51.75">
-      <c r="C10" s="17" t="s">
+    <row r="10" ht="65.25" spans="3:5">
+      <c r="C10" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="45" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69">
-      <c r="C11" s="13" t="s">
+    <row r="11" ht="96" spans="3:5">
+      <c r="C11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="45" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="13" t="s">
+    <row r="12" ht="24" spans="3:5">
+      <c r="C12" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="46" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="29"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="29"/>
-    </row>
-    <row r="15" spans="1:8" ht="34.5">
-      <c r="C15" s="18" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="44"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="44"/>
+    </row>
+    <row r="15" ht="48" spans="3:5">
+      <c r="C15" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="47" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="3:5">
-      <c r="C19" s="47" t="s">
+    <row r="19" ht="24" spans="3:5">
+      <c r="C19" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-    </row>
-    <row r="20" spans="3:5" ht="18">
-      <c r="C20" s="20" t="s">
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+    </row>
+    <row r="20" ht="24" spans="3:4">
+      <c r="C20" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="18">
-      <c r="C21" s="20" t="s">
+    <row r="21" ht="24" spans="3:4">
+      <c r="C21" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="18">
-      <c r="C22" s="20" t="s">
+    <row r="22" ht="24" spans="3:4">
+      <c r="C22" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="18">
-      <c r="C23" s="20" t="s">
+    <row r="23" ht="24" spans="3:4">
+      <c r="C23" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="22" t="s">
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="43" t="s">
+      <c r="D25" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="43"/>
-    </row>
-    <row r="26" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C26" s="14" t="s">
+      <c r="E25" s="22"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="3:5">
+      <c r="C26" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="43" t="s">
+      <c r="D26" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="43"/>
-    </row>
-    <row r="27" spans="3:5" ht="51.75">
-      <c r="C27" s="23" t="s">
+      <c r="E26" s="22"/>
+    </row>
+    <row r="27" ht="41.25" spans="3:3">
+      <c r="C27" s="37" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="34" customWidth="1"/>
-    <col min="2" max="3" width="9" style="34"/>
-    <col min="4" max="4" width="23.44140625" style="34" customWidth="1"/>
-    <col min="5" max="5" width="18" style="34" customWidth="1"/>
-    <col min="6" max="6" width="28.77734375" style="34" customWidth="1"/>
-    <col min="7" max="7" width="21" style="34" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="34" customWidth="1"/>
-    <col min="9" max="10" width="9" style="34"/>
-    <col min="11" max="11" width="14.33203125" style="34" customWidth="1"/>
-    <col min="12" max="18" width="9" style="34"/>
-    <col min="19" max="19" width="26.6640625" style="34" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="34"/>
+    <col min="1" max="1" width="14.44" style="7" customWidth="1"/>
+    <col min="2" max="3" width="9" style="7"/>
+    <col min="4" max="4" width="23.44" style="7" customWidth="1"/>
+    <col min="5" max="5" width="18" style="7" customWidth="1"/>
+    <col min="6" max="6" width="28.78" style="7" customWidth="1"/>
+    <col min="7" max="7" width="21" style="7" customWidth="1"/>
+    <col min="8" max="8" width="14.44" style="7" customWidth="1"/>
+    <col min="9" max="10" width="9" style="7"/>
+    <col min="11" max="11" width="14.3333333333333" style="7" customWidth="1"/>
+    <col min="12" max="18" width="9" style="7"/>
+    <col min="19" max="19" width="26.6666666666667" style="7" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
-      <c r="E4" s="35" t="s">
+    <row r="4" spans="5:7">
+      <c r="E4" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
-      <c r="A7" s="34" t="s">
+    <row r="7" spans="1:10">
+      <c r="A7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="38" t="s">
+      <c r="H7" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="38" t="s">
+      <c r="I7" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="38" t="s">
+      <c r="J7" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38" t="s">
+    <row r="8" spans="1:10">
+      <c r="A8" s="10"/>
+      <c r="B8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="38" t="s">
+      <c r="H8" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="38" t="s">
+      <c r="I8" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="J8" s="34">
+      <c r="J8" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38" t="s">
+    <row r="9" spans="1:10">
+      <c r="A9" s="10"/>
+      <c r="B9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="38" t="s">
+      <c r="H9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="40" t="s">
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="J9" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
-      <c r="A11" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="34" t="s">
+      <c r="C11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="D11" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="E11" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="34" t="s">
+      <c r="H11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="34" t="s">
+      <c r="I11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I11" s="34" t="s">
+      <c r="J11" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="J11" s="36" t="s">
+      <c r="K11" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="K11" s="37" t="s">
+      <c r="L11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="L11" s="34" t="s">
+      <c r="M11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="M11" s="34" t="s">
+      <c r="N11" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="N11" s="34" t="s">
+      <c r="O11" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="O11" s="34" t="s">
+      <c r="P11" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P11" s="34" t="s">
+      <c r="Q11" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="Q11" s="34" t="s">
+      <c r="R11" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="R11" s="36" t="s">
+      <c r="S11" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="S11" s="34" t="s">
+      <c r="T11" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="T11" s="34" t="s">
+      <c r="U11" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="U11" s="34" t="s">
+      <c r="V11" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="V11" s="34" t="s">
+      <c r="W11" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="W11" s="34" t="s">
+      <c r="X11" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="X11" s="34" t="s">
+      <c r="Y11" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="Y11" s="34" t="s">
+    </row>
+    <row r="12" spans="5:24">
+      <c r="E12" s="7" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="12" spans="1:25">
-      <c r="E12" s="34" t="s">
+      <c r="F12" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="G12" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="41" t="s">
-        <v>181</v>
-      </c>
-      <c r="H12" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="I12" s="34" t="s">
+      <c r="H12" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="J12" s="34" t="s">
+      <c r="J12" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K12" s="34" t="s">
+      <c r="K12" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="L12" s="34" t="s">
+      <c r="L12" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="M12" s="42">
+      <c r="M12" s="17">
         <v>10</v>
       </c>
-      <c r="N12" s="34" t="s">
+      <c r="N12" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="Q12" s="34" t="s">
+      <c r="Q12" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="R12" s="34" t="s">
+      <c r="R12" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="S12" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="T12" s="34" t="s">
+      <c r="S12" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="T12" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="V12" s="34" t="s">
+      <c r="V12" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="X12" s="34" t="s">
+      <c r="X12" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
-      <c r="E13" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="H13" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="I13" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="J13" s="34" t="s">
+    <row r="13" spans="5:24">
+      <c r="E13" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K13" s="34" t="str">
+      <c r="K13" s="7" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-8</v>
       </c>
-      <c r="L13" s="34" t="s">
+      <c r="L13" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="15">
         <v>10</v>
       </c>
-      <c r="N13" s="34" t="s">
+      <c r="N13" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="O13" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="P13" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q13" s="34" t="s">
+      <c r="O13" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="R13" s="34" t="s">
+      <c r="R13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="S13" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="T13" s="34" t="s">
+      <c r="S13" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="T13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="V13" s="34" t="s">
+      <c r="V13" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="X13" s="34" t="s">
+      <c r="X13" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
-      <c r="E14" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="H14" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="I14" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="J14" s="34" t="s">
+    <row r="14" spans="5:24">
+      <c r="E14" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K14" s="34" t="str">
+      <c r="K14" s="7" t="str">
         <f>E12</f>
         <v>iam_menu-8</v>
       </c>
-      <c r="L14" s="34" t="s">
+      <c r="L14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="15">
         <v>120</v>
       </c>
-      <c r="N14" s="34" t="s">
+      <c r="N14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="O14" s="34" t="s">
+      <c r="O14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P14" s="34" t="s">
+      <c r="Q14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="V14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X14" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="5:24">
+      <c r="E15" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M15" s="17">
+        <v>50</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="R15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="T15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="V15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X15" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="5:24">
+      <c r="E16" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="Q14" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="R14" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="S14" s="34" t="s">
+      <c r="H16" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I16" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="T14" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="V14" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="X14" s="34" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25">
-      <c r="E15" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="H15" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="I15" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="J15" s="34" t="s">
+      <c r="J16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K15" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="L15" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="M15" s="42">
-        <v>50</v>
-      </c>
-      <c r="N15" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q15" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="R15" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="S15" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="T15" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="V15" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="X15" s="34" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
-      <c r="E16" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F16" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="H16" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="I16" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="J16" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="K16" s="34" t="str">
+      <c r="K16" s="7" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-13</v>
       </c>
-      <c r="L16" s="34" t="s">
+      <c r="L16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M16" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="N16" s="34" t="s">
+      <c r="M16" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="N16" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="O16" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="P16" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q16" s="34" t="s">
+      <c r="O16" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="R16" s="34" t="s">
+      <c r="R16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="S16" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="T16" s="34" t="s">
+      <c r="S16" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="T16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="V16" s="34" t="s">
+      <c r="V16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="X16" s="34" t="s">
+      <c r="X16" s="7" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="17" spans="5:24">
-      <c r="E17" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="I17" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="J17" s="34" t="s">
+      <c r="E17" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K17" s="38" t="str">
+      <c r="K17" s="9" t="str">
         <f>E15</f>
         <v>iam_menu-13</v>
       </c>
-      <c r="L17" s="34" t="s">
+      <c r="L17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17" s="15">
         <v>20</v>
       </c>
-      <c r="N17" s="34" t="s">
+      <c r="N17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="O17" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="P17" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="34" t="s">
+      <c r="O17" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="R17" s="34" t="s">
+      <c r="R17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="S17" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="T17" s="34" t="s">
+      <c r="S17" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="T17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="V17" s="34" t="s">
+      <c r="V17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="X17" s="34" t="s">
+      <c r="X17" s="7" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="18" spans="5:24">
-      <c r="E18" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="G18" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="H18" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="I18" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="J18" s="34" t="s">
+      <c r="E18" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K18" s="34" t="str">
+      <c r="K18" s="7" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-13</v>
       </c>
-      <c r="L18" s="34" t="s">
+      <c r="L18" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="15">
         <v>70</v>
       </c>
-      <c r="N18" s="34" t="s">
+      <c r="N18" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="O18" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="P18" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q18" s="34" t="s">
+      <c r="O18" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="R18" s="34" t="s">
+      <c r="R18" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="S18" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="T18" s="34" t="s">
+      <c r="S18" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="T18" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="V18" s="34" t="s">
+      <c r="V18" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="X18" s="34" t="s">
+      <c r="X18" s="7" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="19" spans="5:24">
-      <c r="E19" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="F19" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="G19" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="H19" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="I19" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="J19" s="34" t="s">
+      <c r="E19" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K19" s="34" t="str">
+      <c r="K19" s="7" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-13</v>
       </c>
-      <c r="L19" s="34" t="s">
+      <c r="L19" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="15">
         <v>90</v>
       </c>
-      <c r="N19" s="34" t="s">
+      <c r="N19" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="O19" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="P19" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q19" s="34" t="s">
+      <c r="O19" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="R19" s="34" t="s">
+      <c r="R19" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="S19" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="T19" s="34" t="s">
+      <c r="S19" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="T19" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="V19" s="34" t="s">
+      <c r="V19" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="X19" s="34" t="s">
+      <c r="X19" s="7" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="20" spans="5:24">
-      <c r="E20" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="F20" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="G20" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="H20" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="I20" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="J20" s="34" t="s">
+      <c r="E20" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K20" s="34" t="str">
+      <c r="K20" s="7" t="str">
         <f>E15</f>
         <v>iam_menu-13</v>
       </c>
-      <c r="L20" s="34" t="s">
+      <c r="L20" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M20" s="8">
+      <c r="M20" s="15">
         <v>100</v>
       </c>
-      <c r="N20" s="34" t="s">
+      <c r="N20" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="O20" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="P20" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q20" s="34" t="s">
+      <c r="O20" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="R20" s="34" t="s">
+      <c r="R20" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="S20" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="T20" s="34" t="s">
+      <c r="S20" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="T20" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="V20" s="34" t="s">
+      <c r="V20" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="X20" s="34" t="s">
+      <c r="X20" s="7" t="s">
         <v>97</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28:I28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.8866666666667" customWidth="1"/>
+    <col min="5" max="5" width="14.1066666666667" customWidth="1"/>
+    <col min="6" max="6" width="14.78" customWidth="1"/>
+    <col min="7" max="7" width="14.5533333333333" customWidth="1"/>
+    <col min="8" max="8" width="19.5533333333333" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" customWidth="1"/>
+    <col min="11" max="11" width="20.1066666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -4138,7 +4717,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -4154,7 +4733,7 @@
         <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
         <v>153</v>
@@ -4196,7 +4775,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="5:15">
       <c r="E8" s="5" t="s">
         <v>165</v>
       </c>
@@ -4228,7 +4807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="5:15">
       <c r="E9" s="5" t="s">
         <v>170</v>
       </c>
@@ -4260,17 +4839,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="5:7">
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
         <v>173</v>
@@ -4294,7 +4873,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="5:9">
       <c r="E12" t="s">
         <v>60</v>
       </c>
@@ -4313,7 +4892,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="5:9">
       <c r="E13" t="s">
         <v>60</v>
       </c>
@@ -4332,7 +4911,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="5:9">
       <c r="E14" t="s">
         <v>60</v>
       </c>
@@ -4351,7 +4930,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="5:9">
       <c r="E15" t="s">
         <v>60</v>
       </c>
@@ -4370,7 +4949,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="5:9">
       <c r="E16" t="s">
         <v>60</v>
       </c>
@@ -4599,8 +5178,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/devops-menu-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/devops-menu-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12855" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="182">
   <si>
     <r>
       <rPr>
@@ -2098,7 +2098,7 @@
     <t>menu</t>
   </si>
   <si>
-    <t>poll</t>
+    <t>bar_chart</t>
   </si>
   <si>
     <t>/agile/project-overview</t>
@@ -2119,6 +2119,9 @@
     <t>TB</t>
   </si>
   <si>
+    <t>devops_chart</t>
+  </si>
+  <si>
     <t>/charts</t>
   </si>
   <si>
@@ -2152,7 +2155,7 @@
     <t>10</t>
   </si>
   <si>
-    <t>settings</t>
+    <t>settings-o</t>
   </si>
   <si>
     <t>/iam/project-setting/info</t>
@@ -2173,7 +2176,7 @@
     <t>TDCY</t>
   </si>
   <si>
-    <t>IAM</t>
+    <t>supervisor_account-o</t>
   </si>
   <si>
     <t>/iam/team-member</t>
@@ -2194,7 +2197,7 @@
     <t>TZ</t>
   </si>
   <si>
-    <t>notification_setting</t>
+    <t>notifications_active-o</t>
   </si>
   <si>
     <t>/notify/project-notify</t>
@@ -2215,7 +2218,7 @@
     <t>KHD</t>
   </si>
   <si>
-    <t>airplay</t>
+    <t>laptop_windows</t>
   </si>
   <si>
     <t>/iam/pro-client</t>
@@ -2236,7 +2239,7 @@
     <t>SWGL</t>
   </si>
   <si>
-    <t>ballot</t>
+    <t>developer_board</t>
   </si>
   <si>
     <t>/asgard/project-saga-instance</t>
@@ -2377,12 +2380,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="41">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2427,12 +2430,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF24292E"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -2448,12 +2445,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2475,24 +2466,103 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -2500,7 +2570,23 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -2508,75 +2594,15 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -2584,56 +2610,21 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
@@ -2708,7 +2699,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2720,85 +2759,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2816,7 +2777,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2828,19 +2825,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2852,43 +2849,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2905,28 +2896,12 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -2951,12 +2926,21 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -2965,13 +2949,11 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2986,36 +2968,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3030,26 +2997,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3072,8 +3019,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3092,154 +3074,163 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3255,147 +3246,147 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="50">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="常规 2" xfId="14"/>
-    <cellStyle name="Accent3" xfId="15" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="16" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="17" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="18" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="19" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="20" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="21" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="22" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="23" builtinId="32"/>
-    <cellStyle name="Bad" xfId="24" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="25" builtinId="42"/>
-    <cellStyle name="Total" xfId="26" builtinId="25"/>
-    <cellStyle name="Output" xfId="27" builtinId="21"/>
-    <cellStyle name="Currency" xfId="28" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="29" builtinId="38"/>
-    <cellStyle name="Note" xfId="30" builtinId="10"/>
-    <cellStyle name="Input" xfId="31" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="32" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="33" builtinId="22"/>
-    <cellStyle name="Good" xfId="34" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="35" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="36" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="37" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="38" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
-    <cellStyle name="Title" xfId="40" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="41" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="42" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
-    <cellStyle name="Comma" xfId="45" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
@@ -3740,19 +3731,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5533333333333" style="18" customWidth="1"/>
+    <col min="1" max="1" width="15.5555555555556" style="18" customWidth="1"/>
     <col min="2" max="2" width="10.3333333333333" style="15" customWidth="1"/>
-    <col min="3" max="3" width="28.1066666666667" customWidth="1"/>
+    <col min="3" max="3" width="28.1037037037037" customWidth="1"/>
     <col min="4" max="4" width="35.3333333333333" style="19" customWidth="1"/>
-    <col min="5" max="5" width="38.5533333333333" customWidth="1"/>
-    <col min="6" max="6" width="23.44" customWidth="1"/>
-    <col min="7" max="7" width="21.5533333333333" customWidth="1"/>
+    <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="23.437037037037" customWidth="1"/>
+    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5533333333333" customWidth="1"/>
+    <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1066666666667" customWidth="1"/>
-    <col min="12" max="12" width="18.5533333333333" customWidth="1"/>
-    <col min="13" max="13" width="13.1066666666667" customWidth="1"/>
+    <col min="11" max="11" width="19.1037037037037" customWidth="1"/>
+    <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
+    <col min="13" max="13" width="13.1037037037037" customWidth="1"/>
     <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3763,130 +3754,130 @@
       </c>
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-    </row>
-    <row r="2" spans="5:5">
-      <c r="E2" s="35"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" ht="18" spans="5:5">
+      <c r="E2" s="23"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="39" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-    </row>
-    <row r="4" ht="24" spans="3:7">
-      <c r="C4" s="23" t="s">
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" ht="18" spans="3:7">
+      <c r="C4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="40" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="29" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="24" spans="1:3">
+    <row r="5" spans="1:3">
       <c r="A5" s="20"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="24" t="s">
+    <row r="7" ht="18" spans="3:5">
+      <c r="C7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="32" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="44"/>
-    </row>
-    <row r="9" ht="72" spans="3:6">
-      <c r="C9" s="28" t="s">
+      <c r="E8" s="35"/>
+    </row>
+    <row r="9" ht="51.75" spans="3:6">
+      <c r="C9" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="38" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="65.25" spans="3:5">
-      <c r="C10" s="30" t="s">
+    <row r="10" ht="51.75" spans="3:5">
+      <c r="C10" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="38" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="96" spans="3:5">
-      <c r="C11" s="26" t="s">
+    <row r="11" ht="69" spans="3:5">
+      <c r="C11" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" ht="24" spans="3:5">
-      <c r="C12" s="26" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="40" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="44"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="35"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="44"/>
-    </row>
-    <row r="15" ht="48" spans="3:5">
-      <c r="C15" s="31" t="s">
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="35"/>
+    </row>
+    <row r="15" ht="34.5" spans="3:5">
+      <c r="C15" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="43" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3895,39 +3886,39 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" ht="24" spans="3:5">
-      <c r="C19" s="33" t="s">
+    <row r="19" spans="3:5">
+      <c r="C19" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-    </row>
-    <row r="20" ht="24" spans="3:4">
-      <c r="C20" s="34" t="s">
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+    </row>
+    <row r="20" ht="18" spans="3:4">
+      <c r="C20" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="24" spans="3:4">
-      <c r="C21" s="34" t="s">
+    <row r="21" ht="18" spans="3:4">
+      <c r="C21" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="24" spans="3:4">
-      <c r="C22" s="34" t="s">
+    <row r="22" ht="18" spans="3:4">
+      <c r="C22" s="45" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="24" spans="3:4">
-      <c r="C23" s="34" t="s">
+    <row r="23" ht="18" spans="3:4">
+      <c r="C23" s="45" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="19" t="s">
@@ -3935,25 +3926,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="22"/>
+      <c r="E25" s="24"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="22"/>
-    </row>
-    <row r="27" ht="41.25" spans="3:3">
-      <c r="C27" s="37" t="s">
+      <c r="E26" s="24"/>
+    </row>
+    <row r="27" ht="51.75" spans="3:3">
+      <c r="C27" s="47" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3978,19 +3969,19 @@
   <sheetPr/>
   <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="14.44" style="7" customWidth="1"/>
+    <col min="1" max="1" width="14.437037037037" style="7" customWidth="1"/>
     <col min="2" max="3" width="9" style="7"/>
-    <col min="4" max="4" width="23.44" style="7" customWidth="1"/>
+    <col min="4" max="4" width="23.437037037037" style="7" customWidth="1"/>
     <col min="5" max="5" width="18" style="7" customWidth="1"/>
-    <col min="6" max="6" width="28.78" style="7" customWidth="1"/>
+    <col min="6" max="6" width="28.7777777777778" style="7" customWidth="1"/>
     <col min="7" max="7" width="21" style="7" customWidth="1"/>
-    <col min="8" max="8" width="14.44" style="7" customWidth="1"/>
+    <col min="8" max="8" width="14.437037037037" style="7" customWidth="1"/>
     <col min="9" max="10" width="9" style="7"/>
     <col min="11" max="11" width="14.3333333333333" style="7" customWidth="1"/>
     <col min="12" max="18" width="9" style="7"/>
@@ -4013,13 +4004,13 @@
       </c>
     </row>
     <row r="4" spans="5:7">
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="11" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4027,13 +4018,13 @@
       <c r="A7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="12" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -4042,36 +4033,36 @@
       <c r="F7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="12" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="10"/>
-      <c r="B8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="12" t="s">
         <v>64</v>
       </c>
       <c r="J8" s="7">
@@ -4079,19 +4070,19 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="10"/>
-      <c r="B9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="12" t="s">
         <v>63</v>
       </c>
       <c r="I9" s="16" t="s">
@@ -4114,10 +4105,10 @@
       <c r="D11" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="10" t="s">
         <v>55</v>
       </c>
       <c r="G11" s="7" t="s">
@@ -4129,10 +4120,10 @@
       <c r="I11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="11" t="s">
         <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
@@ -4153,7 +4144,7 @@
       <c r="Q11" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="R11" s="12" t="s">
+      <c r="R11" s="10" t="s">
         <v>82</v>
       </c>
       <c r="S11" s="7" t="s">
@@ -4318,10 +4309,10 @@
         <v>97</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>95</v>
@@ -4330,7 +4321,7 @@
         <v>95</v>
       </c>
       <c r="S14" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T14" s="7" t="s">
         <v>95</v>
@@ -4344,19 +4335,19 @@
     </row>
     <row r="15" spans="5:24">
       <c r="E15" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>94</v>
@@ -4380,7 +4371,7 @@
         <v>95</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="T15" s="7" t="s">
         <v>95</v>
@@ -4394,19 +4385,19 @@
     </row>
     <row r="16" spans="5:24">
       <c r="E16" s="15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>94</v>
@@ -4419,16 +4410,16 @@
         <v>103</v>
       </c>
       <c r="M16" s="15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N16" s="7" t="s">
         <v>97</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>95</v>
@@ -4437,7 +4428,7 @@
         <v>95</v>
       </c>
       <c r="S16" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="T16" s="7" t="s">
         <v>95</v>
@@ -4451,24 +4442,24 @@
     </row>
     <row r="17" spans="5:24">
       <c r="E17" s="15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K17" s="9" t="str">
+      <c r="K17" s="12" t="str">
         <f>E15</f>
         <v>iam_menu-13</v>
       </c>
@@ -4482,10 +4473,10 @@
         <v>97</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>95</v>
@@ -4494,7 +4485,7 @@
         <v>95</v>
       </c>
       <c r="S17" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="T17" s="7" t="s">
         <v>95</v>
@@ -4508,19 +4499,19 @@
     </row>
     <row r="18" spans="5:24">
       <c r="E18" s="15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>94</v>
@@ -4539,10 +4530,10 @@
         <v>97</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>95</v>
@@ -4551,7 +4542,7 @@
         <v>95</v>
       </c>
       <c r="S18" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="T18" s="7" t="s">
         <v>95</v>
@@ -4565,19 +4556,19 @@
     </row>
     <row r="19" spans="5:24">
       <c r="E19" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>94</v>
@@ -4596,10 +4587,10 @@
         <v>97</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>95</v>
@@ -4608,7 +4599,7 @@
         <v>95</v>
       </c>
       <c r="S19" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="T19" s="7" t="s">
         <v>95</v>
@@ -4622,19 +4613,19 @@
     </row>
     <row r="20" spans="5:24">
       <c r="E20" s="15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>94</v>
@@ -4653,10 +4644,10 @@
         <v>97</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>95</v>
@@ -4665,7 +4656,7 @@
         <v>95</v>
       </c>
       <c r="S20" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="T20" s="7" t="s">
         <v>95</v>
@@ -4694,13 +4685,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="4" max="4" width="17.8866666666667" customWidth="1"/>
-    <col min="5" max="5" width="14.1066666666667" customWidth="1"/>
-    <col min="6" max="6" width="14.78" customWidth="1"/>
-    <col min="7" max="7" width="14.5533333333333" customWidth="1"/>
-    <col min="8" max="8" width="19.5533333333333" customWidth="1"/>
+    <col min="4" max="4" width="17.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="14.1037037037037" customWidth="1"/>
+    <col min="6" max="6" width="14.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="14.5555555555556" customWidth="1"/>
+    <col min="8" max="8" width="19.5555555555556" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="20.1066666666667" customWidth="1"/>
+    <col min="11" max="11" width="20.1037037037037" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4736,66 +4727,66 @@
         <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>62</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -4809,25 +4800,25 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>66</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -4852,25 +4843,25 @@
         <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="5:9">
@@ -4878,7 +4869,7 @@
         <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G12" s="5" t="str">
         <f>菜单SAAS版!$E12</f>
@@ -4889,7 +4880,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="5:9">
@@ -4897,7 +4888,7 @@
         <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G13" s="5" t="str">
         <f>菜单SAAS版!$E17</f>
@@ -4908,7 +4899,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="5:9">
@@ -4916,7 +4907,7 @@
         <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G14" s="5" t="str">
         <f>菜单SAAS版!$E13</f>
@@ -4927,7 +4918,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="5:9">
@@ -4935,7 +4926,7 @@
         <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G15" s="5" t="str">
         <f>菜单SAAS版!$E14</f>
@@ -4946,7 +4937,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="5:9">
@@ -4954,7 +4945,7 @@
         <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G16" s="5" t="str">
         <f>菜单SAAS版!$E20</f>
@@ -4965,7 +4956,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I16" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="5:9">
@@ -4973,7 +4964,7 @@
         <v>60</v>
       </c>
       <c r="F17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G17" s="5" t="str">
         <f>菜单SAAS版!$E15</f>
@@ -4984,7 +4975,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="5:9">
@@ -4992,7 +4983,7 @@
         <v>60</v>
       </c>
       <c r="F18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G18" s="5" t="str">
         <f>菜单SAAS版!$E19</f>
@@ -5003,7 +4994,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I18" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="5:9">
@@ -5011,7 +5002,7 @@
         <v>60</v>
       </c>
       <c r="F19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G19" s="5" t="str">
         <f>菜单SAAS版!$E16</f>
@@ -5022,7 +5013,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="5:9">
@@ -5030,7 +5021,7 @@
         <v>60</v>
       </c>
       <c r="F20" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G20" s="5" t="str">
         <f>菜单SAAS版!$E18</f>
@@ -5041,7 +5032,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="5:9">
@@ -5049,7 +5040,7 @@
         <v>60</v>
       </c>
       <c r="F21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G21" s="5" t="str">
         <f>菜单SAAS版!E17</f>
@@ -5060,7 +5051,7 @@
         <v>iam_label-11</v>
       </c>
       <c r="I21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="5:9">
@@ -5068,7 +5059,7 @@
         <v>60</v>
       </c>
       <c r="F22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G22" s="5" t="str">
         <f>菜单SAAS版!E14</f>
@@ -5079,7 +5070,7 @@
         <v>iam_label-11</v>
       </c>
       <c r="I22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="5:9">
@@ -5087,7 +5078,7 @@
         <v>60</v>
       </c>
       <c r="F23" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G23" s="5" t="str">
         <f>菜单SAAS版!E20</f>
@@ -5098,7 +5089,7 @@
         <v>iam_label-11</v>
       </c>
       <c r="I23" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="5:9">
@@ -5106,7 +5097,7 @@
         <v>60</v>
       </c>
       <c r="F24" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G24" s="5" t="str">
         <f>菜单SAAS版!E15</f>
@@ -5117,7 +5108,7 @@
         <v>iam_label-11</v>
       </c>
       <c r="I24" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="5:9">
@@ -5125,7 +5116,7 @@
         <v>60</v>
       </c>
       <c r="F25" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G25" s="5" t="str">
         <f>菜单SAAS版!E19</f>
@@ -5136,7 +5127,7 @@
         <v>iam_label-11</v>
       </c>
       <c r="I25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="5:9">
@@ -5144,7 +5135,7 @@
         <v>60</v>
       </c>
       <c r="F26" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G26" s="5" t="str">
         <f>菜单SAAS版!E16</f>
@@ -5155,7 +5146,7 @@
         <v>iam_label-11</v>
       </c>
       <c r="I26" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="5:9">
@@ -5163,7 +5154,7 @@
         <v>60</v>
       </c>
       <c r="F27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G27" s="5" t="str">
         <f>菜单SAAS版!E18</f>
@@ -5174,7 +5165,7 @@
         <v>iam_label-11</v>
       </c>
       <c r="I27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/devops-menu-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/devops-menu-label.xlsx
@@ -2245,7 +2245,7 @@
     <t>/asgard/project-saga-instance</t>
   </si>
   <si>
-    <t>choerodon.code.project.operation|choerodon.code.project.operation.saga-instance</t>
+    <t>choerodon.code.project.setting|choerodon.code.project.operation.saga-instance</t>
   </si>
   <si>
     <t>标签表</t>
@@ -2472,9 +2472,121 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2497,28 +2609,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2529,97 +2620,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2699,7 +2699,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2711,79 +2801,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2795,49 +2825,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2855,13 +2843,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2873,13 +2879,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3002,36 +3002,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3060,17 +3040,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3083,151 +3072,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3969,8 +3969,8 @@
   <sheetPr/>
   <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/devops-menu-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/devops-menu-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="137">
   <si>
     <r>
       <rPr>
@@ -2005,57 +2005,12 @@
     <t>name:en_US</t>
   </si>
   <si>
-    <t>h_quick_index</t>
-  </si>
-  <si>
     <t>#fd_level</t>
   </si>
   <si>
-    <t>parent_id</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>sort</t>
-  </si>
-  <si>
-    <t>is_default</t>
-  </si>
-  <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>route</t>
-  </si>
-  <si>
-    <t>h_custom_flag</t>
-  </si>
-  <si>
     <t>#h_tenant_id</t>
   </si>
   <si>
-    <t>h_level_path</t>
-  </si>
-  <si>
-    <t>h_virtual_flag</t>
-  </si>
-  <si>
-    <t>h_controller_type</t>
-  </si>
-  <si>
-    <t>h_permission_type</t>
-  </si>
-  <si>
-    <t>h_description</t>
-  </si>
-  <si>
-    <t>h_enabled_flag</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
     <t>iam_menu-8</t>
   </si>
   <si>
@@ -2065,24 +2020,12 @@
     <t>协作</t>
   </si>
   <si>
-    <t>XZ</t>
-  </si>
-  <si>
     <t>organization</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>root</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>api</t>
-  </si>
-  <si>
     <t>iam_menu-10</t>
   </si>
   <si>
@@ -2092,21 +2035,6 @@
     <t>项目概览</t>
   </si>
   <si>
-    <t>XMGL</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>bar_chart</t>
-  </si>
-  <si>
-    <t>/agile/project-overview</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.cooperation|choerodon.code.project.project.overview</t>
-  </si>
-  <si>
     <t>iam_menu-11</t>
   </si>
   <si>
@@ -2116,18 +2044,6 @@
     <t>图表</t>
   </si>
   <si>
-    <t>TB</t>
-  </si>
-  <si>
-    <t>devops_chart</t>
-  </si>
-  <si>
-    <t>/charts</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.operation|choerodon.code.project.operation.chart</t>
-  </si>
-  <si>
     <t>iam_menu-13</t>
   </si>
   <si>
@@ -2137,9 +2053,6 @@
     <t>设置</t>
   </si>
   <si>
-    <t>SZ</t>
-  </si>
-  <si>
     <t>iam_menu-15</t>
   </si>
   <si>
@@ -2149,21 +2062,6 @@
     <t>通用</t>
   </si>
   <si>
-    <t>TY</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>settings-o</t>
-  </si>
-  <si>
-    <t>/iam/project-setting/info</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting|choerodon.code.project.setting.general-setting</t>
-  </si>
-  <si>
     <t>iam_menu-9</t>
   </si>
   <si>
@@ -2173,18 +2071,6 @@
     <t>团队成员</t>
   </si>
   <si>
-    <t>TDCY</t>
-  </si>
-  <si>
-    <t>supervisor_account-o</t>
-  </si>
-  <si>
-    <t>/iam/team-member</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.cooperation|choerodon.code.project.cooperation.team-member</t>
-  </si>
-  <si>
     <t>iam_menu-16</t>
   </si>
   <si>
@@ -2194,18 +2080,6 @@
     <t>通知</t>
   </si>
   <si>
-    <t>TZ</t>
-  </si>
-  <si>
-    <t>notifications_active-o</t>
-  </si>
-  <si>
-    <t>/notify/project-notify</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting|choerodon.code.project.setting.setting-notify</t>
-  </si>
-  <si>
     <t>iam_menu-14</t>
   </si>
   <si>
@@ -2215,37 +2089,28 @@
     <t>客户端</t>
   </si>
   <si>
-    <t>KHD</t>
-  </si>
-  <si>
-    <t>laptop_windows</t>
-  </si>
-  <si>
-    <t>/iam/pro-client</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting|choerodon.code.project.setting.client</t>
-  </si>
-  <si>
     <t>iam_menu-12</t>
   </si>
   <si>
     <t>choerodon.code.project.operation.saga-instance</t>
   </si>
   <si>
-    <t>事务管理</t>
-  </si>
-  <si>
-    <t>SWGL</t>
-  </si>
-  <si>
-    <t>developer_board</t>
-  </si>
-  <si>
-    <t>/asgard/project-saga-instance</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting|choerodon.code.project.operation.saga-instance</t>
+    <t>事务实例</t>
+  </si>
+  <si>
+    <t>iam_menu-248</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting.developer</t>
+  </si>
+  <si>
+    <t>开发者</t>
+  </si>
+  <si>
+    <t>iam_menu-249</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.setting.developer</t>
   </si>
   <si>
     <t>标签表</t>
@@ -2385,7 +2250,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="42">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2430,7 +2295,13 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF24292E"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="-0.499984740745262"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -2475,19 +2346,43 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2495,6 +2390,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2515,39 +2418,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2561,8 +2434,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2578,15 +2458,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2594,17 +2474,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2615,9 +2487,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2699,13 +2570,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2729,73 +2630,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2813,7 +2654,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2825,7 +2708,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2837,49 +2744,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2986,6 +2857,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2997,6 +2877,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3019,8 +2914,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3043,32 +2938,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3086,153 +2957,153 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3267,55 +3138,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3328,7 +3200,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3473,7 +3345,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3731,10 +3603,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="18" customWidth="1"/>
+    <col min="1" max="1" width="15.5555555555556" style="19" customWidth="1"/>
     <col min="2" max="2" width="10.3333333333333" style="15" customWidth="1"/>
     <col min="3" max="3" width="28.1037037037037" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="19" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="20" customWidth="1"/>
     <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
     <col min="6" max="6" width="23.437037037037" customWidth="1"/>
     <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
@@ -3748,79 +3620,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="20"/>
-      <c r="C1" s="21" t="s">
+      <c r="A1" s="21"/>
+      <c r="C1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="23"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27" t="s">
+      <c r="D4" s="27"/>
+      <c r="E4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="30" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="33" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="35"/>
+      <c r="E8" s="36"/>
     </row>
     <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="39" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -3828,56 +3700,56 @@
       </c>
     </row>
     <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="39" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="39" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="41" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="36"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="35"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
     </row>
     <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="44" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3887,64 +3759,64 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
     </row>
     <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="24" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="24" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="20" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="20" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="24"/>
+      <c r="E25" s="25"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="24"/>
+      <c r="E26" s="25"/>
     </row>
     <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="47" t="s">
+      <c r="C27" s="48" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3967,10 +3839,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y20"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -3979,14 +3851,11 @@
     <col min="2" max="3" width="9" style="7"/>
     <col min="4" max="4" width="23.437037037037" style="7" customWidth="1"/>
     <col min="5" max="5" width="18" style="7" customWidth="1"/>
-    <col min="6" max="6" width="28.7777777777778" style="7" customWidth="1"/>
+    <col min="6" max="6" width="42.5555555555556" style="7" customWidth="1"/>
     <col min="7" max="7" width="21" style="7" customWidth="1"/>
     <col min="8" max="8" width="14.437037037037" style="7" customWidth="1"/>
-    <col min="9" max="10" width="9" style="7"/>
-    <col min="11" max="11" width="14.3333333333333" style="7" customWidth="1"/>
-    <col min="12" max="18" width="9" style="7"/>
-    <col min="19" max="19" width="26.6666666666667" style="7" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="7"/>
+    <col min="9" max="9" width="11.6666666666667" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4085,14 +3954,14 @@
       <c r="H9" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="18" t="s">
         <v>67</v>
       </c>
       <c r="J9" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:10">
       <c r="A11" s="7" t="s">
         <v>50</v>
       </c>
@@ -4117,555 +3986,231 @@
       <c r="H11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="10" t="s">
         <v>73</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="11" t="s">
+    </row>
+    <row r="12" spans="5:10">
+      <c r="E12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="F12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="G12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="H12" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P11" s="7" t="s">
+    </row>
+    <row r="13" spans="5:10">
+      <c r="E13" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="Q11" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="R11" s="10" t="s">
+      <c r="G13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="S11" s="7" t="s">
+      <c r="H13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="5:10">
+      <c r="E14" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="T11" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="U11" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="V11" s="7" t="s">
+      <c r="H14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="5:10">
+      <c r="E15" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="W11" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="X11" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="Y11" s="7" t="s">
+      <c r="H15" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="5:10">
+      <c r="E16" s="15" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="12" spans="5:24">
-      <c r="E12" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="H16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10">
+      <c r="E17" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="H12" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="I12" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="H17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10">
+      <c r="E18" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="F18" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="M12" s="17">
-        <v>10</v>
-      </c>
-      <c r="N12" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="Q12" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="R12" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="S12" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="T12" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="V12" s="7" t="s">
+      <c r="H18" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="5:10">
+      <c r="E19" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="X12" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="5:24">
-      <c r="E13" s="15" t="s">
+      <c r="F19" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="5:10">
+      <c r="E20" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="H13" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="I13" s="7" t="s">
+      <c r="F20" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="J13" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K13" s="7" t="str">
-        <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-8</v>
-      </c>
-      <c r="L13" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M13" s="15">
-        <v>10</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="H20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="5:10">
+      <c r="E21" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="F21" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="Q13" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="S13" s="7" t="s">
+      <c r="G21" t="s">
         <v>106</v>
       </c>
-      <c r="T13" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="V13" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="X13" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="5:24">
-      <c r="E14" s="15" t="s">
+      <c r="H21" t="s">
+        <v>106</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10">
+      <c r="E22" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F22" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K14" s="7" t="str">
-        <f>E12</f>
-        <v>iam_menu-8</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M14" s="15">
-        <v>120</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="R14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="S14" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="T14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="V14" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="X14" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="5:24">
-      <c r="E15" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M15" s="17">
-        <v>50</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="R15" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="S15" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="T15" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="V15" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="X15" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="5:24">
-      <c r="E16" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K16" s="7" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M16" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="R16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="S16" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="T16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="V16" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="X16" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="5:24">
-      <c r="E17" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K17" s="12" t="str">
-        <f>E15</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M17" s="15">
-        <v>20</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="R17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="S17" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="T17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="V17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="X17" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="5:24">
-      <c r="E18" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K18" s="7" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M18" s="15">
-        <v>70</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="R18" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="S18" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="T18" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="V18" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="X18" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="5:24">
-      <c r="E19" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K19" s="7" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M19" s="15">
-        <v>90</v>
-      </c>
-      <c r="N19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="R19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="S19" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="T19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="V19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="X19" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="5:24">
-      <c r="E20" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K20" s="7" t="str">
-        <f>E15</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M20" s="15">
-        <v>100</v>
-      </c>
-      <c r="N20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="R20" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="S20" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="T20" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="V20" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="X20" s="7" t="s">
-        <v>97</v>
+      <c r="G22" t="s">
+        <v>106</v>
+      </c>
+      <c r="H22" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J22" s="7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4677,10 +4222,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -4727,66 +4272,66 @@
         <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="H7" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="I7" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="J7" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="K7" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="L7" t="s">
-        <v>162</v>
+        <v>117</v>
       </c>
       <c r="M7" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="N7" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="O7" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" s="5" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>62</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -4800,25 +4345,25 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" s="5" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>66</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -4843,25 +4388,25 @@
         <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="I11" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="5:9">
@@ -4869,7 +4414,7 @@
         <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="G12" s="5" t="str">
         <f>菜单SAAS版!$E12</f>
@@ -4880,7 +4425,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I12" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="5:9">
@@ -4888,7 +4433,7 @@
         <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="G13" s="5" t="str">
         <f>菜单SAAS版!$E17</f>
@@ -4899,7 +4444,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I13" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="5:9">
@@ -4907,7 +4452,7 @@
         <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="G14" s="5" t="str">
         <f>菜单SAAS版!$E13</f>
@@ -4918,7 +4463,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I14" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="5:9">
@@ -4926,7 +4471,7 @@
         <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="G15" s="5" t="str">
         <f>菜单SAAS版!$E14</f>
@@ -4937,7 +4482,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I15" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="5:9">
@@ -4945,7 +4490,7 @@
         <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="G16" s="5" t="str">
         <f>菜单SAAS版!$E20</f>
@@ -4956,7 +4501,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I16" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="5:9">
@@ -4964,7 +4509,7 @@
         <v>60</v>
       </c>
       <c r="F17" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="G17" s="5" t="str">
         <f>菜单SAAS版!$E15</f>
@@ -4975,7 +4520,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I17" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="5:9">
@@ -4983,7 +4528,7 @@
         <v>60</v>
       </c>
       <c r="F18" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="G18" s="5" t="str">
         <f>菜单SAAS版!$E19</f>
@@ -4994,7 +4539,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I18" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="5:9">
@@ -5002,7 +4547,7 @@
         <v>60</v>
       </c>
       <c r="F19" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="G19" s="5" t="str">
         <f>菜单SAAS版!$E16</f>
@@ -5013,7 +4558,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I19" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="5:9">
@@ -5021,7 +4566,7 @@
         <v>60</v>
       </c>
       <c r="F20" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="G20" s="5" t="str">
         <f>菜单SAAS版!$E18</f>
@@ -5032,7 +4577,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I20" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="5:9">
@@ -5040,7 +4585,7 @@
         <v>60</v>
       </c>
       <c r="F21" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="G21" s="5" t="str">
         <f>菜单SAAS版!E17</f>
@@ -5051,7 +4596,7 @@
         <v>iam_label-11</v>
       </c>
       <c r="I21" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="5:9">
@@ -5059,7 +4604,7 @@
         <v>60</v>
       </c>
       <c r="F22" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="G22" s="5" t="str">
         <f>菜单SAAS版!E14</f>
@@ -5070,7 +4615,7 @@
         <v>iam_label-11</v>
       </c>
       <c r="I22" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="5:9">
@@ -5078,7 +4623,7 @@
         <v>60</v>
       </c>
       <c r="F23" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="G23" s="5" t="str">
         <f>菜单SAAS版!E20</f>
@@ -5089,7 +4634,7 @@
         <v>iam_label-11</v>
       </c>
       <c r="I23" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="5:9">
@@ -5097,7 +4642,7 @@
         <v>60</v>
       </c>
       <c r="F24" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="G24" s="5" t="str">
         <f>菜单SAAS版!E15</f>
@@ -5108,7 +4653,7 @@
         <v>iam_label-11</v>
       </c>
       <c r="I24" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="5:9">
@@ -5116,7 +4661,7 @@
         <v>60</v>
       </c>
       <c r="F25" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="G25" s="5" t="str">
         <f>菜单SAAS版!E19</f>
@@ -5127,7 +4672,7 @@
         <v>iam_label-11</v>
       </c>
       <c r="I25" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="5:9">
@@ -5135,7 +4680,7 @@
         <v>60</v>
       </c>
       <c r="F26" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="G26" s="5" t="str">
         <f>菜单SAAS版!E16</f>
@@ -5146,7 +4691,7 @@
         <v>iam_label-11</v>
       </c>
       <c r="I26" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="5:9">
@@ -5154,7 +4699,7 @@
         <v>60</v>
       </c>
       <c r="F27" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="G27" s="5" t="str">
         <f>菜单SAAS版!E18</f>
@@ -5165,7 +4710,45 @@
         <v>iam_label-11</v>
       </c>
       <c r="I27" t="s">
-        <v>181</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="5:9">
+      <c r="E28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" t="s">
+        <v>122</v>
+      </c>
+      <c r="G28" t="str">
+        <f>菜单SAAS版!E21</f>
+        <v>iam_menu-248</v>
+      </c>
+      <c r="H28" t="str">
+        <f>E8</f>
+        <v>iam_label-10</v>
+      </c>
+      <c r="I28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="5:9">
+      <c r="E29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" t="s">
+        <v>122</v>
+      </c>
+      <c r="G29" t="str">
+        <f>菜单SAAS版!E21</f>
+        <v>iam_menu-248</v>
+      </c>
+      <c r="H29" t="str">
+        <f>E9</f>
+        <v>iam_label-11</v>
+      </c>
+      <c r="I29" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/devops-menu-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/devops-menu-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="135">
   <si>
     <r>
       <rPr>
@@ -2105,12 +2105,6 @@
   </si>
   <si>
     <t>开发者</t>
-  </si>
-  <si>
-    <t>iam_menu-249</t>
-  </si>
-  <si>
-    <t>choerodon.code.organization.setting.developer</t>
   </si>
   <si>
     <t>标签表</t>
@@ -2245,10 +2239,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="42">
     <font>
@@ -2344,6 +2338,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2351,40 +2352,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2397,7 +2367,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2442,7 +2412,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2458,25 +2428,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2487,8 +2450,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2570,7 +2564,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2582,7 +2576,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2594,13 +2588,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2618,19 +2618,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2642,19 +2660,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2672,13 +2678,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2690,67 +2744,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2857,15 +2851,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2881,17 +2866,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2915,7 +2896,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2943,162 +2948,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3839,10 +3833,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -4193,26 +4187,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="5:10">
-      <c r="E22" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="G22" t="s">
-        <v>106</v>
-      </c>
-      <c r="H22" t="s">
-        <v>106</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J22" s="7">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -4224,7 +4198,7 @@
   <sheetPr/>
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -4272,66 +4246,66 @@
         <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" t="s">
         <v>111</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="I7" t="s">
         <v>112</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>113</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>114</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>115</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>116</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>117</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
         <v>118</v>
-      </c>
-      <c r="N7" t="s">
-        <v>119</v>
-      </c>
-      <c r="O7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>62</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
+        <v>121</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -4345,25 +4319,25 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>66</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -4388,25 +4362,25 @@
         <v>68</v>
       </c>
       <c r="C11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="F11" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="G11" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="I11" t="s">
         <v>133</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="I11" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="12" spans="5:9">
@@ -4414,7 +4388,7 @@
         <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G12" s="5" t="str">
         <f>菜单SAAS版!$E12</f>
@@ -4425,7 +4399,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="5:9">
@@ -4433,7 +4407,7 @@
         <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G13" s="5" t="str">
         <f>菜单SAAS版!$E17</f>
@@ -4444,7 +4418,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="5:9">
@@ -4452,7 +4426,7 @@
         <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G14" s="5" t="str">
         <f>菜单SAAS版!$E13</f>
@@ -4463,7 +4437,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="5:9">
@@ -4471,7 +4445,7 @@
         <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G15" s="5" t="str">
         <f>菜单SAAS版!$E14</f>
@@ -4482,7 +4456,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="5:9">
@@ -4490,7 +4464,7 @@
         <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G16" s="5" t="str">
         <f>菜单SAAS版!$E20</f>
@@ -4501,7 +4475,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="5:9">
@@ -4509,7 +4483,7 @@
         <v>60</v>
       </c>
       <c r="F17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G17" s="5" t="str">
         <f>菜单SAAS版!$E15</f>
@@ -4520,7 +4494,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="5:9">
@@ -4528,7 +4502,7 @@
         <v>60</v>
       </c>
       <c r="F18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G18" s="5" t="str">
         <f>菜单SAAS版!$E19</f>
@@ -4539,7 +4513,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="5:9">
@@ -4547,7 +4521,7 @@
         <v>60</v>
       </c>
       <c r="F19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G19" s="5" t="str">
         <f>菜单SAAS版!$E16</f>
@@ -4558,7 +4532,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="5:9">
@@ -4566,7 +4540,7 @@
         <v>60</v>
       </c>
       <c r="F20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G20" s="5" t="str">
         <f>菜单SAAS版!$E18</f>
@@ -4577,7 +4551,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="5:9">
@@ -4585,7 +4559,7 @@
         <v>60</v>
       </c>
       <c r="F21" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G21" s="5" t="str">
         <f>菜单SAAS版!E17</f>
@@ -4596,7 +4570,7 @@
         <v>iam_label-11</v>
       </c>
       <c r="I21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="5:9">
@@ -4604,7 +4578,7 @@
         <v>60</v>
       </c>
       <c r="F22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G22" s="5" t="str">
         <f>菜单SAAS版!E14</f>
@@ -4615,7 +4589,7 @@
         <v>iam_label-11</v>
       </c>
       <c r="I22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="5:9">
@@ -4623,7 +4597,7 @@
         <v>60</v>
       </c>
       <c r="F23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G23" s="5" t="str">
         <f>菜单SAAS版!E20</f>
@@ -4634,7 +4608,7 @@
         <v>iam_label-11</v>
       </c>
       <c r="I23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="5:9">
@@ -4642,7 +4616,7 @@
         <v>60</v>
       </c>
       <c r="F24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G24" s="5" t="str">
         <f>菜单SAAS版!E15</f>
@@ -4653,7 +4627,7 @@
         <v>iam_label-11</v>
       </c>
       <c r="I24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="5:9">
@@ -4661,7 +4635,7 @@
         <v>60</v>
       </c>
       <c r="F25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G25" s="5" t="str">
         <f>菜单SAAS版!E19</f>
@@ -4672,7 +4646,7 @@
         <v>iam_label-11</v>
       </c>
       <c r="I25" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="5:9">
@@ -4680,7 +4654,7 @@
         <v>60</v>
       </c>
       <c r="F26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G26" s="5" t="str">
         <f>菜单SAAS版!E16</f>
@@ -4691,7 +4665,7 @@
         <v>iam_label-11</v>
       </c>
       <c r="I26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="5:9">
@@ -4699,7 +4673,7 @@
         <v>60</v>
       </c>
       <c r="F27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G27" s="5" t="str">
         <f>菜单SAAS版!E18</f>
@@ -4710,7 +4684,7 @@
         <v>iam_label-11</v>
       </c>
       <c r="I27" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="5:9">
@@ -4718,7 +4692,7 @@
         <v>60</v>
       </c>
       <c r="F28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G28" t="str">
         <f>菜单SAAS版!E21</f>
@@ -4729,7 +4703,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I28" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="5:9">
@@ -4737,7 +4711,7 @@
         <v>60</v>
       </c>
       <c r="F29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G29" t="str">
         <f>菜单SAAS版!E21</f>
@@ -4748,7 +4722,7 @@
         <v>iam_label-11</v>
       </c>
       <c r="I29" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/devops-menu-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/devops-menu-label.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="129">
   <si>
     <r>
       <rPr>
@@ -2051,24 +2051,6 @@
   </si>
   <si>
     <t>设置</t>
-  </si>
-  <si>
-    <t>iam_menu-15</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting.general-setting</t>
-  </si>
-  <si>
-    <t>通用</t>
-  </si>
-  <si>
-    <t>iam_menu-9</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.cooperation.team-member</t>
-  </si>
-  <si>
-    <t>团队成员</t>
   </si>
   <si>
     <t>iam_menu-16</t>
@@ -2239,8 +2221,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -2337,10 +2319,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2352,9 +2342,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2365,18 +2355,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2405,6 +2395,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2422,29 +2419,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2473,6 +2447,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -2481,8 +2462,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2564,13 +2546,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2582,109 +2630,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2702,13 +2648,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2720,31 +2726,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2851,6 +2833,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2862,17 +2853,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2895,8 +2875,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2942,157 +2922,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3339,7 +3321,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3833,10 +3815,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:J22"/>
+      <selection activeCell="E16" sqref="E16:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -4128,62 +4110,22 @@
       </c>
     </row>
     <row r="19" spans="5:10">
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" t="s">
         <v>100</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" t="s">
         <v>100</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="5:10">
-      <c r="E20" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="5:10">
-      <c r="E21" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="G21" t="s">
-        <v>106</v>
-      </c>
-      <c r="H21" t="s">
-        <v>106</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J21" s="7">
+      <c r="J19" s="7">
         <v>0</v>
       </c>
     </row>
@@ -4196,10 +4138,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -4246,66 +4188,66 @@
         <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L7" t="s">
         <v>109</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="M7" t="s">
         <v>110</v>
       </c>
-      <c r="H7" t="s">
+      <c r="N7" t="s">
         <v>111</v>
       </c>
-      <c r="I7" t="s">
+      <c r="O7" t="s">
         <v>112</v>
-      </c>
-      <c r="J7" t="s">
-        <v>113</v>
-      </c>
-      <c r="K7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L7" t="s">
-        <v>115</v>
-      </c>
-      <c r="M7" t="s">
-        <v>116</v>
-      </c>
-      <c r="N7" t="s">
-        <v>117</v>
-      </c>
-      <c r="O7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>62</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -4319,25 +4261,25 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" s="5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>66</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -4362,25 +4304,25 @@
         <v>68</v>
       </c>
       <c r="C11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I11" t="s">
         <v>127</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="I11" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="12" spans="5:9">
@@ -4388,7 +4330,7 @@
         <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G12" s="5" t="str">
         <f>菜单SAAS版!$E12</f>
@@ -4399,7 +4341,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I12" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="5:9">
@@ -4407,18 +4349,18 @@
         <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G13" s="5" t="str">
-        <f>菜单SAAS版!$E17</f>
-        <v>iam_menu-9</v>
+        <f>菜单SAAS版!$E13</f>
+        <v>iam_menu-10</v>
       </c>
       <c r="H13" s="5" t="str">
         <f>菜单标签数据!$E$8</f>
         <v>iam_label-10</v>
       </c>
       <c r="I13" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="5:9">
@@ -4426,18 +4368,18 @@
         <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G14" s="5" t="str">
-        <f>菜单SAAS版!$E13</f>
-        <v>iam_menu-10</v>
+        <f>菜单SAAS版!$E14</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="H14" s="5" t="str">
         <f>菜单标签数据!$E$8</f>
         <v>iam_label-10</v>
       </c>
       <c r="I14" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="5:9">
@@ -4445,18 +4387,18 @@
         <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G15" s="5" t="str">
-        <f>菜单SAAS版!$E14</f>
-        <v>iam_menu-11</v>
+        <f>菜单SAAS版!$E18</f>
+        <v>iam_menu-12</v>
       </c>
       <c r="H15" s="5" t="str">
         <f>菜单标签数据!$E$8</f>
         <v>iam_label-10</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="5:9">
@@ -4464,18 +4406,18 @@
         <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G16" s="5" t="str">
-        <f>菜单SAAS版!$E20</f>
-        <v>iam_menu-12</v>
+        <f>菜单SAAS版!$E15</f>
+        <v>iam_menu-13</v>
       </c>
       <c r="H16" s="5" t="str">
         <f>菜单标签数据!$E$8</f>
         <v>iam_label-10</v>
       </c>
       <c r="I16" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="5:9">
@@ -4483,18 +4425,18 @@
         <v>60</v>
       </c>
       <c r="F17" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G17" s="5" t="str">
-        <f>菜单SAAS版!$E15</f>
-        <v>iam_menu-13</v>
+        <f>菜单SAAS版!$E17</f>
+        <v>iam_menu-14</v>
       </c>
       <c r="H17" s="5" t="str">
         <f>菜单标签数据!$E$8</f>
         <v>iam_label-10</v>
       </c>
       <c r="I17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="5:9">
@@ -4502,18 +4444,18 @@
         <v>60</v>
       </c>
       <c r="F18" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G18" s="5" t="str">
-        <f>菜单SAAS版!$E19</f>
-        <v>iam_menu-14</v>
+        <f>菜单SAAS版!$E16</f>
+        <v>iam_menu-16</v>
       </c>
       <c r="H18" s="5" t="str">
         <f>菜单标签数据!$E$8</f>
         <v>iam_label-10</v>
       </c>
       <c r="I18" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="5:9">
@@ -4521,18 +4463,18 @@
         <v>60</v>
       </c>
       <c r="F19" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G19" s="5" t="str">
-        <f>菜单SAAS版!$E16</f>
-        <v>iam_menu-15</v>
+        <f>菜单SAAS版!E14</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="H19" s="5" t="str">
-        <f>菜单标签数据!$E$8</f>
-        <v>iam_label-10</v>
+        <f>E9</f>
+        <v>iam_label-11</v>
       </c>
       <c r="I19" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="5:9">
@@ -4540,18 +4482,18 @@
         <v>60</v>
       </c>
       <c r="F20" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G20" s="5" t="str">
-        <f>菜单SAAS版!$E18</f>
-        <v>iam_menu-16</v>
+        <f>菜单SAAS版!E18</f>
+        <v>iam_menu-12</v>
       </c>
       <c r="H20" s="5" t="str">
-        <f>菜单标签数据!$E$8</f>
-        <v>iam_label-10</v>
+        <f>E9</f>
+        <v>iam_label-11</v>
       </c>
       <c r="I20" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="5:9">
@@ -4559,18 +4501,18 @@
         <v>60</v>
       </c>
       <c r="F21" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G21" s="5" t="str">
-        <f>菜单SAAS版!E17</f>
-        <v>iam_menu-9</v>
+        <f>菜单SAAS版!E15</f>
+        <v>iam_menu-13</v>
       </c>
       <c r="H21" s="5" t="str">
         <f>E9</f>
         <v>iam_label-11</v>
       </c>
       <c r="I21" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="5:9">
@@ -4578,18 +4520,18 @@
         <v>60</v>
       </c>
       <c r="F22" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G22" s="5" t="str">
-        <f>菜单SAAS版!E14</f>
-        <v>iam_menu-11</v>
+        <f>菜单SAAS版!E17</f>
+        <v>iam_menu-14</v>
       </c>
       <c r="H22" s="5" t="str">
         <f>E9</f>
         <v>iam_label-11</v>
       </c>
       <c r="I22" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="5:9">
@@ -4597,18 +4539,18 @@
         <v>60</v>
       </c>
       <c r="F23" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G23" s="5" t="str">
-        <f>菜单SAAS版!E20</f>
-        <v>iam_menu-12</v>
+        <f>菜单SAAS版!E16</f>
+        <v>iam_menu-16</v>
       </c>
       <c r="H23" s="5" t="str">
         <f>E9</f>
         <v>iam_label-11</v>
       </c>
       <c r="I23" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="5:9">
@@ -4616,18 +4558,18 @@
         <v>60</v>
       </c>
       <c r="F24" t="s">
-        <v>120</v>
-      </c>
-      <c r="G24" s="5" t="str">
-        <f>菜单SAAS版!E15</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="H24" s="5" t="str">
-        <f>E9</f>
-        <v>iam_label-11</v>
+        <v>114</v>
+      </c>
+      <c r="G24" t="str">
+        <f>菜单SAAS版!E19</f>
+        <v>iam_menu-248</v>
+      </c>
+      <c r="H24" t="str">
+        <f>E8</f>
+        <v>iam_label-10</v>
       </c>
       <c r="I24" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="5:9">
@@ -4635,94 +4577,18 @@
         <v>60</v>
       </c>
       <c r="F25" t="s">
-        <v>120</v>
-      </c>
-      <c r="G25" s="5" t="str">
+        <v>114</v>
+      </c>
+      <c r="G25" t="str">
         <f>菜单SAAS版!E19</f>
-        <v>iam_menu-14</v>
-      </c>
-      <c r="H25" s="5" t="str">
+        <v>iam_menu-248</v>
+      </c>
+      <c r="H25" t="str">
         <f>E9</f>
         <v>iam_label-11</v>
       </c>
       <c r="I25" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" spans="5:9">
-      <c r="E26" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" t="s">
-        <v>120</v>
-      </c>
-      <c r="G26" s="5" t="str">
-        <f>菜单SAAS版!E16</f>
-        <v>iam_menu-15</v>
-      </c>
-      <c r="H26" s="5" t="str">
-        <f>E9</f>
-        <v>iam_label-11</v>
-      </c>
-      <c r="I26" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="27" spans="5:9">
-      <c r="E27" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" t="s">
-        <v>120</v>
-      </c>
-      <c r="G27" s="5" t="str">
-        <f>菜单SAAS版!E18</f>
-        <v>iam_menu-16</v>
-      </c>
-      <c r="H27" s="5" t="str">
-        <f>E9</f>
-        <v>iam_label-11</v>
-      </c>
-      <c r="I27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="28" spans="5:9">
-      <c r="E28" t="s">
-        <v>60</v>
-      </c>
-      <c r="F28" t="s">
-        <v>120</v>
-      </c>
-      <c r="G28" t="str">
-        <f>菜单SAAS版!E21</f>
-        <v>iam_menu-248</v>
-      </c>
-      <c r="H28" t="str">
-        <f>E8</f>
-        <v>iam_label-10</v>
-      </c>
-      <c r="I28" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" spans="5:9">
-      <c r="E29" t="s">
-        <v>60</v>
-      </c>
-      <c r="F29" t="s">
-        <v>120</v>
-      </c>
-      <c r="G29" t="str">
-        <f>菜单SAAS版!E21</f>
-        <v>iam_menu-248</v>
-      </c>
-      <c r="H29" t="str">
-        <f>E9</f>
-        <v>iam_label-11</v>
-      </c>
-      <c r="I29" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/devops-menu-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/devops-menu-label.xlsx
@@ -2086,7 +2086,7 @@
     <t>choerodon.code.project.setting.developer</t>
   </si>
   <si>
-    <t>开发者</t>
+    <t>开发</t>
   </si>
   <si>
     <t>标签表</t>
@@ -2221,10 +2221,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="42">
     <font>
@@ -2319,18 +2319,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2342,7 +2334,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2362,8 +2370,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2378,6 +2393,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -2386,16 +2409,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2425,30 +2440,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2462,9 +2463,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2546,13 +2546,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2564,7 +2558,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2594,12 +2624,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2612,7 +2636,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2624,7 +2648,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2636,13 +2666,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2654,55 +2678,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2720,13 +2696,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2842,6 +2842,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2853,6 +2864,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2875,32 +2910,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2919,162 +2930,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3818,7 +3818,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:I17"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/devops-menu-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/devops-menu-label.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="131">
   <si>
     <r>
       <rPr>
@@ -2011,6 +2011,12 @@
     <t>#h_tenant_id</t>
   </si>
   <si>
+    <t>parent_id</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
     <t>iam_menu-8</t>
   </si>
   <si>
@@ -2026,6 +2032,9 @@
     <t>0</t>
   </si>
   <si>
+    <t>root</t>
+  </si>
+  <si>
     <t>iam_menu-10</t>
   </si>
   <si>
@@ -2035,13 +2044,7 @@
     <t>项目概览</t>
   </si>
   <si>
-    <t>iam_menu-11</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.operation.chart</t>
-  </si>
-  <si>
-    <t>图表</t>
+    <t>menu</t>
   </si>
   <si>
     <t>iam_menu-13</t>
@@ -2087,6 +2090,9 @@
   </si>
   <si>
     <t>开发</t>
+  </si>
+  <si>
+    <t>dir</t>
   </si>
   <si>
     <t>标签表</t>
@@ -2221,10 +2227,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="42">
     <font>
@@ -2319,66 +2325,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2393,6 +2341,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -2401,16 +2414,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2424,23 +2438,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2464,7 +2462,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2546,66 +2552,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2618,13 +2564,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2642,7 +2618,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2654,13 +2654,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2672,49 +2702,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2726,7 +2720,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2842,17 +2848,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2868,11 +2863,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2888,21 +2889,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2930,16 +2916,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2948,133 +2954,133 @@
     <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3321,7 +3327,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3815,10 +3821,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -3827,11 +3833,13 @@
     <col min="2" max="3" width="9" style="7"/>
     <col min="4" max="4" width="23.437037037037" style="7" customWidth="1"/>
     <col min="5" max="5" width="18" style="7" customWidth="1"/>
-    <col min="6" max="6" width="42.5555555555556" style="7" customWidth="1"/>
+    <col min="6" max="6" width="41.8888888888889" style="7" customWidth="1"/>
     <col min="7" max="7" width="21" style="7" customWidth="1"/>
     <col min="8" max="8" width="14.437037037037" style="7" customWidth="1"/>
     <col min="9" max="9" width="11.6666666666667" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="7"/>
+    <col min="10" max="10" width="10.5555555555556" style="7" customWidth="1"/>
+    <col min="11" max="11" width="12.4444444444444" style="7" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3937,7 +3945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:12">
       <c r="A11" s="7" t="s">
         <v>50</v>
       </c>
@@ -3968,165 +3976,198 @@
       <c r="J11" s="10" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="12" spans="5:10">
+      <c r="K11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="5:12">
       <c r="E12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="5:10">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="5:12">
       <c r="E13" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="str">
+        <f>E12</f>
+        <v>iam_menu-8</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="5:12">
+      <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H13" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="5:10">
-      <c r="E14" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="5:10">
-      <c r="E15" s="7" t="s">
+    </row>
+    <row r="15" spans="5:12">
+      <c r="E15" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K15" s="7" t="str">
+        <f>E14</f>
+        <v>iam_menu-13</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="5:10">
+    </row>
+    <row r="16" spans="5:12">
       <c r="E16" s="15" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="5:10">
+        <v>81</v>
+      </c>
+      <c r="K16" s="7" t="str">
+        <f>E14</f>
+        <v>iam_menu-13</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12">
       <c r="E17" s="15" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="5:10">
-      <c r="E18" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>97</v>
+        <v>81</v>
+      </c>
+      <c r="K17" s="7" t="str">
+        <f>E14</f>
+        <v>iam_menu-13</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12">
+      <c r="E18" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" t="s">
+        <v>101</v>
+      </c>
+      <c r="H18" t="s">
+        <v>101</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="5:10">
-      <c r="E19" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="G19" t="s">
-        <v>100</v>
-      </c>
-      <c r="H19" t="s">
-        <v>100</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J19" s="7">
+        <v>80</v>
+      </c>
+      <c r="J18" s="7">
         <v>0</v>
+      </c>
+      <c r="K18" s="7" t="str">
+        <f>E14</f>
+        <v>iam_menu-13</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -4138,10 +4179,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -4188,66 +4229,66 @@
         <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>62</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -4261,25 +4302,25 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>66</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -4304,25 +4345,25 @@
         <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="5:9">
@@ -4330,7 +4371,7 @@
         <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G12" s="5" t="str">
         <f>菜单SAAS版!$E12</f>
@@ -4341,7 +4382,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="5:9">
@@ -4349,7 +4390,7 @@
         <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G13" s="5" t="str">
         <f>菜单SAAS版!$E13</f>
@@ -4360,7 +4401,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="5:9">
@@ -4368,18 +4409,18 @@
         <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G14" s="5" t="str">
-        <f>菜单SAAS版!$E14</f>
-        <v>iam_menu-11</v>
+        <f>菜单SAAS版!$E17</f>
+        <v>iam_menu-12</v>
       </c>
       <c r="H14" s="5" t="str">
         <f>菜单标签数据!$E$8</f>
         <v>iam_label-10</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="5:9">
@@ -4387,18 +4428,18 @@
         <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G15" s="5" t="str">
-        <f>菜单SAAS版!$E18</f>
-        <v>iam_menu-12</v>
+        <f>菜单SAAS版!$E14</f>
+        <v>iam_menu-13</v>
       </c>
       <c r="H15" s="5" t="str">
         <f>菜单标签数据!$E$8</f>
         <v>iam_label-10</v>
       </c>
       <c r="I15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="5:9">
@@ -4406,18 +4447,18 @@
         <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G16" s="5" t="str">
-        <f>菜单SAAS版!$E15</f>
-        <v>iam_menu-13</v>
+        <f>菜单SAAS版!$E16</f>
+        <v>iam_menu-14</v>
       </c>
       <c r="H16" s="5" t="str">
         <f>菜单标签数据!$E$8</f>
         <v>iam_label-10</v>
       </c>
       <c r="I16" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="5:9">
@@ -4425,18 +4466,18 @@
         <v>60</v>
       </c>
       <c r="F17" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G17" s="5" t="str">
-        <f>菜单SAAS版!$E17</f>
-        <v>iam_menu-14</v>
+        <f>菜单SAAS版!$E15</f>
+        <v>iam_menu-16</v>
       </c>
       <c r="H17" s="5" t="str">
         <f>菜单标签数据!$E$8</f>
         <v>iam_label-10</v>
       </c>
       <c r="I17" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="5:9">
@@ -4444,18 +4485,18 @@
         <v>60</v>
       </c>
       <c r="F18" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G18" s="5" t="str">
-        <f>菜单SAAS版!$E16</f>
-        <v>iam_menu-16</v>
+        <f>菜单SAAS版!E17</f>
+        <v>iam_menu-12</v>
       </c>
       <c r="H18" s="5" t="str">
-        <f>菜单标签数据!$E$8</f>
-        <v>iam_label-10</v>
+        <f>E9</f>
+        <v>iam_label-11</v>
       </c>
       <c r="I18" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="5:9">
@@ -4463,18 +4504,18 @@
         <v>60</v>
       </c>
       <c r="F19" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G19" s="5" t="str">
         <f>菜单SAAS版!E14</f>
-        <v>iam_menu-11</v>
+        <v>iam_menu-13</v>
       </c>
       <c r="H19" s="5" t="str">
         <f>E9</f>
         <v>iam_label-11</v>
       </c>
       <c r="I19" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="5:9">
@@ -4482,18 +4523,18 @@
         <v>60</v>
       </c>
       <c r="F20" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G20" s="5" t="str">
-        <f>菜单SAAS版!E18</f>
-        <v>iam_menu-12</v>
+        <f>菜单SAAS版!E16</f>
+        <v>iam_menu-14</v>
       </c>
       <c r="H20" s="5" t="str">
         <f>E9</f>
         <v>iam_label-11</v>
       </c>
       <c r="I20" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="5:9">
@@ -4501,18 +4542,18 @@
         <v>60</v>
       </c>
       <c r="F21" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G21" s="5" t="str">
         <f>菜单SAAS版!E15</f>
-        <v>iam_menu-13</v>
+        <v>iam_menu-16</v>
       </c>
       <c r="H21" s="5" t="str">
         <f>E9</f>
         <v>iam_label-11</v>
       </c>
       <c r="I21" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="5:9">
@@ -4520,18 +4561,18 @@
         <v>60</v>
       </c>
       <c r="F22" t="s">
-        <v>114</v>
-      </c>
-      <c r="G22" s="5" t="str">
-        <f>菜单SAAS版!E17</f>
-        <v>iam_menu-14</v>
-      </c>
-      <c r="H22" s="5" t="str">
-        <f>E9</f>
-        <v>iam_label-11</v>
+        <v>116</v>
+      </c>
+      <c r="G22" t="str">
+        <f>菜单SAAS版!E18</f>
+        <v>iam_menu-248</v>
+      </c>
+      <c r="H22" t="str">
+        <f>E8</f>
+        <v>iam_label-10</v>
       </c>
       <c r="I22" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="5:9">
@@ -4539,56 +4580,18 @@
         <v>60</v>
       </c>
       <c r="F23" t="s">
-        <v>114</v>
-      </c>
-      <c r="G23" s="5" t="str">
-        <f>菜单SAAS版!E16</f>
-        <v>iam_menu-16</v>
-      </c>
-      <c r="H23" s="5" t="str">
+        <v>116</v>
+      </c>
+      <c r="G23" t="str">
+        <f>菜单SAAS版!E18</f>
+        <v>iam_menu-248</v>
+      </c>
+      <c r="H23" t="str">
         <f>E9</f>
         <v>iam_label-11</v>
       </c>
       <c r="I23" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="5:9">
-      <c r="E24" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" t="s">
-        <v>114</v>
-      </c>
-      <c r="G24" t="str">
-        <f>菜单SAAS版!E19</f>
-        <v>iam_menu-248</v>
-      </c>
-      <c r="H24" t="str">
-        <f>E8</f>
-        <v>iam_label-10</v>
-      </c>
-      <c r="I24" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="5:9">
-      <c r="E25" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" t="s">
-        <v>114</v>
-      </c>
-      <c r="G25" t="str">
-        <f>菜单SAAS版!E19</f>
-        <v>iam_menu-248</v>
-      </c>
-      <c r="H25" t="str">
-        <f>E9</f>
-        <v>iam_label-11</v>
-      </c>
-      <c r="I25" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/devops-menu-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/devops-menu-label.xlsx
@@ -2227,10 +2227,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="42">
     <font>
@@ -2325,11 +2325,40 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2342,45 +2371,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2391,31 +2384,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2438,16 +2408,31 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2455,7 +2440,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2471,6 +2464,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2552,6 +2552,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2564,25 +2600,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2594,49 +2612,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2649,54 +2649,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2720,19 +2672,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2848,6 +2848,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2878,6 +2893,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2888,30 +2912,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2939,148 +2939,148 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3824,7 +3824,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -4109,8 +4109,8 @@
         <v>81</v>
       </c>
       <c r="K16" s="7" t="str">
-        <f>E14</f>
-        <v>iam_menu-13</v>
+        <f>E18</f>
+        <v>iam_menu-248</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>86</v>
@@ -4136,8 +4136,8 @@
         <v>81</v>
       </c>
       <c r="K17" s="7" t="str">
-        <f>E14</f>
-        <v>iam_menu-13</v>
+        <f>E18</f>
+        <v>iam_menu-248</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>86</v>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/devops-menu-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/devops-menu-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -1944,24 +1944,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Devops</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>流程</t>
-    </r>
+    <t>DevOps</t>
   </si>
   <si>
     <t>N_OPERATIONS</t>
@@ -2227,9 +2210,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="42">
@@ -2328,15 +2311,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2347,24 +2329,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2378,7 +2367,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2401,7 +2406,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2415,40 +2428,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2462,15 +2444,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2552,102 +2535,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2660,7 +2547,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2673,66 +2716,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2839,11 +2822,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2863,17 +2876,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2895,39 +2911,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2939,148 +2922,148 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3327,7 +3310,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3583,21 +3566,21 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="15.5555555555556" style="19" customWidth="1"/>
     <col min="2" max="2" width="10.3333333333333" style="15" customWidth="1"/>
-    <col min="3" max="3" width="28.1037037037037" customWidth="1"/>
+    <col min="3" max="3" width="28.1041666666667" customWidth="1"/>
     <col min="4" max="4" width="35.3333333333333" style="20" customWidth="1"/>
     <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="23.437037037037" customWidth="1"/>
+    <col min="6" max="6" width="23.4375" customWidth="1"/>
     <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
     <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1037037037037" customWidth="1"/>
+    <col min="11" max="11" width="19.1041666666667" customWidth="1"/>
     <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
-    <col min="13" max="13" width="13.1037037037037" customWidth="1"/>
+    <col min="13" max="13" width="13.1041666666667" customWidth="1"/>
     <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3612,7 +3595,7 @@
       <c r="G1" s="23"/>
       <c r="H1" s="23"/>
     </row>
-    <row r="2" ht="18" spans="5:5">
+    <row r="2" spans="5:5">
       <c r="E2" s="24"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
@@ -3626,7 +3609,7 @@
       <c r="F3" s="26"/>
       <c r="G3" s="26"/>
     </row>
-    <row r="4" ht="18" spans="3:7">
+    <row r="4" spans="3:7">
       <c r="C4" s="27" t="s">
         <v>3</v>
       </c>
@@ -3647,7 +3630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
+    <row r="7" spans="3:5">
       <c r="C7" s="31" t="s">
         <v>8</v>
       </c>
@@ -3667,7 +3650,7 @@
       </c>
       <c r="E8" s="36"/>
     </row>
-    <row r="9" ht="51.75" spans="3:6">
+    <row r="9" ht="52.2" spans="3:6">
       <c r="C9" s="37" t="s">
         <v>13</v>
       </c>
@@ -3681,7 +3664,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
+    <row r="10" ht="52.2" spans="3:5">
       <c r="C10" s="40" t="s">
         <v>17</v>
       </c>
@@ -3692,7 +3675,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
+    <row r="11" ht="69.6" spans="3:5">
       <c r="C11" s="34" t="s">
         <v>20</v>
       </c>
@@ -3724,7 +3707,7 @@
       <c r="D14" s="35"/>
       <c r="E14" s="36"/>
     </row>
-    <row r="15" ht="34.5" spans="3:5">
+    <row r="15" ht="34.8" spans="3:5">
       <c r="C15" s="42" t="s">
         <v>26</v>
       </c>
@@ -3747,7 +3730,7 @@
       <c r="D19" s="45"/>
       <c r="E19" s="45"/>
     </row>
-    <row r="20" ht="18" spans="3:4">
+    <row r="20" spans="3:4">
       <c r="C20" s="46" t="s">
         <v>31</v>
       </c>
@@ -3755,7 +3738,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
+    <row r="21" spans="3:4">
       <c r="C21" s="46" t="s">
         <v>33</v>
       </c>
@@ -3763,7 +3746,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
+    <row r="22" spans="3:4">
       <c r="C22" s="46" t="s">
         <v>35</v>
       </c>
@@ -3771,7 +3754,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
+    <row r="23" spans="3:4">
       <c r="C23" s="46" t="s">
         <v>37</v>
       </c>
@@ -3797,7 +3780,7 @@
       </c>
       <c r="E26" s="25"/>
     </row>
-    <row r="27" ht="51.75" spans="3:3">
+    <row r="27" ht="52.2" spans="3:3">
       <c r="C27" s="48" t="s">
         <v>43</v>
       </c>
@@ -3823,19 +3806,19 @@
   <sheetPr/>
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="1" max="1" width="14.437037037037" style="7" customWidth="1"/>
+    <col min="1" max="1" width="14.4375" style="7" customWidth="1"/>
     <col min="2" max="3" width="9" style="7"/>
-    <col min="4" max="4" width="23.437037037037" style="7" customWidth="1"/>
+    <col min="4" max="4" width="23.4375" style="7" customWidth="1"/>
     <col min="5" max="5" width="18" style="7" customWidth="1"/>
     <col min="6" max="6" width="41.8888888888889" style="7" customWidth="1"/>
     <col min="7" max="7" width="21" style="7" customWidth="1"/>
-    <col min="8" max="8" width="14.437037037037" style="7" customWidth="1"/>
+    <col min="8" max="8" width="14.4375" style="7" customWidth="1"/>
     <col min="9" max="9" width="11.6666666666667" style="7" customWidth="1"/>
     <col min="10" max="10" width="10.5555555555556" style="7" customWidth="1"/>
     <col min="11" max="11" width="12.4444444444444" style="7" customWidth="1"/>
@@ -4185,15 +4168,15 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
     <col min="4" max="4" width="17.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="14.1037037037037" customWidth="1"/>
+    <col min="5" max="5" width="14.1041666666667" customWidth="1"/>
     <col min="6" max="6" width="14.7777777777778" customWidth="1"/>
     <col min="7" max="7" width="14.5555555555556" customWidth="1"/>
     <col min="8" max="8" width="19.5555555555556" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="20.1037037037037" customWidth="1"/>
+    <col min="11" max="11" width="20.1041666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/devops-menu-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/devops-menu-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="138">
   <si>
     <r>
       <rPr>
@@ -2009,6 +2009,9 @@
     <t>协作</t>
   </si>
   <si>
+    <t>Cooperate</t>
+  </si>
+  <si>
     <t>organization</t>
   </si>
   <si>
@@ -2027,6 +2030,9 @@
     <t>项目概览</t>
   </si>
   <si>
+    <t>Overview</t>
+  </si>
+  <si>
     <t>menu</t>
   </si>
   <si>
@@ -2039,6 +2045,9 @@
     <t>设置</t>
   </si>
   <si>
+    <t>Settings</t>
+  </si>
+  <si>
     <t>iam_menu-16</t>
   </si>
   <si>
@@ -2048,6 +2057,9 @@
     <t>通知</t>
   </si>
   <si>
+    <t>Notifications</t>
+  </si>
+  <si>
     <t>iam_menu-14</t>
   </si>
   <si>
@@ -2057,6 +2069,9 @@
     <t>客户端</t>
   </si>
   <si>
+    <t>Client</t>
+  </si>
+  <si>
     <t>iam_menu-12</t>
   </si>
   <si>
@@ -2066,6 +2081,9 @@
     <t>事务实例</t>
   </si>
   <si>
+    <t>Transaction Instance</t>
+  </si>
+  <si>
     <t>iam_menu-248</t>
   </si>
   <si>
@@ -2073,6 +2091,9 @@
   </si>
   <si>
     <t>开发</t>
+  </si>
+  <si>
+    <t>Development</t>
   </si>
   <si>
     <t>dir</t>
@@ -2215,7 +2236,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="46">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2256,6 +2277,32 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Droid Sans Fallback"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFE2C23"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="LarkHackSafariFont"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFE2C23"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2308,10 +2355,32 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2323,37 +2392,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2367,7 +2406,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2376,6 +2446,22 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2391,53 +2477,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2452,8 +2492,15 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2535,7 +2582,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2547,7 +2600,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2559,121 +2672,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2691,13 +2696,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2715,17 +2714,80 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFDEE0E3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDEE0E3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDEE0E3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDEE0E3"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2822,26 +2884,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2861,6 +2908,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2872,24 +2928,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2909,6 +2947,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2919,156 +2972,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3100,13 +3162,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3115,57 +3185,57 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3566,155 +3636,155 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="19" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="15" customWidth="1"/>
-    <col min="3" max="3" width="28.1041666666667" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="20" customWidth="1"/>
+    <col min="1" max="1" width="15.5555555555556" style="23" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="16" customWidth="1"/>
+    <col min="3" max="3" width="28.1037037037037" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="24" customWidth="1"/>
     <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="23.4375" customWidth="1"/>
+    <col min="6" max="6" width="23.437037037037" customWidth="1"/>
     <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
     <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1041666666667" customWidth="1"/>
+    <col min="11" max="11" width="19.1037037037037" customWidth="1"/>
     <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
-    <col min="13" max="13" width="13.1041666666667" customWidth="1"/>
+    <col min="13" max="13" width="13.1037037037037" customWidth="1"/>
     <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="21"/>
-      <c r="C1" s="22" t="s">
+      <c r="A1" s="25"/>
+      <c r="C1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-    </row>
-    <row r="2" spans="5:5">
-      <c r="E2" s="24"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" ht="18" spans="5:5">
+      <c r="E2" s="28"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-    </row>
-    <row r="4" spans="3:7">
-      <c r="C4" s="27" t="s">
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+    </row>
+    <row r="4" ht="18" spans="3:7">
+      <c r="C4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28" t="s">
+      <c r="D4" s="31"/>
+      <c r="E4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="34" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="21"/>
+      <c r="A5" s="25"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="31" t="s">
+    <row r="7" ht="18" spans="3:5">
+      <c r="C7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="37" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="36"/>
-    </row>
-    <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="37" t="s">
+      <c r="E8" s="40"/>
+    </row>
+    <row r="9" ht="51.75" spans="3:6">
+      <c r="C9" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="43" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="40" t="s">
+    <row r="10" ht="51.75" spans="3:5">
+      <c r="C10" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="43" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="34" t="s">
+    <row r="11" ht="69" spans="3:5">
+      <c r="C11" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="43" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="45" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="34"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="40"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="34"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="36"/>
-    </row>
-    <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="42" t="s">
+      <c r="C14" s="38"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
+    </row>
+    <row r="15" ht="34.5" spans="3:5">
+      <c r="C15" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="48" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3724,64 +3794,64 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="46" t="s">
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+    </row>
+    <row r="20" ht="18" spans="3:4">
+      <c r="C20" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="46" t="s">
+    <row r="21" ht="18" spans="3:4">
+      <c r="C21" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="28" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="46" t="s">
+    <row r="22" ht="18" spans="3:4">
+      <c r="C22" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="46" t="s">
+    <row r="23" ht="18" spans="3:4">
+      <c r="C23" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="47" t="s">
+      <c r="C25" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="25"/>
+      <c r="E25" s="29"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="25"/>
-    </row>
-    <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="48" t="s">
+      <c r="E26" s="29"/>
+    </row>
+    <row r="27" ht="51.75" spans="3:3">
+      <c r="C27" s="52" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3806,19 +3876,19 @@
   <sheetPr/>
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="14.4375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="14.437037037037" style="7" customWidth="1"/>
     <col min="2" max="3" width="9" style="7"/>
-    <col min="4" max="4" width="23.4375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="23.437037037037" style="7" customWidth="1"/>
     <col min="5" max="5" width="18" style="7" customWidth="1"/>
     <col min="6" max="6" width="41.8888888888889" style="7" customWidth="1"/>
     <col min="7" max="7" width="21" style="7" customWidth="1"/>
-    <col min="8" max="8" width="14.4375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="14.437037037037" style="7" customWidth="1"/>
     <col min="9" max="9" width="11.6666666666667" style="7" customWidth="1"/>
     <col min="10" max="10" width="10.5555555555556" style="7" customWidth="1"/>
     <col min="11" max="11" width="12.4444444444444" style="7" customWidth="1"/>
@@ -3921,7 +3991,7 @@
       <c r="H9" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="22" t="s">
         <v>67</v>
       </c>
       <c r="J9" s="7">
@@ -3976,171 +4046,171 @@
       <c r="G12" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H12" s="14" t="s">
-        <v>79</v>
+      <c r="H12" s="15" t="s">
+        <v>80</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7">
         <v>0</v>
       </c>
       <c r="L12" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="5:12">
+      <c r="E13" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="5:12">
-      <c r="E13" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="K13" s="7" t="str">
         <f>E12</f>
         <v>iam_menu-8</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="5:12">
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7">
         <v>0</v>
       </c>
       <c r="L14" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="5:12">
+      <c r="E15" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="5:12">
-      <c r="E15" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="K15" s="7" t="str">
         <f>E14</f>
         <v>iam_menu-13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="5:12">
-      <c r="E16" s="15" t="s">
-        <v>93</v>
+      <c r="E16" s="16" t="s">
+        <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>100</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K16" s="7" t="str">
         <f>E18</f>
         <v>iam_menu-248</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="5:12">
-      <c r="E17" s="15" t="s">
-        <v>96</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" ht="28.5" spans="5:12">
+      <c r="E17" s="16" t="s">
+        <v>101</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K17" s="7" t="str">
         <f>E18</f>
         <v>iam_menu-248</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="5:12">
-      <c r="E18" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>100</v>
+      <c r="E18" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>106</v>
       </c>
       <c r="G18" t="s">
-        <v>101</v>
-      </c>
-      <c r="H18" t="s">
-        <v>101</v>
+        <v>107</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>108</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J18" s="7">
         <v>0</v>
@@ -4150,7 +4220,7 @@
         <v>iam_menu-13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -4168,15 +4238,15 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
     <col min="4" max="4" width="17.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="14.1041666666667" customWidth="1"/>
+    <col min="5" max="5" width="14.1037037037037" customWidth="1"/>
     <col min="6" max="6" width="14.7777777777778" customWidth="1"/>
     <col min="7" max="7" width="14.5555555555556" customWidth="1"/>
     <col min="8" max="8" width="19.5555555555556" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="20.1041666666667" customWidth="1"/>
+    <col min="11" max="11" width="20.1037037037037" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4212,66 +4282,66 @@
         <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="H7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="I7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="J7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="K7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="L7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="N7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="O7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" s="5" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>62</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -4285,25 +4355,25 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>66</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -4328,25 +4398,25 @@
         <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I11" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="5:9">
@@ -4354,7 +4424,7 @@
         <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="G12" s="5" t="str">
         <f>菜单SAAS版!$E12</f>
@@ -4365,7 +4435,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I12" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="5:9">
@@ -4373,7 +4443,7 @@
         <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="G13" s="5" t="str">
         <f>菜单SAAS版!$E13</f>
@@ -4384,7 +4454,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="5:9">
@@ -4392,7 +4462,7 @@
         <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="G14" s="5" t="str">
         <f>菜单SAAS版!$E17</f>
@@ -4403,7 +4473,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="5:9">
@@ -4411,7 +4481,7 @@
         <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="G15" s="5" t="str">
         <f>菜单SAAS版!$E14</f>
@@ -4422,7 +4492,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="5:9">
@@ -4430,7 +4500,7 @@
         <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="G16" s="5" t="str">
         <f>菜单SAAS版!$E16</f>
@@ -4441,7 +4511,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I16" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="5:9">
@@ -4449,7 +4519,7 @@
         <v>60</v>
       </c>
       <c r="F17" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="G17" s="5" t="str">
         <f>菜单SAAS版!$E15</f>
@@ -4460,7 +4530,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I17" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="5:9">
@@ -4468,7 +4538,7 @@
         <v>60</v>
       </c>
       <c r="F18" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="G18" s="5" t="str">
         <f>菜单SAAS版!E17</f>
@@ -4479,7 +4549,7 @@
         <v>iam_label-11</v>
       </c>
       <c r="I18" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="5:9">
@@ -4487,7 +4557,7 @@
         <v>60</v>
       </c>
       <c r="F19" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="G19" s="5" t="str">
         <f>菜单SAAS版!E14</f>
@@ -4498,7 +4568,7 @@
         <v>iam_label-11</v>
       </c>
       <c r="I19" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="5:9">
@@ -4506,7 +4576,7 @@
         <v>60</v>
       </c>
       <c r="F20" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="G20" s="5" t="str">
         <f>菜单SAAS版!E16</f>
@@ -4517,7 +4587,7 @@
         <v>iam_label-11</v>
       </c>
       <c r="I20" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="5:9">
@@ -4525,7 +4595,7 @@
         <v>60</v>
       </c>
       <c r="F21" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="G21" s="5" t="str">
         <f>菜单SAAS版!E15</f>
@@ -4536,7 +4606,7 @@
         <v>iam_label-11</v>
       </c>
       <c r="I21" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="5:9">
@@ -4544,7 +4614,7 @@
         <v>60</v>
       </c>
       <c r="F22" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="G22" t="str">
         <f>菜单SAAS版!E18</f>
@@ -4555,7 +4625,7 @@
         <v>iam_label-10</v>
       </c>
       <c r="I22" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="5:9">
@@ -4563,7 +4633,7 @@
         <v>60</v>
       </c>
       <c r="F23" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="G23" t="str">
         <f>菜单SAAS版!E18</f>
@@ -4574,7 +4644,7 @@
         <v>iam_label-11</v>
       </c>
       <c r="I23" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/devops-menu-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/devops-menu-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="21731" windowHeight="10020" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="138">
   <si>
     <r>
       <rPr>
@@ -1909,7 +1909,10 @@
     <t>DESCRIPTION</t>
   </si>
   <si>
-    <t>NAME</t>
+    <t>name:zh_CN</t>
+  </si>
+  <si>
+    <t>name:en_US</t>
   </si>
   <si>
     <t>BUILT_IN_FLAG</t>
@@ -1973,6 +1976,9 @@
     </r>
   </si>
   <si>
+    <t>Operation</t>
+  </si>
+  <si>
     <t>hzero</t>
   </si>
   <si>
@@ -1980,12 +1986,6 @@
   </si>
   <si>
     <t>iam_menu</t>
-  </si>
-  <si>
-    <t>name:zh_CN</t>
-  </si>
-  <si>
-    <t>name:en_US</t>
   </si>
   <si>
     <t>#fd_level</t>
@@ -2233,8 +2233,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="46">
     <font>
@@ -2355,21 +2355,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -2378,21 +2363,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2406,14 +2377,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2427,14 +2398,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -2445,39 +2408,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2496,6 +2450,52 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2582,13 +2582,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2600,55 +2738,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2660,109 +2756,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2884,15 +2884,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2908,11 +2899,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2932,32 +2962,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2972,160 +2981,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3636,21 +3636,21 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="15.5555555555556" style="23" customWidth="1"/>
     <col min="2" max="2" width="10.3333333333333" style="16" customWidth="1"/>
-    <col min="3" max="3" width="28.1037037037037" customWidth="1"/>
+    <col min="3" max="3" width="28.1041666666667" customWidth="1"/>
     <col min="4" max="4" width="35.3333333333333" style="24" customWidth="1"/>
     <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="23.437037037037" customWidth="1"/>
+    <col min="6" max="6" width="23.4375" customWidth="1"/>
     <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
     <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1037037037037" customWidth="1"/>
+    <col min="11" max="11" width="19.1041666666667" customWidth="1"/>
     <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
-    <col min="13" max="13" width="13.1037037037037" customWidth="1"/>
+    <col min="13" max="13" width="13.1041666666667" customWidth="1"/>
     <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3665,7 +3665,7 @@
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
-    <row r="2" ht="18" spans="5:5">
+    <row r="2" spans="5:5">
       <c r="E2" s="28"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
@@ -3679,7 +3679,7 @@
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
     </row>
-    <row r="4" ht="18" spans="3:7">
+    <row r="4" spans="3:7">
       <c r="C4" s="31" t="s">
         <v>3</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
+    <row r="7" spans="3:5">
       <c r="C7" s="35" t="s">
         <v>8</v>
       </c>
@@ -3720,7 +3720,7 @@
       </c>
       <c r="E8" s="40"/>
     </row>
-    <row r="9" ht="51.75" spans="3:6">
+    <row r="9" ht="52.2" spans="3:6">
       <c r="C9" s="41" t="s">
         <v>13</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
+    <row r="10" ht="52.2" spans="3:5">
       <c r="C10" s="44" t="s">
         <v>17</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
+    <row r="11" ht="69.6" spans="3:5">
       <c r="C11" s="38" t="s">
         <v>20</v>
       </c>
@@ -3777,7 +3777,7 @@
       <c r="D14" s="39"/>
       <c r="E14" s="40"/>
     </row>
-    <row r="15" ht="34.5" spans="3:5">
+    <row r="15" ht="34.8" spans="3:5">
       <c r="C15" s="46" t="s">
         <v>26</v>
       </c>
@@ -3800,7 +3800,7 @@
       <c r="D19" s="49"/>
       <c r="E19" s="49"/>
     </row>
-    <row r="20" ht="18" spans="3:4">
+    <row r="20" spans="3:4">
       <c r="C20" s="50" t="s">
         <v>31</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
+    <row r="21" spans="3:4">
       <c r="C21" s="50" t="s">
         <v>33</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
+    <row r="22" spans="3:4">
       <c r="C22" s="50" t="s">
         <v>35</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
+    <row r="23" spans="3:4">
       <c r="C23" s="50" t="s">
         <v>37</v>
       </c>
@@ -3850,7 +3850,7 @@
       </c>
       <c r="E26" s="29"/>
     </row>
-    <row r="27" ht="51.75" spans="3:3">
+    <row r="27" ht="52.2" spans="3:3">
       <c r="C27" s="52" t="s">
         <v>43</v>
       </c>
@@ -3876,23 +3876,23 @@
   <sheetPr/>
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20:J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="1" max="1" width="14.437037037037" style="7" customWidth="1"/>
+    <col min="1" max="1" width="14.4375" style="7" customWidth="1"/>
     <col min="2" max="3" width="9" style="7"/>
-    <col min="4" max="4" width="23.437037037037" style="7" customWidth="1"/>
+    <col min="4" max="4" width="23.4375" style="7" customWidth="1"/>
     <col min="5" max="5" width="18" style="7" customWidth="1"/>
     <col min="6" max="6" width="41.8888888888889" style="7" customWidth="1"/>
     <col min="7" max="7" width="21" style="7" customWidth="1"/>
-    <col min="8" max="8" width="14.437037037037" style="7" customWidth="1"/>
-    <col min="9" max="9" width="11.6666666666667" style="7" customWidth="1"/>
-    <col min="10" max="10" width="10.5555555555556" style="7" customWidth="1"/>
+    <col min="8" max="8" width="14.4375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="7" customWidth="1"/>
+    <col min="10" max="10" width="17.5" style="7" customWidth="1"/>
     <col min="11" max="11" width="12.4444444444444" style="7" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="7"/>
+    <col min="12" max="16383" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3920,7 +3920,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="7" t="s">
         <v>50</v>
       </c>
@@ -3945,56 +3945,65 @@
       <c r="H7" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="13"/>
       <c r="B8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" s="7">
+        <v>65</v>
+      </c>
+      <c r="J8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="13"/>
       <c r="B9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="J9" s="7">
+        <v>68</v>
+      </c>
+      <c r="J9" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="7">
         <v>1</v>
       </c>
     </row>
@@ -4003,13 +4012,13 @@
         <v>50</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>54</v>
@@ -4018,10 +4027,10 @@
         <v>55</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>73</v>
@@ -4169,7 +4178,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" ht="28.5" spans="5:12">
+    <row r="17" spans="5:12">
       <c r="E17" s="16" t="s">
         <v>101</v>
       </c>
@@ -4238,15 +4247,15 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
     <col min="4" max="4" width="17.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="14.1037037037037" customWidth="1"/>
+    <col min="5" max="5" width="14.1041666666667" customWidth="1"/>
     <col min="6" max="6" width="14.7777777777778" customWidth="1"/>
     <col min="7" max="7" width="14.5555555555556" customWidth="1"/>
     <col min="8" max="8" width="19.5555555555556" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="20.1037037037037" customWidth="1"/>
+    <col min="11" max="11" width="20.1041666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4279,7 +4288,7 @@
         <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
         <v>110</v>
@@ -4326,7 +4335,7 @@
         <v>122</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>123</v>
@@ -4358,7 +4367,7 @@
         <v>127</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>123</v>
@@ -4395,7 +4404,7 @@
         <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
         <v>130</v>
@@ -4421,7 +4430,7 @@
     </row>
     <row r="12" spans="5:9">
       <c r="E12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F12" t="s">
         <v>123</v>
@@ -4440,7 +4449,7 @@
     </row>
     <row r="13" spans="5:9">
       <c r="E13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F13" t="s">
         <v>123</v>
@@ -4459,7 +4468,7 @@
     </row>
     <row r="14" spans="5:9">
       <c r="E14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F14" t="s">
         <v>123</v>
@@ -4478,7 +4487,7 @@
     </row>
     <row r="15" spans="5:9">
       <c r="E15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F15" t="s">
         <v>123</v>
@@ -4497,7 +4506,7 @@
     </row>
     <row r="16" spans="5:9">
       <c r="E16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F16" t="s">
         <v>123</v>
@@ -4516,7 +4525,7 @@
     </row>
     <row r="17" spans="5:9">
       <c r="E17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F17" t="s">
         <v>123</v>
@@ -4535,7 +4544,7 @@
     </row>
     <row r="18" spans="5:9">
       <c r="E18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F18" t="s">
         <v>123</v>
@@ -4554,7 +4563,7 @@
     </row>
     <row r="19" spans="5:9">
       <c r="E19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F19" t="s">
         <v>123</v>
@@ -4573,7 +4582,7 @@
     </row>
     <row r="20" spans="5:9">
       <c r="E20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F20" t="s">
         <v>123</v>
@@ -4592,7 +4601,7 @@
     </row>
     <row r="21" spans="5:9">
       <c r="E21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F21" t="s">
         <v>123</v>
@@ -4611,7 +4620,7 @@
     </row>
     <row r="22" spans="5:9">
       <c r="E22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -4630,7 +4639,7 @@
     </row>
     <row r="23" spans="5:9">
       <c r="E23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F23" t="s">
         <v>123</v>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/devops-menu-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/devops-menu-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12420" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="130">
   <si>
     <r>
       <rPr>
@@ -2000,16 +2000,16 @@
     <t>type</t>
   </si>
   <si>
-    <t>iam_menu-8</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.cooperation</t>
-  </si>
-  <si>
-    <t>协作</t>
-  </si>
-  <si>
-    <t>Cooperate</t>
+    <t>iam_menu-13</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting</t>
+  </si>
+  <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>Settings</t>
   </si>
   <si>
     <t>organization</t>
@@ -2021,43 +2021,19 @@
     <t>root</t>
   </si>
   <si>
-    <t>iam_menu-10</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.project.overview</t>
-  </si>
-  <si>
-    <t>项目概览</t>
-  </si>
-  <si>
-    <t>Overview</t>
+    <t>iam_menu-16</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting.setting-notify</t>
+  </si>
+  <si>
+    <t>通知</t>
+  </si>
+  <si>
+    <t>Notifications</t>
   </si>
   <si>
     <t>menu</t>
-  </si>
-  <si>
-    <t>iam_menu-13</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting</t>
-  </si>
-  <si>
-    <t>设置</t>
-  </si>
-  <si>
-    <t>Settings</t>
-  </si>
-  <si>
-    <t>iam_menu-16</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting.setting-notify</t>
-  </si>
-  <si>
-    <t>通知</t>
-  </si>
-  <si>
-    <t>Notifications</t>
   </si>
   <si>
     <t>iam_menu-14</t>
@@ -2233,10 +2209,10 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="46">
+  <fonts count="44">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2277,18 +2253,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Droid Sans Fallback"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFE2C23"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="LarkHackSafariFont"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2355,21 +2319,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -2378,21 +2327,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2406,14 +2341,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2427,14 +2362,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -2445,39 +2372,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2496,6 +2414,52 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2582,13 +2546,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2600,55 +2702,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2660,134 +2720,23 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFDEE0E3"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFDEE0E3"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFDEE0E3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFDEE0E3"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2884,15 +2833,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2908,11 +2848,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2932,32 +2911,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2972,165 +2930,156 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3159,24 +3108,19 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3185,57 +3129,57 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3638,10 +3582,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="23" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="16" customWidth="1"/>
+    <col min="1" max="1" width="15.5555555555556" style="20" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="15" customWidth="1"/>
     <col min="3" max="3" width="28.1037037037037" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="24" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="21" customWidth="1"/>
     <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
     <col min="6" max="6" width="23.437037037037" customWidth="1"/>
     <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
@@ -3655,79 +3599,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="A1" s="22"/>
+      <c r="C1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="28"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32" t="s">
+      <c r="D4" s="28"/>
+      <c r="E4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="31" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="25"/>
+      <c r="A5" s="22"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="34" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="40"/>
+      <c r="E8" s="37"/>
     </row>
     <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="40" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -3735,56 +3679,56 @@
       </c>
     </row>
     <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="40" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="40" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="42" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="40"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="37"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37"/>
     </row>
     <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="48" t="s">
+      <c r="E15" s="45" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3794,64 +3738,64 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
     </row>
     <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="25" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="29"/>
+      <c r="E25" s="26"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="29"/>
+      <c r="E26" s="26"/>
     </row>
     <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="52" t="s">
+      <c r="C27" s="49" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3874,10 +3818,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -3991,7 +3935,7 @@
       <c r="H9" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="19" t="s">
         <v>67</v>
       </c>
       <c r="J9" s="7">
@@ -4043,10 +3987,10 @@
       <c r="F12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="14" t="s">
         <v>80</v>
       </c>
       <c r="I12" s="7" t="s">
@@ -4063,7 +4007,7 @@
       </c>
     </row>
     <row r="13" spans="5:12">
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="15" t="s">
         <v>84</v>
       </c>
       <c r="F13" s="7" t="s">
@@ -4072,7 +4016,7 @@
       <c r="G13" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="14" t="s">
         <v>87</v>
       </c>
       <c r="I13" s="7" t="s">
@@ -4083,14 +4027,14 @@
       </c>
       <c r="K13" s="7" t="str">
         <f>E12</f>
-        <v>iam_menu-8</v>
+        <v>iam_menu-13</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="14" spans="5:12">
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="15" t="s">
         <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
@@ -4099,7 +4043,7 @@
       <c r="G14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="14" t="s">
         <v>92</v>
       </c>
       <c r="I14" s="7" t="s">
@@ -4108,15 +4052,16 @@
       <c r="J14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7">
-        <v>0</v>
+      <c r="K14" s="7" t="str">
+        <f>E16</f>
+        <v>iam_menu-248</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="5:12">
-      <c r="E15" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" ht="28.5" spans="5:12">
+      <c r="E15" s="15" t="s">
         <v>93</v>
       </c>
       <c r="F15" s="7" t="s">
@@ -4125,7 +4070,7 @@
       <c r="G15" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="16" t="s">
         <v>96</v>
       </c>
       <c r="I15" s="7" t="s">
@@ -4135,92 +4080,38 @@
         <v>82</v>
       </c>
       <c r="K15" s="7" t="str">
-        <f>E14</f>
-        <v>iam_menu-13</v>
+        <f>E16</f>
+        <v>iam_menu-248</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="16" spans="5:12">
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" t="s">
         <v>99</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="14" t="s">
         <v>100</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="J16" s="7" t="s">
-        <v>82</v>
+      <c r="J16" s="7">
+        <v>0</v>
       </c>
       <c r="K16" s="7" t="str">
-        <f>E18</f>
-        <v>iam_menu-248</v>
+        <f>E12</f>
+        <v>iam_menu-13</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" ht="28.5" spans="5:12">
-      <c r="E17" s="16" t="s">
         <v>101</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K17" s="7" t="str">
-        <f>E18</f>
-        <v>iam_menu-248</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="5:12">
-      <c r="E18" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="G18" t="s">
-        <v>107</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="J18" s="7">
-        <v>0</v>
-      </c>
-      <c r="K18" s="7" t="str">
-        <f>E14</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -4232,10 +4123,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -4282,66 +4173,66 @@
         <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" t="s">
+        <v>110</v>
+      </c>
+      <c r="M7" t="s">
+        <v>111</v>
+      </c>
+      <c r="N7" t="s">
         <v>112</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="O7" t="s">
         <v>113</v>
-      </c>
-      <c r="H7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I7" t="s">
-        <v>115</v>
-      </c>
-      <c r="J7" t="s">
-        <v>116</v>
-      </c>
-      <c r="K7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L7" t="s">
-        <v>118</v>
-      </c>
-      <c r="M7" t="s">
-        <v>119</v>
-      </c>
-      <c r="N7" t="s">
-        <v>120</v>
-      </c>
-      <c r="O7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>62</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -4355,25 +4246,25 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" s="5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>66</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -4398,25 +4289,25 @@
         <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="I11" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="5:9">
@@ -4424,18 +4315,18 @@
         <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G12" s="5" t="str">
-        <f>菜单SAAS版!$E12</f>
-        <v>iam_menu-8</v>
+        <f>菜单SAAS版!$E15</f>
+        <v>iam_menu-12</v>
       </c>
       <c r="H12" s="5" t="str">
         <f>菜单标签数据!$E$8</f>
         <v>iam_label-10</v>
       </c>
       <c r="I12" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="5:9">
@@ -4443,18 +4334,18 @@
         <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G13" s="5" t="str">
-        <f>菜单SAAS版!$E13</f>
-        <v>iam_menu-10</v>
+        <f>菜单SAAS版!$E12</f>
+        <v>iam_menu-13</v>
       </c>
       <c r="H13" s="5" t="str">
         <f>菜单标签数据!$E$8</f>
         <v>iam_label-10</v>
       </c>
       <c r="I13" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="5:9">
@@ -4462,18 +4353,18 @@
         <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G14" s="5" t="str">
-        <f>菜单SAAS版!$E17</f>
-        <v>iam_menu-12</v>
+        <f>菜单SAAS版!$E14</f>
+        <v>iam_menu-14</v>
       </c>
       <c r="H14" s="5" t="str">
         <f>菜单标签数据!$E$8</f>
         <v>iam_label-10</v>
       </c>
       <c r="I14" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="5:9">
@@ -4481,18 +4372,18 @@
         <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G15" s="5" t="str">
-        <f>菜单SAAS版!$E14</f>
-        <v>iam_menu-13</v>
+        <f>菜单SAAS版!$E13</f>
+        <v>iam_menu-16</v>
       </c>
       <c r="H15" s="5" t="str">
         <f>菜单标签数据!$E$8</f>
         <v>iam_label-10</v>
       </c>
       <c r="I15" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="5:9">
@@ -4500,18 +4391,18 @@
         <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G16" s="5" t="str">
-        <f>菜单SAAS版!$E16</f>
-        <v>iam_menu-14</v>
+        <f>菜单SAAS版!E15</f>
+        <v>iam_menu-12</v>
       </c>
       <c r="H16" s="5" t="str">
-        <f>菜单标签数据!$E$8</f>
-        <v>iam_label-10</v>
+        <f>E9</f>
+        <v>iam_label-11</v>
       </c>
       <c r="I16" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="5:9">
@@ -4519,18 +4410,18 @@
         <v>60</v>
       </c>
       <c r="F17" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G17" s="5" t="str">
-        <f>菜单SAAS版!$E15</f>
-        <v>iam_menu-16</v>
+        <f>菜单SAAS版!E12</f>
+        <v>iam_menu-13</v>
       </c>
       <c r="H17" s="5" t="str">
-        <f>菜单标签数据!$E$8</f>
-        <v>iam_label-10</v>
+        <f>E9</f>
+        <v>iam_label-11</v>
       </c>
       <c r="I17" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="5:9">
@@ -4538,18 +4429,18 @@
         <v>60</v>
       </c>
       <c r="F18" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G18" s="5" t="str">
-        <f>菜单SAAS版!E17</f>
-        <v>iam_menu-12</v>
+        <f>菜单SAAS版!E14</f>
+        <v>iam_menu-14</v>
       </c>
       <c r="H18" s="5" t="str">
         <f>E9</f>
         <v>iam_label-11</v>
       </c>
       <c r="I18" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="5:9">
@@ -4557,18 +4448,18 @@
         <v>60</v>
       </c>
       <c r="F19" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G19" s="5" t="str">
-        <f>菜单SAAS版!E14</f>
-        <v>iam_menu-13</v>
+        <f>菜单SAAS版!E13</f>
+        <v>iam_menu-16</v>
       </c>
       <c r="H19" s="5" t="str">
         <f>E9</f>
         <v>iam_label-11</v>
       </c>
       <c r="I19" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="5:9">
@@ -4576,18 +4467,18 @@
         <v>60</v>
       </c>
       <c r="F20" t="s">
-        <v>123</v>
-      </c>
-      <c r="G20" s="5" t="str">
+        <v>115</v>
+      </c>
+      <c r="G20" t="str">
         <f>菜单SAAS版!E16</f>
-        <v>iam_menu-14</v>
-      </c>
-      <c r="H20" s="5" t="str">
-        <f>E9</f>
-        <v>iam_label-11</v>
+        <v>iam_menu-248</v>
+      </c>
+      <c r="H20" t="str">
+        <f>E8</f>
+        <v>iam_label-10</v>
       </c>
       <c r="I20" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="5:9">
@@ -4595,56 +4486,18 @@
         <v>60</v>
       </c>
       <c r="F21" t="s">
-        <v>123</v>
-      </c>
-      <c r="G21" s="5" t="str">
-        <f>菜单SAAS版!E15</f>
-        <v>iam_menu-16</v>
-      </c>
-      <c r="H21" s="5" t="str">
+        <v>115</v>
+      </c>
+      <c r="G21" t="str">
+        <f>菜单SAAS版!E16</f>
+        <v>iam_menu-248</v>
+      </c>
+      <c r="H21" t="str">
         <f>E9</f>
         <v>iam_label-11</v>
       </c>
       <c r="I21" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="22" spans="5:9">
-      <c r="E22" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" t="s">
-        <v>123</v>
-      </c>
-      <c r="G22" t="str">
-        <f>菜单SAAS版!E18</f>
-        <v>iam_menu-248</v>
-      </c>
-      <c r="H22" t="str">
-        <f>E8</f>
-        <v>iam_label-10</v>
-      </c>
-      <c r="I22" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="23" spans="5:9">
-      <c r="E23" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" t="s">
-        <v>123</v>
-      </c>
-      <c r="G23" t="str">
-        <f>菜单SAAS版!E18</f>
-        <v>iam_menu-248</v>
-      </c>
-      <c r="H23" t="str">
-        <f>E9</f>
-        <v>iam_label-11</v>
-      </c>
-      <c r="I23" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
